--- a/Manual/input-data.xlsx
+++ b/Manual/input-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker/Manual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker-git/nimf-tracker/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907CA463-D9AC-BA47-9B2C-C8ED32C6814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94728899-B62C-6144-8030-CF0011B0C866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4100" windowWidth="28800" windowHeight="17500" firstSheet="4" activeTab="17" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
+    <workbookView xWindow="27520" yWindow="7860" windowWidth="17060" windowHeight="9960" firstSheet="6" activeTab="13" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
   </bookViews>
   <sheets>
     <sheet name="gst-eway" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="cowin-state" sheetId="17" r:id="rId17"/>
     <sheet name="age-pib" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="207">
   <si>
     <t>e-Way</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Bihar</t>
   </si>
   <si>
-    <t>1832 </t>
-  </si>
-  <si>
     <t>2 </t>
   </si>
   <si>
@@ -303,13 +300,7 @@
     <t>Goa</t>
   </si>
   <si>
-    <t>9 </t>
-  </si>
-  <si>
     <t>Gujarat</t>
-  </si>
-  <si>
-    <t>16 </t>
   </si>
   <si>
     <t>Haryana</t>
@@ -330,16 +321,10 @@
     <t>22 </t>
   </si>
   <si>
-    <t>Kerala***</t>
-  </si>
-  <si>
     <t>Ladakh</t>
   </si>
   <si>
     <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>18 </t>
   </si>
   <si>
     <t>Madhya Pradesh</t>
@@ -375,9 +360,6 @@
     <t>Punjab</t>
   </si>
   <si>
-    <t>783 </t>
-  </si>
-  <si>
     <t>Rajasthan</t>
   </si>
   <si>
@@ -405,235 +387,16 @@
     <t>35 </t>
   </si>
   <si>
-    <t>41 </t>
-  </si>
-  <si>
-    <t>60 </t>
-  </si>
-  <si>
-    <t>3175 </t>
-  </si>
-  <si>
-    <t>10290 </t>
-  </si>
-  <si>
-    <t>23 </t>
-  </si>
-  <si>
-    <t>431 </t>
-  </si>
-  <si>
-    <t>888 </t>
-  </si>
-  <si>
-    <t>4545 </t>
-  </si>
-  <si>
-    <t>20 </t>
-  </si>
-  <si>
-    <t>2275 </t>
-  </si>
-  <si>
-    <t>3308 </t>
-  </si>
-  <si>
-    <t>729 </t>
-  </si>
-  <si>
-    <t>1291 </t>
-  </si>
-  <si>
     <t>3 </t>
-  </si>
-  <si>
-    <t>1890 </t>
-  </si>
-  <si>
-    <t>6516 </t>
-  </si>
-  <si>
-    <t>19 </t>
-  </si>
-  <si>
-    <t>24 </t>
-  </si>
-  <si>
-    <t>5140 </t>
-  </si>
-  <si>
-    <t>9397 </t>
   </si>
   <si>
     <t>34 </t>
   </si>
   <si>
-    <t>2450 </t>
-  </si>
-  <si>
-    <t>3390 </t>
-  </si>
-  <si>
-    <t>10308 </t>
-  </si>
-  <si>
-    <t>23197 </t>
-  </si>
-  <si>
-    <t>4007 </t>
-  </si>
-  <si>
-    <t>9759 </t>
-  </si>
-  <si>
-    <t>805 </t>
-  </si>
-  <si>
-    <t>2618 </t>
-  </si>
-  <si>
-    <t>7 </t>
-  </si>
-  <si>
-    <t>1312 </t>
-  </si>
-  <si>
-    <t>6264 </t>
-  </si>
-  <si>
-    <t>2719 </t>
-  </si>
-  <si>
-    <t>29198 </t>
-  </si>
-  <si>
-    <t>67232 </t>
-  </si>
-  <si>
-    <t>49 </t>
-  </si>
-  <si>
-    <t>8933 </t>
-  </si>
-  <si>
-    <t>42653 </t>
-  </si>
-  <si>
-    <t>96 </t>
-  </si>
-  <si>
-    <t>58 </t>
-  </si>
-  <si>
-    <t>191 </t>
-  </si>
-  <si>
     <t>13 </t>
   </si>
   <si>
-    <t>1021 </t>
-  </si>
-  <si>
-    <t>10547 </t>
-  </si>
-  <si>
-    <t>11325 </t>
-  </si>
-  <si>
-    <t>36708 </t>
-  </si>
-  <si>
-    <t>42 </t>
-  </si>
-  <si>
-    <t>347 </t>
-  </si>
-  <si>
     <t>79 </t>
-  </si>
-  <si>
-    <t>361 </t>
-  </si>
-  <si>
-    <t>1018 </t>
-  </si>
-  <si>
-    <t>1046 </t>
-  </si>
-  <si>
-    <t>88 </t>
-  </si>
-  <si>
-    <t>5264 </t>
-  </si>
-  <si>
-    <t>11157 </t>
-  </si>
-  <si>
-    <t>547 </t>
-  </si>
-  <si>
-    <t>1486 </t>
-  </si>
-  <si>
-    <t>3378 </t>
-  </si>
-  <si>
-    <t>7423 </t>
-  </si>
-  <si>
-    <t>48 </t>
-  </si>
-  <si>
-    <t>6880 </t>
-  </si>
-  <si>
-    <t>16087 </t>
-  </si>
-  <si>
-    <t>306 </t>
-  </si>
-  <si>
-    <t>416 </t>
-  </si>
-  <si>
-    <t>158 </t>
-  </si>
-  <si>
-    <t>28620 </t>
-  </si>
-  <si>
-    <t>53 </t>
-  </si>
-  <si>
-    <t>1497 </t>
-  </si>
-  <si>
-    <t>2444 </t>
-  </si>
-  <si>
-    <t>477 </t>
-  </si>
-  <si>
-    <t>1573 </t>
-  </si>
-  <si>
-    <t>3999 </t>
-  </si>
-  <si>
-    <t>7949 </t>
-  </si>
-  <si>
-    <t>16786 </t>
-  </si>
-  <si>
-    <t>11644 </t>
-  </si>
-  <si>
-    <t>15216 </t>
-  </si>
-  <si>
-    <t>36 </t>
   </si>
   <si>
     <t>State</t>
@@ -646,9 +409,6 @@
   </si>
   <si>
     <t>totally_vaccinated</t>
-  </si>
-  <si>
-    <t>precaution_dose</t>
   </si>
   <si>
     <t>A &amp; N Islands</t>
@@ -692,6 +452,225 @@
   <si>
     <t>Above 60 Years</t>
   </si>
+  <si>
+    <t>26 </t>
+  </si>
+  <si>
+    <t>2125 </t>
+  </si>
+  <si>
+    <t>9445 </t>
+  </si>
+  <si>
+    <t>54 </t>
+  </si>
+  <si>
+    <t>379 </t>
+  </si>
+  <si>
+    <t>3225 </t>
+  </si>
+  <si>
+    <t>5497 </t>
+  </si>
+  <si>
+    <t>1281 </t>
+  </si>
+  <si>
+    <t>2577 </t>
+  </si>
+  <si>
+    <t>828 </t>
+  </si>
+  <si>
+    <t>1146 </t>
+  </si>
+  <si>
+    <t>1008 </t>
+  </si>
+  <si>
+    <t>4776 </t>
+  </si>
+  <si>
+    <t>12 </t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>4352 </t>
+  </si>
+  <si>
+    <t>8807 </t>
+  </si>
+  <si>
+    <t>28 </t>
+  </si>
+  <si>
+    <t>1482 </t>
+  </si>
+  <si>
+    <t>2691 </t>
+  </si>
+  <si>
+    <t>10 </t>
+  </si>
+  <si>
+    <t>9894 </t>
+  </si>
+  <si>
+    <t>21655 </t>
+  </si>
+  <si>
+    <t>1791 </t>
+  </si>
+  <si>
+    <t>6223 </t>
+  </si>
+  <si>
+    <t>299 </t>
+  </si>
+  <si>
+    <t>2005 </t>
+  </si>
+  <si>
+    <t>2937 </t>
+  </si>
+  <si>
+    <t>7107 </t>
+  </si>
+  <si>
+    <t>2640 </t>
+  </si>
+  <si>
+    <t>3675 </t>
+  </si>
+  <si>
+    <t>36635 </t>
+  </si>
+  <si>
+    <t>69902 </t>
+  </si>
+  <si>
+    <t>70 </t>
+  </si>
+  <si>
+    <t>2758 </t>
+  </si>
+  <si>
+    <t>47649 </t>
+  </si>
+  <si>
+    <t>94 </t>
+  </si>
+  <si>
+    <t>260 </t>
+  </si>
+  <si>
+    <t>1903 </t>
+  </si>
+  <si>
+    <t>10576 </t>
+  </si>
+  <si>
+    <t>22232 </t>
+  </si>
+  <si>
+    <t>50142 </t>
+  </si>
+  <si>
+    <t>61 </t>
+  </si>
+  <si>
+    <t>130 </t>
+  </si>
+  <si>
+    <t>294 </t>
+  </si>
+  <si>
+    <t>320 </t>
+  </si>
+  <si>
+    <t>203 </t>
+  </si>
+  <si>
+    <t>1611 </t>
+  </si>
+  <si>
+    <t>80 </t>
+  </si>
+  <si>
+    <t>5440 </t>
+  </si>
+  <si>
+    <t>10267 </t>
+  </si>
+  <si>
+    <t>1751 </t>
+  </si>
+  <si>
+    <t>2604 </t>
+  </si>
+  <si>
+    <t>3570 </t>
+  </si>
+  <si>
+    <t>6805 </t>
+  </si>
+  <si>
+    <t>31 </t>
+  </si>
+  <si>
+    <t>5639 </t>
+  </si>
+  <si>
+    <t>16054 </t>
+  </si>
+  <si>
+    <t>135 </t>
+  </si>
+  <si>
+    <t>291 </t>
+  </si>
+  <si>
+    <t>3513 </t>
+  </si>
+  <si>
+    <t>27885 </t>
+  </si>
+  <si>
+    <t>46 </t>
+  </si>
+  <si>
+    <t>3555 </t>
+  </si>
+  <si>
+    <t>668 </t>
+  </si>
+  <si>
+    <t>851 </t>
+  </si>
+  <si>
+    <t>160 </t>
+  </si>
+  <si>
+    <t>2320 </t>
+  </si>
+  <si>
+    <t>5662 </t>
+  </si>
+  <si>
+    <t>13910 </t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>7811 </t>
+  </si>
+  <si>
+    <t>11288 </t>
+  </si>
 </sst>
 </file>
 
@@ -700,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -777,13 +756,33 @@
       <color rgb="FFFF0000"/>
       <name val="Robotoregular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -813,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -838,7 +837,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37651D-4599-2748-92D7-4C797FB0A6C3}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3994,10 +3997,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885F84EB-1F73-1245-BB50-FDD52D41BDBE}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4682,6 +4685,17 @@
       </c>
       <c r="C62" s="5">
         <v>7.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3">
+        <v>44575</v>
+      </c>
+      <c r="B63" s="5">
+        <v>9.15</v>
+      </c>
+      <c r="C63" s="5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4693,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC45300-6A73-FD40-9CA1-0A8697567D0E}">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5706,10 +5720,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5353B576-38C4-E445-9E6D-988228532D05}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6735,6 +6749,17 @@
       </c>
       <c r="C93" s="5">
         <v>9.16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="24">
+        <v>44575</v>
+      </c>
+      <c r="B94" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C94" s="5">
+        <v>8.02</v>
       </c>
     </row>
   </sheetData>
@@ -6746,7 +6771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0D774-4FB9-484A-8B9C-C85D078E33FB}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -6769,16 +6796,16 @@
         <v>68</v>
       </c>
       <c r="B2" s="21">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D2" s="21">
-        <v>8991</v>
+        <v>9165</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F2" s="21">
         <v>129</v>
@@ -6792,26 +6819,26 @@
         <v>69</v>
       </c>
       <c r="B3" s="21">
-        <v>109493</v>
+        <v>115425</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D3" s="21">
-        <v>2111975</v>
+        <v>2130162</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F3" s="21">
-        <v>14579</v>
+        <v>14594</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
@@ -6819,22 +6846,22 @@
         <v>71</v>
       </c>
       <c r="B4" s="21">
-        <v>3332</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>122</v>
+        <v>3143</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="21">
-        <v>57630</v>
+        <v>58524</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F4" s="21">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23">
@@ -6846,26 +6873,26 @@
         <v>72</v>
       </c>
       <c r="B5" s="21">
-        <v>36522</v>
+        <v>30135</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D5" s="21">
-        <v>665629</v>
+        <v>677128</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F5" s="21">
-        <v>6379</v>
+        <v>6422</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18">
@@ -6873,26 +6900,26 @@
         <v>74</v>
       </c>
       <c r="B6" s="21">
-        <v>10322</v>
+        <v>7713</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D6" s="21">
-        <v>796332</v>
+        <v>801885</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F6" s="21">
-        <v>12205</v>
+        <v>12217</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18">
@@ -6900,22 +6927,22 @@
         <v>62</v>
       </c>
       <c r="B7" s="21">
-        <v>5420</v>
+        <v>3819</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D7" s="21">
-        <v>81455</v>
+        <v>83769</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F7" s="21">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23">
@@ -6924,46 +6951,46 @@
     </row>
     <row r="8" spans="1:9" ht="18">
       <c r="A8" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="21">
-        <v>27290</v>
+        <v>25115</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D8" s="21">
-        <v>1072007</v>
+        <v>1081858</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F8" s="21">
-        <v>13798</v>
+        <v>13824</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18">
       <c r="A9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="21">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D9" s="21">
-        <v>11106</v>
+        <v>11170</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F9" s="21">
         <v>4</v>
@@ -6974,287 +7001,291 @@
     </row>
     <row r="10" spans="1:9" ht="18">
       <c r="A10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="21">
-        <v>33175</v>
+        <v>24800</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D10" s="21">
-        <v>1756369</v>
+        <v>1773218</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F10" s="21">
-        <v>25744</v>
+        <v>25797</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="21">
-        <v>13269</v>
+        <v>10421</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D11" s="21">
-        <v>218125</v>
+        <v>223484</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F11" s="21">
-        <v>3645</v>
+        <v>3675</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="21">
-        <v>117884</v>
+        <v>98021</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D12" s="21">
-        <v>992431</v>
+        <v>1036156</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F12" s="21">
-        <v>10345</v>
+        <v>10408</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18">
       <c r="A13" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" s="21">
-        <v>35581</v>
+        <v>30220</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D13" s="21">
-        <v>887158</v>
+        <v>901562</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F13" s="21">
-        <v>10237</v>
+        <v>10269</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18">
       <c r="A14" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="21">
-        <v>10336</v>
+        <v>9453</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D14" s="21">
-        <v>251430</v>
+        <v>255852</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F14" s="21">
-        <v>3968</v>
+        <v>3986</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="21">
-        <v>46657</v>
+        <v>42219</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D15" s="21">
-        <v>368432</v>
+        <v>381389</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F15" s="21">
-        <v>4642</v>
+        <v>4652</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="21">
-        <v>12076</v>
+        <v>7743</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="D16" s="21">
-        <v>407862</v>
+        <v>414136</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F16" s="21">
-        <v>5291</v>
+        <v>5300</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="21">
-        <v>328741</v>
+        <v>252162</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D17" s="21">
-        <v>3325001</v>
+        <v>3465995</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F17" s="21">
-        <v>38754</v>
+        <v>38874</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="21" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B18" s="21">
-        <v>310202</v>
+        <v>336920</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D18" s="21">
-        <v>5463960</v>
+        <v>5541834</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F18" s="21">
-        <v>52434</v>
+        <v>53191</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="H18" s="23">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="I18" s="23">
-        <v>153</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
       <c r="A19" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B19" s="21">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D19" s="21">
-        <v>23875</v>
+        <v>24278</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F19" s="21">
-        <v>223</v>
-      </c>
-      <c r="G19" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="18">
       <c r="A20" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B20" s="21">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="D20" s="21">
-        <v>10612</v>
+        <v>10687</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="F20" s="21">
         <v>52</v>
@@ -7265,457 +7296,457 @@
     </row>
     <row r="21" spans="1:9" ht="18">
       <c r="A21" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" s="21">
-        <v>71203</v>
+        <v>66042</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D21" s="21">
-        <v>851893</v>
+        <v>873485</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F21" s="21">
-        <v>10597</v>
+        <v>10607</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B22" s="21">
-        <v>291247</v>
+        <v>248212</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D22" s="21">
-        <v>7197001</v>
+        <v>7292791</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F22" s="21">
-        <v>142358</v>
+        <v>142522</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18">
       <c r="A23" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B23" s="21">
-        <v>3760</v>
+        <v>3934</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D23" s="21">
-        <v>125908</v>
+        <v>126609</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F23" s="21">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B24" s="21">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="D24" s="21">
-        <v>85917</v>
+        <v>86585</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F24" s="21">
-        <v>1509</v>
+        <v>1518</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B25" s="21">
-        <v>13721</v>
+        <v>14811</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D25" s="21">
-        <v>153413</v>
+        <v>156274</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F25" s="21">
-        <v>591</v>
-      </c>
-      <c r="G25" s="21"/>
+        <v>601</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="I25" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B26" s="21">
-        <v>850</v>
+        <v>907</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D26" s="21">
-        <v>32500</v>
+        <v>32654</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F26" s="21">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B27" s="21">
-        <v>59223</v>
+        <v>48319</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D27" s="21">
-        <v>1163396</v>
+        <v>1184174</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F27" s="21">
-        <v>8550</v>
+        <v>8575</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B28" s="21">
-        <v>15751</v>
+        <v>12542</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D28" s="21">
-        <v>140031</v>
+        <v>145359</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F28" s="21">
-        <v>1916</v>
+        <v>1923</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B29" s="21">
-        <v>36941</v>
+        <v>29466</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D29" s="21">
-        <v>678065</v>
+        <v>691749</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F29" s="21">
-        <v>17129</v>
+        <v>17190</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B30" s="21">
-        <v>87268</v>
+        <v>74849</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D30" s="21">
-        <v>1074980</v>
+        <v>1105918</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F30" s="21">
-        <v>9181</v>
+        <v>9224</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B31" s="21">
-        <v>1622</v>
+        <v>1315</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D31" s="21">
-        <v>35602</v>
+        <v>36229</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F31" s="21">
-        <v>427</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>76</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G31" s="21"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="23">
-        <v>2</v>
-      </c>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B32" s="21">
-        <v>213534</v>
+        <v>208350</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D32" s="21">
-        <v>3001805</v>
+        <v>3057846</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F32" s="21">
-        <v>37412</v>
+        <v>37506</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B33" s="21">
-        <v>39520</v>
+        <v>40447</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="D33" s="21">
-        <v>707498</v>
+        <v>714034</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F33" s="21">
-        <v>4081</v>
+        <v>4085</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B34" s="21">
-        <v>6631</v>
+        <v>5130</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D34" s="21">
-        <v>92284</v>
+        <v>94117</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="F34" s="21">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B35" s="21">
-        <v>31322</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>188</v>
+        <v>31246</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="D35" s="21">
-        <v>373865</v>
+        <v>379227</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F35" s="21">
-        <v>7514</v>
+        <v>7531</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B36" s="21">
-        <v>72393</v>
+        <v>59601</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D36" s="21">
-        <v>1893577</v>
+        <v>1922480</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F36" s="21">
-        <v>23125</v>
+        <v>23164</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B37" s="21">
-        <v>55725</v>
+        <v>37918</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D37" s="21">
-        <v>1906656</v>
+        <v>1931711</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F37" s="21">
-        <v>20481</v>
+        <v>20550</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7728,43 +7759,43 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" t="s">
-        <v>199</v>
+        <v>117</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>417036</v>
       </c>
       <c r="C2">
-        <v>326542</v>
+        <v>326633</v>
       </c>
       <c r="D2">
-        <v>300106</v>
+        <v>300279</v>
       </c>
       <c r="E2">
-        <v>4695</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7775,13 +7806,13 @@
         <v>53903393</v>
       </c>
       <c r="C3">
-        <v>42797908</v>
+        <v>42826434</v>
       </c>
       <c r="D3">
-        <v>36055550</v>
+        <v>36367586</v>
       </c>
       <c r="E3">
-        <v>748866</v>
+        <v>825951</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7792,13 +7823,13 @@
         <v>1570458</v>
       </c>
       <c r="C4">
-        <v>873161</v>
+        <v>873767</v>
       </c>
       <c r="D4">
-        <v>678623</v>
+        <v>679305</v>
       </c>
       <c r="E4">
-        <v>15321</v>
+        <v>15942</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7809,13 +7840,13 @@
         <v>35607039</v>
       </c>
       <c r="C5">
-        <v>23137705</v>
+        <v>23153987</v>
       </c>
       <c r="D5">
-        <v>17867498</v>
+        <v>17945122</v>
       </c>
       <c r="E5">
-        <v>144841</v>
+        <v>153220</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7826,13 +7857,13 @@
         <v>124799926</v>
       </c>
       <c r="C6">
-        <v>64081786</v>
+        <v>64287757</v>
       </c>
       <c r="D6">
-        <v>46902206</v>
+        <v>47188430</v>
       </c>
       <c r="E6">
-        <v>450927</v>
+        <v>476012</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7843,205 +7874,205 @@
         <v>1158473</v>
       </c>
       <c r="C7">
-        <v>1108106</v>
+        <v>1109441</v>
       </c>
       <c r="D7">
-        <v>845012</v>
+        <v>846211</v>
       </c>
       <c r="E7">
-        <v>14289</v>
+        <v>14989</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>29436231</v>
       </c>
       <c r="C8">
-        <v>19246233</v>
+        <v>19282459</v>
       </c>
       <c r="D8">
-        <v>13968398</v>
+        <v>14152793</v>
       </c>
       <c r="E8">
-        <v>214248</v>
+        <v>232150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>18710922</v>
       </c>
       <c r="C9">
-        <v>16950877</v>
+        <v>16977480</v>
       </c>
       <c r="D9">
-        <v>12264606</v>
+        <v>12301680</v>
       </c>
       <c r="E9">
-        <v>258145</v>
+        <v>270391</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>1586250</v>
       </c>
       <c r="C10">
-        <v>1379129</v>
+        <v>1379834</v>
       </c>
       <c r="D10">
-        <v>1152654</v>
+        <v>1154020</v>
       </c>
       <c r="E10">
-        <v>18759</v>
+        <v>19512</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>63872399</v>
       </c>
       <c r="C11">
-        <v>51037466</v>
+        <v>51130561</v>
       </c>
       <c r="D11">
-        <v>45091206</v>
+        <v>45181611</v>
       </c>
       <c r="E11">
-        <v>1222507</v>
+        <v>1300857</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>28204692</v>
       </c>
       <c r="C12">
-        <v>22415037</v>
+        <v>22441575</v>
       </c>
       <c r="D12">
-        <v>16541028</v>
+        <v>16589545</v>
       </c>
       <c r="E12">
-        <v>132698</v>
+        <v>138070</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>7451955</v>
       </c>
       <c r="C13">
-        <v>6276126</v>
+        <v>6277737</v>
       </c>
       <c r="D13">
-        <v>5549770</v>
+        <v>5551179</v>
       </c>
       <c r="E13">
-        <v>86431</v>
+        <v>91897</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>13606320</v>
       </c>
       <c r="C14">
-        <v>10432688</v>
+        <v>10455395</v>
       </c>
       <c r="D14">
-        <v>9770206</v>
+        <v>9794687</v>
       </c>
       <c r="E14">
-        <v>160319</v>
+        <v>168925</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>38593948</v>
       </c>
       <c r="C15">
-        <v>21423695</v>
+        <v>21497303</v>
       </c>
       <c r="D15">
-        <v>12861800</v>
+        <v>12919183</v>
       </c>
       <c r="E15">
-        <v>130721</v>
+        <v>138452</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>67562686</v>
       </c>
       <c r="C16">
-        <v>51470913</v>
+        <v>51565223</v>
       </c>
       <c r="D16">
-        <v>42587734</v>
+        <v>42846152</v>
       </c>
       <c r="E16">
-        <v>664691</v>
+        <v>714283</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="B17">
         <v>35699443</v>
       </c>
       <c r="C17">
-        <v>27867461</v>
+        <v>27881960</v>
       </c>
       <c r="D17">
-        <v>22440011</v>
+        <v>22465493</v>
       </c>
       <c r="E17">
-        <v>510389</v>
+        <v>531846</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>299000</v>
       </c>
       <c r="C18">
-        <v>225397</v>
+        <v>225483</v>
       </c>
       <c r="D18">
-        <v>177358</v>
+        <v>177421</v>
       </c>
       <c r="E18">
-        <v>13932</v>
+        <v>15175</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>289023</v>
@@ -8050,299 +8081,299 @@
         <v>59374</v>
       </c>
       <c r="D19">
-        <v>53628</v>
+        <v>53653</v>
       </c>
       <c r="E19">
-        <v>1766</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>85358965</v>
       </c>
       <c r="C20">
-        <v>57245887</v>
+        <v>57336216</v>
       </c>
       <c r="D20">
-        <v>51247526</v>
+        <v>51291454</v>
       </c>
       <c r="E20">
-        <v>613460</v>
+        <v>646624</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>123144223</v>
       </c>
       <c r="C21">
-        <v>86066255</v>
+        <v>86155581</v>
       </c>
       <c r="D21">
-        <v>60688117</v>
+        <v>60879544</v>
       </c>
       <c r="E21">
-        <v>823099</v>
+        <v>867009</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>3091545</v>
       </c>
       <c r="C22">
-        <v>1412023</v>
+        <v>1420406</v>
       </c>
       <c r="D22">
-        <v>1041625</v>
+        <v>1044901</v>
       </c>
       <c r="E22">
-        <v>24572</v>
+        <v>26869</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B23">
         <v>3366710</v>
       </c>
       <c r="C23">
-        <v>1331063</v>
+        <v>1334892</v>
       </c>
       <c r="D23">
-        <v>929785</v>
+        <v>931168</v>
       </c>
       <c r="E23">
-        <v>17915</v>
+        <v>18421</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>1239244</v>
       </c>
       <c r="C24">
-        <v>808570</v>
+        <v>809123</v>
       </c>
       <c r="D24">
-        <v>610043</v>
+        <v>610812</v>
       </c>
       <c r="E24">
-        <v>18104</v>
+        <v>18208</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>2249695</v>
       </c>
       <c r="C25">
-        <v>840858</v>
+        <v>842153</v>
       </c>
       <c r="D25">
-        <v>609365</v>
+        <v>609741</v>
       </c>
       <c r="E25">
-        <v>10787</v>
+        <v>11115</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <v>46356334</v>
       </c>
       <c r="C26">
-        <v>31901306</v>
+        <v>31971188</v>
       </c>
       <c r="D26">
-        <v>24273432</v>
+        <v>24424940</v>
       </c>
       <c r="E26">
-        <v>426838</v>
+        <v>443082</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B27">
         <v>1413542</v>
       </c>
       <c r="C27">
-        <v>920363</v>
+        <v>920999</v>
       </c>
       <c r="D27">
-        <v>604146</v>
+        <v>605052</v>
       </c>
       <c r="E27">
-        <v>7044</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B28">
         <v>30141373</v>
       </c>
       <c r="C28">
-        <v>19453490</v>
+        <v>19651992</v>
       </c>
       <c r="D28">
-        <v>12859325</v>
+        <v>13085189</v>
       </c>
       <c r="E28">
-        <v>148743</v>
+        <v>169185</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B29">
         <v>81032689</v>
       </c>
       <c r="C29">
-        <v>52193007</v>
+        <v>52368728</v>
       </c>
       <c r="D29">
-        <v>39386352</v>
+        <v>39670778</v>
       </c>
       <c r="E29">
-        <v>796745</v>
+        <v>842382</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B30">
         <v>690251</v>
       </c>
       <c r="C30">
-        <v>558547</v>
+        <v>558846</v>
       </c>
       <c r="D30">
-        <v>489643</v>
+        <v>489687</v>
       </c>
       <c r="E30">
-        <v>15447</v>
+        <v>15719</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B31">
         <v>77841267</v>
       </c>
       <c r="C31">
-        <v>54274926</v>
+        <v>54505491</v>
       </c>
       <c r="D31">
-        <v>38271823</v>
+        <v>38759810</v>
       </c>
       <c r="E31">
-        <v>295201</v>
+        <v>332930</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B32">
         <v>38510982</v>
       </c>
       <c r="C32">
-        <v>30115341</v>
+        <v>30176349</v>
       </c>
       <c r="D32">
-        <v>23170523</v>
+        <v>23424916</v>
       </c>
       <c r="E32">
-        <v>264950</v>
+        <v>276604</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B33">
         <v>4169794</v>
       </c>
       <c r="C33">
-        <v>2738226</v>
+        <v>2740488</v>
       </c>
       <c r="D33">
-        <v>2163641</v>
+        <v>2164439</v>
       </c>
       <c r="E33">
-        <v>39544</v>
+        <v>41564</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>237882725</v>
       </c>
       <c r="C34">
-        <v>154903350</v>
+        <v>155786901</v>
       </c>
       <c r="D34">
-        <v>100147086</v>
+        <v>101520439</v>
       </c>
       <c r="E34">
-        <v>1136583</v>
+        <v>1253759</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B35">
         <v>11250858</v>
       </c>
       <c r="C35">
-        <v>8426752</v>
+        <v>8438162</v>
       </c>
       <c r="D35">
-        <v>6977559</v>
+        <v>7084023</v>
       </c>
       <c r="E35">
-        <v>192993</v>
+        <v>211125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B36">
         <v>99609303</v>
       </c>
       <c r="C36">
-        <v>69209230</v>
+        <v>69286445</v>
       </c>
       <c r="D36">
-        <v>50655229</v>
+        <v>51160206</v>
       </c>
       <c r="E36">
-        <v>816082</v>
+        <v>865039</v>
       </c>
     </row>
   </sheetData>
@@ -8354,8 +8385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8984DF-48CB-5447-B9FA-A4B1DAFD9CF3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8366,92 +8397,92 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="24">
-        <v>10394126</v>
-      </c>
-      <c r="C2" s="24">
-        <v>9843955</v>
-      </c>
-      <c r="D2" s="24">
-        <v>3080268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20">
+        <v>128</v>
+      </c>
+      <c r="B2" s="26">
+        <v>10395069</v>
+      </c>
+      <c r="C2" s="26">
+        <v>9859959</v>
+      </c>
+      <c r="D2" s="26">
+        <v>3281815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="24">
-        <v>18393178</v>
-      </c>
-      <c r="C3" s="24">
-        <v>17187122</v>
-      </c>
-      <c r="D3" s="24">
-        <v>3272230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20">
+        <v>129</v>
+      </c>
+      <c r="B3" s="26">
+        <v>18395392</v>
+      </c>
+      <c r="C3" s="26">
+        <v>17218111</v>
+      </c>
+      <c r="D3" s="26">
+        <v>3714213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="24">
-        <v>44389137</v>
+        <v>130</v>
+      </c>
+      <c r="B4" s="26">
+        <v>45648949</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
     </row>
-    <row r="5" spans="1:4" ht="20">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="24">
-        <v>537934926</v>
-      </c>
-      <c r="C5" s="24">
-        <v>397272807</v>
+        <v>131</v>
+      </c>
+      <c r="B5" s="26">
+        <v>539799603</v>
+      </c>
+      <c r="C5" s="26">
+        <v>402358637</v>
       </c>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:4" ht="20">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="24">
-        <v>199731083</v>
-      </c>
-      <c r="C6" s="24">
-        <v>169068145</v>
+        <v>132</v>
+      </c>
+      <c r="B6" s="26">
+        <v>200062699</v>
+      </c>
+      <c r="C6" s="26">
+        <v>170584774</v>
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="20">
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="24">
-        <v>124486134</v>
-      </c>
-      <c r="C7" s="24">
-        <v>105431161</v>
-      </c>
-      <c r="D7" s="24">
-        <v>3988944</v>
+        <v>133</v>
+      </c>
+      <c r="B7" s="26">
+        <v>124717450</v>
+      </c>
+      <c r="C7" s="26">
+        <v>106326887</v>
+      </c>
+      <c r="D7" s="26">
+        <v>4697134</v>
       </c>
     </row>
   </sheetData>
@@ -8461,10 +8492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA94CA-D9DE-B548-8735-C3641B00F463}">
-  <dimension ref="A1:S303"/>
+  <dimension ref="A1:S305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26346,6 +26377,124 @@
         <v>51500</v>
       </c>
     </row>
+    <row r="304" spans="1:19">
+      <c r="A304" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B304" s="18">
+        <v>22000</v>
+      </c>
+      <c r="C304" s="18">
+        <v>21000</v>
+      </c>
+      <c r="D304" s="18">
+        <v>12000</v>
+      </c>
+      <c r="E304" s="18">
+        <v>35000</v>
+      </c>
+      <c r="F304" s="18">
+        <v>28500</v>
+      </c>
+      <c r="G304" s="18">
+        <v>32000</v>
+      </c>
+      <c r="H304" s="18">
+        <v>18500</v>
+      </c>
+      <c r="I304" s="18">
+        <v>20500</v>
+      </c>
+      <c r="J304" s="18">
+        <v>31500</v>
+      </c>
+      <c r="K304" s="18">
+        <v>31500</v>
+      </c>
+      <c r="L304" s="18">
+        <v>49500</v>
+      </c>
+      <c r="M304" s="18">
+        <v>82000</v>
+      </c>
+      <c r="N304" s="18">
+        <v>63000</v>
+      </c>
+      <c r="O304" s="18">
+        <v>84500</v>
+      </c>
+      <c r="P304" s="18">
+        <v>87500</v>
+      </c>
+      <c r="Q304" s="18">
+        <v>89000</v>
+      </c>
+      <c r="R304" s="18">
+        <v>64000</v>
+      </c>
+      <c r="S304" s="18">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19">
+      <c r="A305" s="3">
+        <v>44590</v>
+      </c>
+      <c r="B305" s="18">
+        <v>22000</v>
+      </c>
+      <c r="C305" s="18">
+        <v>21000</v>
+      </c>
+      <c r="D305" s="18">
+        <v>12000</v>
+      </c>
+      <c r="E305" s="18">
+        <v>35000</v>
+      </c>
+      <c r="F305" s="18">
+        <v>28500</v>
+      </c>
+      <c r="G305" s="18">
+        <v>32000</v>
+      </c>
+      <c r="H305" s="18">
+        <v>18500</v>
+      </c>
+      <c r="I305" s="18">
+        <v>20500</v>
+      </c>
+      <c r="J305" s="18">
+        <v>31500</v>
+      </c>
+      <c r="K305" s="18">
+        <v>31500</v>
+      </c>
+      <c r="L305" s="18">
+        <v>49500</v>
+      </c>
+      <c r="M305" s="18">
+        <v>82000</v>
+      </c>
+      <c r="N305" s="18">
+        <v>63000</v>
+      </c>
+      <c r="O305" s="18">
+        <v>84500</v>
+      </c>
+      <c r="P305" s="18">
+        <v>87500</v>
+      </c>
+      <c r="Q305" s="18">
+        <v>89000</v>
+      </c>
+      <c r="R305" s="18">
+        <v>64000</v>
+      </c>
+      <c r="S305" s="18">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26353,10 +26502,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A5412-72F4-CA4E-9682-44F6B6C554A4}">
-  <dimension ref="A1:B1125"/>
+  <dimension ref="A1:B1126"/>
   <sheetViews>
     <sheetView topLeftCell="A1113" workbookViewId="0">
-      <selection activeCell="A1124" sqref="A1124"/>
+      <selection activeCell="A1122" sqref="A1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35354,7 +35503,20 @@
       </c>
     </row>
     <row r="1125" spans="1:2">
-      <c r="A1125" s="4"/>
+      <c r="A1125" s="4">
+        <v>44589</v>
+      </c>
+      <c r="B1125">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="A1126" s="4">
+        <v>44590</v>
+      </c>
+      <c r="B1126">
+        <v>3817</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35363,10 +35525,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E43D3-B2B8-4440-9DFA-30FE18FECCE6}">
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A607" sqref="A607"/>
+    <sheetView topLeftCell="A564" workbookViewId="0">
+      <selection activeCell="B599" sqref="B599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40227,6 +40389,14 @@
         <v>27360.06</v>
       </c>
     </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="4">
+        <v>44589</v>
+      </c>
+      <c r="B608" s="19">
+        <v>26942.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40234,10 +40404,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D064278-E4AD-8149-B400-6EAC50E0DC3D}">
-  <dimension ref="A1:B530"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A530" sqref="A530"/>
+    <sheetView topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="A528" sqref="A528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44480,6 +44650,22 @@
       </c>
       <c r="B530">
         <v>6.73</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B531">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="3">
+        <v>44590</v>
+      </c>
+      <c r="B532">
+        <v>6.64</v>
       </c>
     </row>
   </sheetData>
@@ -44491,8 +44677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE529FD-4597-F641-B496-01BE3204D79B}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46392,9 +46578,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DA751-8DDE-2444-A8CE-DEF963043B5D}">
-  <dimension ref="A1:J360"/>
+  <dimension ref="A1:J362"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="A360" sqref="A360"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -57916,6 +58104,70 @@
       </c>
       <c r="J360">
         <v>65.069999999999993</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10">
+      <c r="A361" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B361">
+        <v>60.28</v>
+      </c>
+      <c r="C361">
+        <v>53.5</v>
+      </c>
+      <c r="D361">
+        <v>63.87</v>
+      </c>
+      <c r="E361">
+        <v>58.82</v>
+      </c>
+      <c r="F361">
+        <v>52.72</v>
+      </c>
+      <c r="G361">
+        <v>61.97</v>
+      </c>
+      <c r="H361">
+        <v>61.22</v>
+      </c>
+      <c r="I361">
+        <v>54.02</v>
+      </c>
+      <c r="J361">
+        <v>65.069999999999993</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="A362" s="3">
+        <v>44590</v>
+      </c>
+      <c r="B362">
+        <v>59.93</v>
+      </c>
+      <c r="C362">
+        <v>53.5</v>
+      </c>
+      <c r="D362">
+        <v>63.5</v>
+      </c>
+      <c r="E362">
+        <v>58.37</v>
+      </c>
+      <c r="F362">
+        <v>52.72</v>
+      </c>
+      <c r="G362">
+        <v>61.5</v>
+      </c>
+      <c r="H362">
+        <v>60.93</v>
+      </c>
+      <c r="I362">
+        <v>54.02</v>
+      </c>
+      <c r="J362">
+        <v>64.78</v>
       </c>
     </row>
   </sheetData>
@@ -58910,8 +59162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFAB418-80AA-504F-AAFE-ECE862BB3CFF}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Manual/input-data.xlsx
+++ b/Manual/input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker-git/nimf-tracker/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94728899-B62C-6144-8030-CF0011B0C866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B10794-974F-7749-A363-CB4647AAD983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27520" yWindow="7860" windowWidth="17060" windowHeight="9960" firstSheet="6" activeTab="13" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
+    <workbookView xWindow="7920" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
   </bookViews>
   <sheets>
     <sheet name="gst-eway" sheetId="1" r:id="rId1"/>
@@ -765,10 +765,10 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -812,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -827,7 +827,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1156,13 +1155,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37651D-4599-2748-92D7-4C797FB0A6C3}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -1438,8 +1440,14 @@
         <v>44562</v>
       </c>
       <c r="B26">
-        <v>49619479</v>
-      </c>
+        <v>65812849</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1383940</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,7 +2520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE768D-FDEC-414C-B856-7F93E0E94CC0}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -2797,10 +2805,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F5E2-B870-4348-99F8-4B5FD1019E5B}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3895,34 +3904,34 @@
       <c r="A32" s="6">
         <v>44470</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="19">
         <v>9503</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="19">
         <v>8752</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="19">
         <v>117350</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="19">
         <v>53428.9</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="19">
         <v>35623.699999999997</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="19">
         <v>59956</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="19">
         <v>1802930</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="19">
         <v>2007080</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="19">
         <v>19845</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="19">
         <v>11605</v>
       </c>
     </row>
@@ -3930,34 +3939,34 @@
       <c r="A33" s="6">
         <v>44501</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="19">
         <v>9220</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="19">
         <v>8502</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="19">
         <v>116830</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="19">
         <v>52881</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="19">
         <v>31740</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="19">
         <v>59428</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="17">
         <v>1778190</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="17">
         <v>2478820</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="19">
         <v>20136</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="19">
         <v>12585</v>
       </c>
     </row>
@@ -3965,30 +3974,55 @@
       <c r="A34" s="6">
         <v>44531</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="19">
         <v>9390</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="19">
         <v>8728</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="19">
         <v>126780</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="19">
         <v>59341</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="19">
         <v>37335</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5">
+      <c r="G34" s="19">
+        <v>62930</v>
+      </c>
+      <c r="H34" s="19">
+        <v>3749330</v>
+      </c>
+      <c r="I34" s="19">
+        <v>4464510</v>
+      </c>
+      <c r="J34" s="19">
         <v>20070</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="19">
         <v>12870</v>
       </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17">
+        <v>52002.5</v>
+      </c>
+      <c r="F35" s="17">
+        <v>34055.1</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3999,8 +4033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885F84EB-1F73-1245-BB50-FDD52D41BDBE}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4017,7 +4052,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>43721</v>
       </c>
       <c r="B2" s="5">
@@ -4028,7 +4063,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43735</v>
       </c>
       <c r="B3" s="5">
@@ -4039,7 +4074,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43749</v>
       </c>
       <c r="B4" s="5">
@@ -4050,7 +4085,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>43763</v>
       </c>
       <c r="B5" s="5">
@@ -4061,7 +4096,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>43777</v>
       </c>
       <c r="B6" s="5">
@@ -4072,7 +4107,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>43791</v>
       </c>
       <c r="B7" s="5">
@@ -4083,7 +4118,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>43805</v>
       </c>
       <c r="B8" s="5">
@@ -4094,7 +4129,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>43819</v>
       </c>
       <c r="B9" s="5">
@@ -4105,7 +4140,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>43833</v>
       </c>
       <c r="B10" s="5">
@@ -4116,7 +4151,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>43847</v>
       </c>
       <c r="B11" s="5">
@@ -4127,7 +4162,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>43861</v>
       </c>
       <c r="B12" s="5">
@@ -4138,7 +4173,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>43875</v>
       </c>
       <c r="B13" s="5">
@@ -4149,7 +4184,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>43889</v>
       </c>
       <c r="B14" s="5">
@@ -4160,7 +4195,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>43903</v>
       </c>
       <c r="B15" s="5">
@@ -4171,7 +4206,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>43917</v>
       </c>
       <c r="B16" s="5">
@@ -4182,7 +4217,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>43931</v>
       </c>
       <c r="B17" s="5">
@@ -4193,7 +4228,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>43945</v>
       </c>
       <c r="B18" s="5">
@@ -4204,7 +4239,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>43959</v>
       </c>
       <c r="B19" s="5">
@@ -4215,7 +4250,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>43973</v>
       </c>
       <c r="B20" s="5">
@@ -4226,7 +4261,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>43987</v>
       </c>
       <c r="B21" s="5">
@@ -4237,7 +4272,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>44001</v>
       </c>
       <c r="B22" s="5">
@@ -4248,7 +4283,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>44015</v>
       </c>
       <c r="B23" s="5">
@@ -4259,7 +4294,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>44029</v>
       </c>
       <c r="B24" s="5">
@@ -4270,7 +4305,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>44043</v>
       </c>
       <c r="B25" s="5">
@@ -4281,7 +4316,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>44057</v>
       </c>
       <c r="B26" s="5">
@@ -4292,7 +4327,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>44071</v>
       </c>
       <c r="B27" s="5">
@@ -4303,7 +4338,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>44085</v>
       </c>
       <c r="B28" s="5">
@@ -4314,7 +4349,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>44099</v>
       </c>
       <c r="B29" s="5">
@@ -4325,7 +4360,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>44113</v>
       </c>
       <c r="B30" s="5">
@@ -4336,7 +4371,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <v>44127</v>
       </c>
       <c r="B31" s="5">
@@ -4347,7 +4382,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>44141</v>
       </c>
       <c r="B32" s="5">
@@ -4358,7 +4393,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>44155</v>
       </c>
       <c r="B33" s="5">
@@ -4369,7 +4404,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>44169</v>
       </c>
       <c r="B34" s="5">
@@ -4380,7 +4415,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>44183</v>
       </c>
       <c r="B35" s="5">
@@ -4391,7 +4426,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>44197</v>
       </c>
       <c r="B36" s="5">
@@ -4402,7 +4437,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>44211</v>
       </c>
       <c r="B37" s="5">
@@ -4413,7 +4448,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <v>44225</v>
       </c>
       <c r="B38" s="5">
@@ -4424,7 +4459,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>44239</v>
       </c>
       <c r="B39" s="5">
@@ -4435,7 +4470,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>44253</v>
       </c>
       <c r="B40" s="5">
@@ -4446,7 +4481,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <v>44267</v>
       </c>
       <c r="B41" s="5">
@@ -4457,7 +4492,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>44281</v>
       </c>
       <c r="B42" s="5">
@@ -4468,7 +4503,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <v>44295</v>
       </c>
       <c r="B43" s="5">
@@ -4479,7 +4514,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <v>44309</v>
       </c>
       <c r="B44" s="5">
@@ -4490,7 +4525,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>44323</v>
       </c>
       <c r="B45" s="5">
@@ -4501,7 +4536,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <v>44337</v>
       </c>
       <c r="B46" s="5">
@@ -4512,7 +4547,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>44351</v>
       </c>
       <c r="B47" s="5">
@@ -4523,7 +4558,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>44365</v>
       </c>
       <c r="B48" s="5">
@@ -4534,7 +4569,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>44379</v>
       </c>
       <c r="B49" s="5">
@@ -4545,7 +4580,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <v>44393</v>
       </c>
       <c r="B50" s="5">
@@ -4556,7 +4591,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <v>44407</v>
       </c>
       <c r="B51" s="5">
@@ -4567,7 +4602,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="15">
+      <c r="A52" s="14">
         <v>44421</v>
       </c>
       <c r="B52" s="5">
@@ -4578,7 +4613,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <v>44435</v>
       </c>
       <c r="B53" s="5">
@@ -4589,7 +4624,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="15">
+      <c r="A54" s="14">
         <v>44449</v>
       </c>
       <c r="B54" s="5">
@@ -4600,7 +4635,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <v>44463</v>
       </c>
       <c r="B55" s="5">
@@ -4611,7 +4646,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="15">
+      <c r="A56" s="14">
         <v>44477</v>
       </c>
       <c r="B56" s="5">
@@ -4622,7 +4657,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <v>44491</v>
       </c>
       <c r="B57" s="5">
@@ -4633,7 +4668,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="15">
+      <c r="A58" s="14">
         <v>44505</v>
       </c>
       <c r="B58" s="5">
@@ -4644,7 +4679,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <v>44519</v>
       </c>
       <c r="B59" s="5">
@@ -4655,7 +4690,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="15">
+      <c r="A60" s="14">
         <v>44533</v>
       </c>
       <c r="B60" s="5">
@@ -4666,7 +4701,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="15">
+      <c r="A61" s="14">
         <v>44547</v>
       </c>
       <c r="B61" s="5">
@@ -4677,7 +4712,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="15">
+      <c r="A62" s="14">
         <v>44561</v>
       </c>
       <c r="B62" s="5">
@@ -4705,13 +4740,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC45300-6A73-FD40-9CA1-0A8697567D0E}">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
@@ -4722,7 +4760,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>43714</v>
       </c>
       <c r="B2" s="5">
@@ -4730,7 +4768,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43721</v>
       </c>
       <c r="B3" s="5">
@@ -4738,7 +4776,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43728</v>
       </c>
       <c r="B4" s="5">
@@ -4746,7 +4784,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>43735</v>
       </c>
       <c r="B5" s="5">
@@ -4754,7 +4792,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>43742</v>
       </c>
       <c r="B6" s="5">
@@ -4762,7 +4800,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>43749</v>
       </c>
       <c r="B7" s="5">
@@ -4770,7 +4808,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>43756</v>
       </c>
       <c r="B8" s="5">
@@ -4778,7 +4816,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>43763</v>
       </c>
       <c r="B9" s="5">
@@ -4786,7 +4824,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>43770</v>
       </c>
       <c r="B10" s="5">
@@ -4794,7 +4832,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>43777</v>
       </c>
       <c r="B11" s="5">
@@ -4802,7 +4840,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>43784</v>
       </c>
       <c r="B12" s="5">
@@ -4810,7 +4848,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>43791</v>
       </c>
       <c r="B13" s="5">
@@ -4818,7 +4856,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>43798</v>
       </c>
       <c r="B14" s="5">
@@ -4826,7 +4864,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>43805</v>
       </c>
       <c r="B15" s="5">
@@ -4834,7 +4872,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>43812</v>
       </c>
       <c r="B16" s="5">
@@ -4842,7 +4880,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>43819</v>
       </c>
       <c r="B17" s="5">
@@ -4850,7 +4888,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>43826</v>
       </c>
       <c r="B18" s="5">
@@ -4858,7 +4896,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>43833</v>
       </c>
       <c r="B19" s="5">
@@ -4866,7 +4904,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>43840</v>
       </c>
       <c r="B20" s="5">
@@ -4874,7 +4912,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>43847</v>
       </c>
       <c r="B21" s="5">
@@ -4882,7 +4920,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>43854</v>
       </c>
       <c r="B22" s="5">
@@ -4890,7 +4928,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>43861</v>
       </c>
       <c r="B23" s="5">
@@ -4898,7 +4936,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>43868</v>
       </c>
       <c r="B24" s="5">
@@ -4906,7 +4944,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>43875</v>
       </c>
       <c r="B25" s="5">
@@ -4914,7 +4952,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>43882</v>
       </c>
       <c r="B26" s="5">
@@ -4922,7 +4960,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>43889</v>
       </c>
       <c r="B27" s="5">
@@ -4930,7 +4968,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>43896</v>
       </c>
       <c r="B28" s="5">
@@ -4938,7 +4976,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>43903</v>
       </c>
       <c r="B29" s="5">
@@ -4946,7 +4984,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>43910</v>
       </c>
       <c r="B30" s="5">
@@ -4954,7 +4992,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <v>43917</v>
       </c>
       <c r="B31" s="5">
@@ -4962,7 +5000,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>43924</v>
       </c>
       <c r="B32" s="5">
@@ -4970,7 +5008,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>43931</v>
       </c>
       <c r="B33" s="5">
@@ -4978,7 +5016,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>43938</v>
       </c>
       <c r="B34" s="5">
@@ -4986,7 +5024,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>43945</v>
       </c>
       <c r="B35" s="5">
@@ -4994,7 +5032,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>43952</v>
       </c>
       <c r="B36" s="5">
@@ -5002,7 +5040,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>43959</v>
       </c>
       <c r="B37" s="5">
@@ -5010,7 +5048,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <v>43966</v>
       </c>
       <c r="B38" s="5">
@@ -5018,7 +5056,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>43973</v>
       </c>
       <c r="B39" s="5">
@@ -5026,7 +5064,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>43980</v>
       </c>
       <c r="B40" s="5">
@@ -5034,7 +5072,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <v>43987</v>
       </c>
       <c r="B41" s="5">
@@ -5042,7 +5080,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>43994</v>
       </c>
       <c r="B42" s="5">
@@ -5050,7 +5088,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <v>44001</v>
       </c>
       <c r="B43" s="5">
@@ -5058,7 +5096,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <v>44008</v>
       </c>
       <c r="B44" s="5">
@@ -5066,7 +5104,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>44015</v>
       </c>
       <c r="B45" s="5">
@@ -5074,7 +5112,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <v>44022</v>
       </c>
       <c r="B46" s="5">
@@ -5082,7 +5120,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>44029</v>
       </c>
       <c r="B47" s="5">
@@ -5090,7 +5128,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>44036</v>
       </c>
       <c r="B48" s="5">
@@ -5098,7 +5136,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>44043</v>
       </c>
       <c r="B49" s="5">
@@ -5106,7 +5144,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <v>44050</v>
       </c>
       <c r="B50" s="5">
@@ -5114,7 +5152,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <v>44057</v>
       </c>
       <c r="B51" s="5">
@@ -5122,7 +5160,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="15">
+      <c r="A52" s="14">
         <v>44064</v>
       </c>
       <c r="B52" s="5">
@@ -5130,7 +5168,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <v>44071</v>
       </c>
       <c r="B53" s="5">
@@ -5138,7 +5176,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15">
+      <c r="A54" s="14">
         <v>44078</v>
       </c>
       <c r="B54" s="5">
@@ -5146,7 +5184,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <v>44085</v>
       </c>
       <c r="B55" s="5">
@@ -5154,7 +5192,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="15">
+      <c r="A56" s="14">
         <v>44092</v>
       </c>
       <c r="B56" s="5">
@@ -5162,7 +5200,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <v>44099</v>
       </c>
       <c r="B57" s="5">
@@ -5170,7 +5208,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="15">
+      <c r="A58" s="14">
         <v>44106</v>
       </c>
       <c r="B58" s="5">
@@ -5178,7 +5216,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <v>44113</v>
       </c>
       <c r="B59" s="5">
@@ -5186,7 +5224,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="15">
+      <c r="A60" s="14">
         <v>44120</v>
       </c>
       <c r="B60" s="5">
@@ -5194,7 +5232,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="15">
+      <c r="A61" s="14">
         <v>44127</v>
       </c>
       <c r="B61" s="5">
@@ -5202,7 +5240,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="15">
+      <c r="A62" s="14">
         <v>44134</v>
       </c>
       <c r="B62" s="5">
@@ -5210,7 +5248,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="15">
+      <c r="A63" s="14">
         <v>44141</v>
       </c>
       <c r="B63" s="5">
@@ -5218,7 +5256,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="15">
+      <c r="A64" s="14">
         <v>44148</v>
       </c>
       <c r="B64" s="5">
@@ -5226,7 +5264,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="15">
+      <c r="A65" s="14">
         <v>44155</v>
       </c>
       <c r="B65" s="5">
@@ -5234,7 +5272,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="15">
+      <c r="A66" s="14">
         <v>44162</v>
       </c>
       <c r="B66" s="5">
@@ -5242,7 +5280,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="15">
+      <c r="A67" s="14">
         <v>44169</v>
       </c>
       <c r="B67" s="5">
@@ -5250,7 +5288,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="15">
+      <c r="A68" s="14">
         <v>44176</v>
       </c>
       <c r="B68" s="5">
@@ -5258,7 +5296,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="15">
+      <c r="A69" s="14">
         <v>44183</v>
       </c>
       <c r="B69" s="5">
@@ -5266,7 +5304,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="15">
+      <c r="A70" s="14">
         <v>44190</v>
       </c>
       <c r="B70" s="5">
@@ -5274,7 +5312,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="15">
+      <c r="A71" s="14">
         <v>44197</v>
       </c>
       <c r="B71" s="5">
@@ -5282,7 +5320,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="15">
+      <c r="A72" s="14">
         <v>44204</v>
       </c>
       <c r="B72" s="5">
@@ -5290,7 +5328,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="15">
+      <c r="A73" s="14">
         <v>44211</v>
       </c>
       <c r="B73" s="5">
@@ -5298,7 +5336,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="15">
+      <c r="A74" s="14">
         <v>44218</v>
       </c>
       <c r="B74" s="5">
@@ -5306,7 +5344,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="15">
+      <c r="A75" s="14">
         <v>44225</v>
       </c>
       <c r="B75" s="5">
@@ -5314,7 +5352,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="15">
+      <c r="A76" s="14">
         <v>44232</v>
       </c>
       <c r="B76" s="5">
@@ -5322,7 +5360,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="15">
+      <c r="A77" s="14">
         <v>44239</v>
       </c>
       <c r="B77" s="5">
@@ -5330,7 +5368,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="15">
+      <c r="A78" s="14">
         <v>44246</v>
       </c>
       <c r="B78" s="5">
@@ -5338,7 +5376,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="15">
+      <c r="A79" s="14">
         <v>44253</v>
       </c>
       <c r="B79" s="5">
@@ -5346,7 +5384,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="15">
+      <c r="A80" s="14">
         <v>44260</v>
       </c>
       <c r="B80" s="5">
@@ -5354,7 +5392,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="15">
+      <c r="A81" s="14">
         <v>44267</v>
       </c>
       <c r="B81" s="5">
@@ -5362,7 +5400,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="15">
+      <c r="A82" s="14">
         <v>44274</v>
       </c>
       <c r="B82" s="5">
@@ -5370,7 +5408,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="15">
+      <c r="A83" s="14">
         <v>44281</v>
       </c>
       <c r="B83" s="5">
@@ -5378,7 +5416,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="15">
+      <c r="A84" s="14">
         <v>44288</v>
       </c>
       <c r="B84" s="5">
@@ -5386,7 +5424,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="15">
+      <c r="A85" s="14">
         <v>44295</v>
       </c>
       <c r="B85" s="5">
@@ -5394,7 +5432,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="15">
+      <c r="A86" s="14">
         <v>44302</v>
       </c>
       <c r="B86" s="5">
@@ -5402,7 +5440,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="15">
+      <c r="A87" s="14">
         <v>44309</v>
       </c>
       <c r="B87" s="5">
@@ -5410,7 +5448,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="15">
+      <c r="A88" s="14">
         <v>44316</v>
       </c>
       <c r="B88" s="5">
@@ -5418,7 +5456,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="15">
+      <c r="A89" s="14">
         <v>44323</v>
       </c>
       <c r="B89" s="5">
@@ -5426,7 +5464,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="15">
+      <c r="A90" s="14">
         <v>44330</v>
       </c>
       <c r="B90" s="5">
@@ -5434,7 +5472,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="15">
+      <c r="A91" s="14">
         <v>44337</v>
       </c>
       <c r="B91" s="5">
@@ -5442,7 +5480,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="15">
+      <c r="A92" s="14">
         <v>44344</v>
       </c>
       <c r="B92" s="5">
@@ -5450,7 +5488,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="15">
+      <c r="A93" s="14">
         <v>44351</v>
       </c>
       <c r="B93" s="5">
@@ -5458,7 +5496,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="15">
+      <c r="A94" s="14">
         <v>44358</v>
       </c>
       <c r="B94" s="5">
@@ -5466,7 +5504,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="15">
+      <c r="A95" s="14">
         <v>44365</v>
       </c>
       <c r="B95" s="5">
@@ -5474,7 +5512,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="15">
+      <c r="A96" s="14">
         <v>44372</v>
       </c>
       <c r="B96" s="5">
@@ -5482,7 +5520,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="15">
+      <c r="A97" s="14">
         <v>44379</v>
       </c>
       <c r="B97" s="5">
@@ -5490,7 +5528,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="15">
+      <c r="A98" s="14">
         <v>44386</v>
       </c>
       <c r="B98" s="5">
@@ -5498,7 +5536,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="15">
+      <c r="A99" s="14">
         <v>44393</v>
       </c>
       <c r="B99" s="5">
@@ -5506,7 +5544,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="15">
+      <c r="A100" s="14">
         <v>44400</v>
       </c>
       <c r="B100" s="5">
@@ -5514,7 +5552,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="15">
+      <c r="A101" s="14">
         <v>44407</v>
       </c>
       <c r="B101" s="5">
@@ -5522,7 +5560,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="15">
+      <c r="A102" s="14">
         <v>44414</v>
       </c>
       <c r="B102" s="5">
@@ -5530,7 +5568,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="15">
+      <c r="A103" s="14">
         <v>44421</v>
       </c>
       <c r="B103" s="5">
@@ -5538,7 +5576,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="15">
+      <c r="A104" s="14">
         <v>44428</v>
       </c>
       <c r="B104" s="5">
@@ -5546,7 +5584,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="15">
+      <c r="A105" s="14">
         <v>44435</v>
       </c>
       <c r="B105" s="5">
@@ -5554,7 +5592,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="15">
+      <c r="A106" s="14">
         <v>44442</v>
       </c>
       <c r="B106" s="5">
@@ -5562,7 +5600,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="15">
+      <c r="A107" s="14">
         <v>44449</v>
       </c>
       <c r="B107" s="5">
@@ -5570,7 +5608,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="15">
+      <c r="A108" s="14">
         <v>44456</v>
       </c>
       <c r="B108" s="5">
@@ -5578,7 +5616,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="15">
+      <c r="A109" s="14">
         <v>44463</v>
       </c>
       <c r="B109" s="5">
@@ -5586,7 +5624,7 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="15">
+      <c r="A110" s="14">
         <v>44470</v>
       </c>
       <c r="B110" s="5">
@@ -5594,7 +5632,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="15">
+      <c r="A111" s="14">
         <v>44477</v>
       </c>
       <c r="B111" s="5">
@@ -5602,7 +5640,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="15">
+      <c r="A112" s="14">
         <v>44484</v>
       </c>
       <c r="B112" s="5">
@@ -5610,7 +5648,7 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="15">
+      <c r="A113" s="14">
         <v>44491</v>
       </c>
       <c r="B113" s="5">
@@ -5618,7 +5656,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="15">
+      <c r="A114" s="14">
         <v>44498</v>
       </c>
       <c r="B114" s="5">
@@ -5626,7 +5664,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="15">
+      <c r="A115" s="14">
         <v>44505</v>
       </c>
       <c r="B115" s="5">
@@ -5634,7 +5672,7 @@
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="15">
+      <c r="A116" s="14">
         <v>44512</v>
       </c>
       <c r="B116" s="5">
@@ -5642,7 +5680,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="15">
+      <c r="A117" s="14">
         <v>44519</v>
       </c>
       <c r="B117" s="5">
@@ -5650,7 +5688,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="15">
+      <c r="A118" s="14">
         <v>44526</v>
       </c>
       <c r="B118" s="5">
@@ -5658,7 +5696,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="15">
+      <c r="A119" s="14">
         <v>44533</v>
       </c>
       <c r="B119" s="5">
@@ -5666,7 +5704,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="15">
+      <c r="A120" s="14">
         <v>44540</v>
       </c>
       <c r="B120" s="5">
@@ -5674,7 +5712,7 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="15">
+      <c r="A121" s="14">
         <v>44547</v>
       </c>
       <c r="B121" s="5">
@@ -5682,7 +5720,7 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="15">
+      <c r="A122" s="14">
         <v>44554</v>
       </c>
       <c r="B122" s="5">
@@ -5690,7 +5728,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="15">
+      <c r="A123" s="14">
         <v>44561</v>
       </c>
       <c r="B123" s="5">
@@ -5698,7 +5736,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="15">
+      <c r="A124" s="14">
         <v>44568</v>
       </c>
       <c r="B124" s="5">
@@ -5706,11 +5744,27 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="15">
+      <c r="A125" s="14">
         <v>44575</v>
       </c>
       <c r="B125" s="5">
         <v>45374730</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="14">
+        <v>44582</v>
+      </c>
+      <c r="B126" s="17">
+        <v>45407000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="14">
+        <v>44589</v>
+      </c>
+      <c r="B127" s="17">
+        <v>45425340</v>
       </c>
     </row>
   </sheetData>
@@ -5723,7 +5777,8 @@
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5740,7 +5795,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>43287</v>
       </c>
       <c r="B2" s="5">
@@ -5751,7 +5806,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>43301</v>
       </c>
       <c r="B3" s="5">
@@ -5762,7 +5817,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>43315</v>
       </c>
       <c r="B4" s="5">
@@ -5773,7 +5828,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43329</v>
       </c>
       <c r="B5" s="5">
@@ -5784,7 +5839,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43343</v>
       </c>
       <c r="B6" s="5">
@@ -5795,7 +5850,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43357</v>
       </c>
       <c r="B7" s="5">
@@ -5806,7 +5861,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>43371</v>
       </c>
       <c r="B8" s="5">
@@ -5817,7 +5872,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43385</v>
       </c>
       <c r="B9" s="5">
@@ -5828,7 +5883,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43399</v>
       </c>
       <c r="B10" s="5">
@@ -5839,7 +5894,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43413</v>
       </c>
       <c r="B11" s="5">
@@ -5850,7 +5905,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43427</v>
       </c>
       <c r="B12" s="5">
@@ -5861,7 +5916,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43441</v>
       </c>
       <c r="B13" s="5">
@@ -5872,7 +5927,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43455</v>
       </c>
       <c r="B14" s="5">
@@ -5883,7 +5938,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43469</v>
       </c>
       <c r="B15" s="5">
@@ -5894,7 +5949,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43483</v>
       </c>
       <c r="B16" s="5">
@@ -5905,7 +5960,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43497</v>
       </c>
       <c r="B17" s="5">
@@ -5916,7 +5971,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43511</v>
       </c>
       <c r="B18" s="5">
@@ -5927,7 +5982,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43525</v>
       </c>
       <c r="B19" s="5">
@@ -5938,7 +5993,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43539</v>
       </c>
       <c r="B20" s="5">
@@ -5949,7 +6004,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43553</v>
       </c>
       <c r="B21" s="5">
@@ -5960,7 +6015,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43567</v>
       </c>
       <c r="B22" s="5">
@@ -5971,7 +6026,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43581</v>
       </c>
       <c r="B23" s="5">
@@ -5982,7 +6037,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43595</v>
       </c>
       <c r="B24" s="5">
@@ -5993,7 +6048,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43609</v>
       </c>
       <c r="B25" s="5">
@@ -6004,7 +6059,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43623</v>
       </c>
       <c r="B26" s="5">
@@ -6015,7 +6070,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43637</v>
       </c>
       <c r="B27" s="5">
@@ -6026,7 +6081,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43651</v>
       </c>
       <c r="B28" s="5">
@@ -6037,7 +6092,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43665</v>
       </c>
       <c r="B29" s="5">
@@ -6048,7 +6103,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43679</v>
       </c>
       <c r="B30" s="5">
@@ -6059,7 +6114,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>43693</v>
       </c>
       <c r="B31" s="5">
@@ -6070,7 +6125,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>43707</v>
       </c>
       <c r="B32" s="5">
@@ -6081,7 +6136,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>43721</v>
       </c>
       <c r="B33" s="5">
@@ -6092,7 +6147,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>43735</v>
       </c>
       <c r="B34" s="5">
@@ -6103,7 +6158,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>43749</v>
       </c>
       <c r="B35" s="5">
@@ -6114,7 +6169,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>43763</v>
       </c>
       <c r="B36" s="5">
@@ -6125,7 +6180,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>43777</v>
       </c>
       <c r="B37" s="5">
@@ -6136,7 +6191,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>43791</v>
       </c>
       <c r="B38" s="5">
@@ -6147,7 +6202,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>43805</v>
       </c>
       <c r="B39" s="5">
@@ -6158,7 +6213,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>43819</v>
       </c>
       <c r="B40" s="5">
@@ -6169,7 +6224,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>43833</v>
       </c>
       <c r="B41" s="5">
@@ -6180,7 +6235,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>43847</v>
       </c>
       <c r="B42" s="5">
@@ -6191,7 +6246,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>43861</v>
       </c>
       <c r="B43" s="5">
@@ -6202,7 +6257,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>43875</v>
       </c>
       <c r="B44" s="5">
@@ -6213,7 +6268,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>43889</v>
       </c>
       <c r="B45" s="5">
@@ -6224,7 +6279,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>43903</v>
       </c>
       <c r="B46" s="5">
@@ -6235,7 +6290,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>43917</v>
       </c>
       <c r="B47" s="5">
@@ -6246,7 +6301,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>43931</v>
       </c>
       <c r="B48" s="5">
@@ -6257,7 +6312,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>43945</v>
       </c>
       <c r="B49" s="5">
@@ -6268,7 +6323,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>43959</v>
       </c>
       <c r="B50" s="5">
@@ -6279,7 +6334,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>43973</v>
       </c>
       <c r="B51" s="5">
@@ -6290,7 +6345,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>43987</v>
       </c>
       <c r="B52" s="5">
@@ -6301,7 +6356,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>44001</v>
       </c>
       <c r="B53" s="5">
@@ -6312,7 +6367,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>44015</v>
       </c>
       <c r="B54" s="5">
@@ -6323,7 +6378,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>44029</v>
       </c>
       <c r="B55" s="5">
@@ -6334,7 +6389,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>44043</v>
       </c>
       <c r="B56" s="5">
@@ -6345,7 +6400,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>44057</v>
       </c>
       <c r="B57" s="5">
@@ -6356,7 +6411,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>44071</v>
       </c>
       <c r="B58" s="5">
@@ -6367,7 +6422,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>44085</v>
       </c>
       <c r="B59" s="5">
@@ -6378,7 +6433,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>44099</v>
       </c>
       <c r="B60" s="5">
@@ -6389,7 +6444,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>44113</v>
       </c>
       <c r="B61" s="5">
@@ -6400,7 +6455,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>44127</v>
       </c>
       <c r="B62" s="5">
@@ -6411,7 +6466,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>44141</v>
       </c>
       <c r="B63" s="5">
@@ -6422,7 +6477,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>44155</v>
       </c>
       <c r="B64" s="5">
@@ -6433,7 +6488,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>44169</v>
       </c>
       <c r="B65" s="5">
@@ -6444,7 +6499,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>44183</v>
       </c>
       <c r="B66" s="5">
@@ -6455,7 +6510,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>44197</v>
       </c>
       <c r="B67" s="5">
@@ -6466,7 +6521,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>44211</v>
       </c>
       <c r="B68" s="5">
@@ -6477,7 +6532,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="16">
+      <c r="A69" s="15">
         <v>44225</v>
       </c>
       <c r="B69" s="5">
@@ -6488,7 +6543,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="16">
+      <c r="A70" s="15">
         <v>44239</v>
       </c>
       <c r="B70" s="5">
@@ -6499,7 +6554,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>44253</v>
       </c>
       <c r="B71" s="5">
@@ -6510,7 +6565,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>44267</v>
       </c>
       <c r="B72" s="5">
@@ -6521,7 +6576,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>44281</v>
       </c>
       <c r="B73" s="5">
@@ -6532,7 +6587,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>44295</v>
       </c>
       <c r="B74" s="5">
@@ -6543,7 +6598,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>44309</v>
       </c>
       <c r="B75" s="5">
@@ -6554,7 +6609,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>44323</v>
       </c>
       <c r="B76" s="5">
@@ -6565,7 +6620,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>44337</v>
       </c>
       <c r="B77" s="5">
@@ -6576,7 +6631,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="16">
+      <c r="A78" s="15">
         <v>44351</v>
       </c>
       <c r="B78" s="5">
@@ -6587,7 +6642,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="16">
+      <c r="A79" s="15">
         <v>44365</v>
       </c>
       <c r="B79" s="5">
@@ -6598,7 +6653,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="16">
+      <c r="A80" s="15">
         <v>44379</v>
       </c>
       <c r="B80" s="5">
@@ -6609,7 +6664,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="16">
+      <c r="A81" s="15">
         <v>44393</v>
       </c>
       <c r="B81" s="5">
@@ -6620,7 +6675,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="16">
+      <c r="A82" s="15">
         <v>44407</v>
       </c>
       <c r="B82" s="5">
@@ -6631,7 +6686,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="17">
+      <c r="A83" s="16">
         <v>44421</v>
       </c>
       <c r="B83" s="5">
@@ -6642,7 +6697,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="16">
+      <c r="A84" s="15">
         <v>44435</v>
       </c>
       <c r="B84" s="5">
@@ -6653,7 +6708,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="16">
+      <c r="A85" s="15">
         <v>44449</v>
       </c>
       <c r="B85" s="5">
@@ -6664,7 +6719,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="16">
+      <c r="A86" s="15">
         <v>44463</v>
       </c>
       <c r="B86" s="5">
@@ -6675,7 +6730,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>44477</v>
       </c>
       <c r="B87" s="5">
@@ -6686,7 +6741,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="16">
+      <c r="A88" s="15">
         <v>44491</v>
       </c>
       <c r="B88" s="5">
@@ -6697,7 +6752,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="16">
+      <c r="A89" s="15">
         <v>44505</v>
       </c>
       <c r="B89" s="5">
@@ -6708,7 +6763,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="16">
+      <c r="A90" s="15">
         <v>44519</v>
       </c>
       <c r="B90" s="5">
@@ -6719,7 +6774,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="16">
+      <c r="A91" s="15">
         <v>44533</v>
       </c>
       <c r="B91" s="5">
@@ -6730,7 +6785,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="16">
+      <c r="A92" s="15">
         <v>44547</v>
       </c>
       <c r="B92" s="5">
@@ -6741,7 +6796,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="16">
+      <c r="A93" s="15">
         <v>44561</v>
       </c>
       <c r="B93" s="5">
@@ -6752,7 +6807,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="24">
+      <c r="A94" s="23">
         <v>44575</v>
       </c>
       <c r="B94" s="5">
@@ -6769,15 +6824,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0D774-4FB9-484A-8B9C-C85D078E33FB}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -6791,961 +6844,1283 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:18" ht="18">
+      <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="21">
-        <v>449</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="20">
+        <v>211</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>9165</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>129</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="21" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" ht="18">
+      <c r="A3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="21">
-        <v>115425</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="20">
+        <v>88364</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>2130162</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>14594</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23">
+      <c r="H3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18">
+      <c r="A4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1985</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="20">
+        <v>58524</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="20">
+        <v>286</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" ht="18">
+      <c r="A5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="20">
+        <v>13289</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="20">
+        <v>677128</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="20">
+        <v>6422</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18">
+      <c r="A6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="20">
+        <v>3238</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="20">
+        <v>801885</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="20">
+        <v>12217</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18">
+      <c r="A7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2099</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="20">
+        <v>83769</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1115</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="21">
-        <v>3143</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="21">
-        <v>58524</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="21">
-        <v>286</v>
-      </c>
-      <c r="G4" s="23" t="s">
+    <row r="8" spans="1:18" ht="18">
+      <c r="A8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="20">
+        <v>18686</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1081858</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="20">
+        <v>13824</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18">
+      <c r="A9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="20">
+        <v>107</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="20">
+        <v>11170</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="20">
+        <v>4</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" ht="18">
+      <c r="A10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="20">
+        <v>11716</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1773218</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="20">
+        <v>25797</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18">
+      <c r="A11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="20">
+        <v>5968</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="20">
+        <v>223484</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="20">
+        <v>3675</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18">
+      <c r="A12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="20">
+        <v>57521</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1036156</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="20">
+        <v>10408</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18">
+      <c r="A13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="20">
+        <v>16877</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="20">
+        <v>901562</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="20">
+        <v>10269</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18">
+      <c r="A14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="20">
+        <v>7539</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="20">
+        <v>255852</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="20">
+        <v>3986</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18">
+      <c r="A15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="20">
+        <v>24080</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="20">
+        <v>381389</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="20">
+        <v>4652</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18">
+      <c r="A16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="20">
+        <v>3055</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="20">
+        <v>414136</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="20">
+        <v>5300</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="1:18" ht="18">
+      <c r="A17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="20">
+        <v>123131</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3465995</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="20">
+        <v>38874</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18">
+      <c r="A18" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="20">
+        <v>366871</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="20">
+        <v>5541834</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="20">
+        <v>53191</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="22">
+        <v>311</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22">
+        <v>370</v>
+      </c>
+      <c r="R18" s="22">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18">
+      <c r="A19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1079</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="20">
+        <v>24278</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="20">
+        <v>224</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23">
+      <c r="H19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" ht="18">
+      <c r="A20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="20">
+        <v>188</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="20">
+        <v>10687</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="20">
+        <v>52</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="1:18" ht="18">
+      <c r="A21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="20">
+        <v>51019</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="20">
+        <v>873485</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="20">
+        <v>10607</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18">
+      <c r="A22" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="20">
+        <v>147941</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="20">
+        <v>7292791</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="20">
+        <v>142522</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18">
+      <c r="A23" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="20">
+        <v>3893</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="20">
+        <v>126609</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2038</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="18">
+      <c r="A24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1839</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="20">
+        <v>86585</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1518</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="18">
+      <c r="A25" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="20">
+        <v>14999</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="20">
+        <v>156274</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="20">
+        <v>601</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="18">
+      <c r="A26" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="20">
+        <v>787</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="20">
+        <v>32654</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="20">
+        <v>715</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18">
-      <c r="A5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="21">
-        <v>30135</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="21">
-        <v>677128</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="21">
-        <v>6422</v>
-      </c>
-      <c r="G5" s="23" t="s">
+    <row r="27" spans="1:18" ht="18">
+      <c r="A27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="20">
+        <v>24437</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1184174</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="20">
+        <v>8575</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18">
+      <c r="A28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="20">
+        <v>5458</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="20">
+        <v>145359</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1923</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18">
+      <c r="A29" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="20">
+        <v>14321</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="20">
+        <v>691749</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="20">
+        <v>17190</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="18">
+      <c r="A30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="20">
+        <v>54869</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1105918</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="20">
+        <v>9224</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18">
-      <c r="A6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="21">
-        <v>7713</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="21">
-        <v>801885</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="21">
-        <v>12217</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="21">
-        <v>3819</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="21">
-        <v>83769</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1115</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18">
+      <c r="A31" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="20">
+        <v>655</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="20">
+        <v>36229</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="20">
+        <v>428</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="18">
+      <c r="A32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="20">
+        <v>155329</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3057846</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="20">
+        <v>37506</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18">
+      <c r="A33" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="20">
+        <v>30931</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="20">
+        <v>714034</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="20">
+        <v>4085</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="18">
+      <c r="A34" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="20">
+        <v>1184</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="20">
+        <v>94117</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="20">
+        <v>895</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18">
-      <c r="A8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="21">
-        <v>25115</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="21">
-        <v>1081858</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="21">
-        <v>13824</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23">
+      <c r="H34" s="22"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="18">
+      <c r="A35" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="20">
+        <v>21358</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="20">
+        <v>379227</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="20">
+        <v>7531</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18">
-      <c r="A9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="21">
-        <v>117</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="21">
-        <v>11170</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="21">
-        <v>4</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="18">
-      <c r="A10" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="21">
-        <v>24800</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1773218</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="21">
-        <v>25797</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18">
-      <c r="A11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="21">
-        <v>10421</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="21">
-        <v>223484</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="21">
-        <v>3675</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18">
-      <c r="A12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="21">
-        <v>98021</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="21">
-        <v>1036156</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="21">
-        <v>10408</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="21">
-        <v>30220</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="21">
-        <v>901562</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="21">
-        <v>10269</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18">
-      <c r="A14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="21">
-        <v>9453</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="21">
-        <v>255852</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="21">
-        <v>3986</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18">
-      <c r="A15" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="21">
-        <v>42219</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="21">
-        <v>381389</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="21">
-        <v>4652</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18">
-      <c r="A16" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="21">
-        <v>7743</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="21">
-        <v>414136</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="21">
-        <v>5300</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="21">
-        <v>252162</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="21">
-        <v>3465995</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="21">
-        <v>38874</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="21">
-        <v>336920</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="21">
-        <v>5541834</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="21">
-        <v>53191</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="23">
-        <v>311</v>
-      </c>
-      <c r="I18" s="23">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="21">
-        <v>1261</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="21">
-        <v>24278</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="21">
-        <v>224</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="21">
-        <v>293</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="21">
-        <v>10687</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="21">
-        <v>52</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="21">
-        <v>66042</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="21">
-        <v>873485</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="21">
-        <v>10607</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="21">
-        <v>248212</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="21">
-        <v>7292791</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="21">
-        <v>142522</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="21">
-        <v>3934</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="21">
-        <v>126609</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="21">
-        <v>2038</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="21">
-        <v>2419</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="21">
-        <v>86585</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="21">
-        <v>1518</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="21">
-        <v>14811</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="21">
-        <v>156274</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="21">
-        <v>601</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18">
-      <c r="A26" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="21">
-        <v>907</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="21">
-        <v>32654</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="21">
-        <v>715</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="21">
-        <v>48319</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1184174</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" s="21">
-        <v>8575</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="21">
-        <v>12542</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="21">
-        <v>145359</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="21">
-        <v>1923</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="21">
-        <v>29466</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="21">
-        <v>691749</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="21">
-        <v>17190</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="21">
-        <v>74849</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1105918</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="21">
-        <v>9224</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="21">
-        <v>1315</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="21">
-        <v>36229</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="21">
-        <v>428</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" ht="18">
-      <c r="A32" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="21">
-        <v>208350</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="21">
-        <v>3057846</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="21">
-        <v>37506</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="21">
-        <v>40447</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="21">
-        <v>714034</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="21">
-        <v>4085</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="21">
-        <v>5130</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="21">
-        <v>94117</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="21">
-        <v>895</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="21">
-        <v>31246</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="21">
-        <v>379227</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" s="21">
-        <v>7531</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:18" ht="18">
+      <c r="A36" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="21">
-        <v>59601</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="20">
+        <v>36411</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <v>1922480</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>23164</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="21" t="s">
+      <c r="H36" s="22"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="18">
+      <c r="A37" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="21">
-        <v>37918</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="20">
+        <v>20213</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>1931711</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>20550</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23">
+      <c r="H37" s="22"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22">
         <v>35</v>
       </c>
     </row>
@@ -7758,8 +8133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D317E-D501-B04E-B622-A50394A159C7}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7771,13 +8146,13 @@
       <c r="B1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7789,13 +8164,13 @@
         <v>417036</v>
       </c>
       <c r="C2">
-        <v>326633</v>
+        <v>327514</v>
       </c>
       <c r="D2">
-        <v>300279</v>
+        <v>310883</v>
       </c>
       <c r="E2">
-        <v>4933</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7806,13 +8181,13 @@
         <v>53903393</v>
       </c>
       <c r="C3">
-        <v>42826434</v>
+        <v>42919895</v>
       </c>
       <c r="D3">
-        <v>36367586</v>
+        <v>37821060</v>
       </c>
       <c r="E3">
-        <v>825951</v>
+        <v>1034645</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7823,13 +8198,13 @@
         <v>1570458</v>
       </c>
       <c r="C4">
-        <v>873767</v>
+        <v>879031</v>
       </c>
       <c r="D4">
-        <v>679305</v>
+        <v>688285</v>
       </c>
       <c r="E4">
-        <v>15942</v>
+        <v>18575</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7840,13 +8215,13 @@
         <v>35607039</v>
       </c>
       <c r="C5">
-        <v>23153987</v>
+        <v>23216107</v>
       </c>
       <c r="D5">
-        <v>17945122</v>
+        <v>18349553</v>
       </c>
       <c r="E5">
-        <v>153220</v>
+        <v>186055</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7857,13 +8232,13 @@
         <v>124799926</v>
       </c>
       <c r="C6">
-        <v>64287757</v>
+        <v>64934354</v>
       </c>
       <c r="D6">
-        <v>47188430</v>
+        <v>48397823</v>
       </c>
       <c r="E6">
-        <v>476012</v>
+        <v>568944</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7874,13 +8249,13 @@
         <v>1158473</v>
       </c>
       <c r="C7">
-        <v>1109441</v>
+        <v>1114840</v>
       </c>
       <c r="D7">
-        <v>846211</v>
+        <v>854715</v>
       </c>
       <c r="E7">
-        <v>14989</v>
+        <v>18474</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7891,13 +8266,13 @@
         <v>29436231</v>
       </c>
       <c r="C8">
-        <v>19282459</v>
+        <v>19399199</v>
       </c>
       <c r="D8">
-        <v>14152793</v>
+        <v>14891768</v>
       </c>
       <c r="E8">
-        <v>232150</v>
+        <v>282495</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7908,13 +8283,13 @@
         <v>18710922</v>
       </c>
       <c r="C9">
-        <v>16977480</v>
+        <v>17071487</v>
       </c>
       <c r="D9">
-        <v>12301680</v>
+        <v>12542612</v>
       </c>
       <c r="E9">
-        <v>270391</v>
+        <v>316295</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7925,13 +8300,13 @@
         <v>1586250</v>
       </c>
       <c r="C10">
-        <v>1379834</v>
+        <v>1385954</v>
       </c>
       <c r="D10">
-        <v>1154020</v>
+        <v>1196339</v>
       </c>
       <c r="E10">
-        <v>19512</v>
+        <v>23579</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7942,13 +8317,13 @@
         <v>63872399</v>
       </c>
       <c r="C11">
-        <v>51130561</v>
+        <v>51457217</v>
       </c>
       <c r="D11">
-        <v>45181611</v>
+        <v>46481835</v>
       </c>
       <c r="E11">
-        <v>1300857</v>
+        <v>1547706</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7959,13 +8334,13 @@
         <v>28204692</v>
       </c>
       <c r="C12">
-        <v>22441575</v>
+        <v>22587360</v>
       </c>
       <c r="D12">
-        <v>16589545</v>
+        <v>16916291</v>
       </c>
       <c r="E12">
-        <v>138070</v>
+        <v>166108</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7976,13 +8351,13 @@
         <v>7451955</v>
       </c>
       <c r="C13">
-        <v>6277737</v>
+        <v>6291905</v>
       </c>
       <c r="D13">
-        <v>5551179</v>
+        <v>5711977</v>
       </c>
       <c r="E13">
-        <v>91897</v>
+        <v>112949</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7993,13 +8368,13 @@
         <v>13606320</v>
       </c>
       <c r="C14">
-        <v>10455395</v>
+        <v>10550735</v>
       </c>
       <c r="D14">
-        <v>9794687</v>
+        <v>9959629</v>
       </c>
       <c r="E14">
-        <v>168925</v>
+        <v>206781</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8010,13 +8385,13 @@
         <v>38593948</v>
       </c>
       <c r="C15">
-        <v>21497303</v>
+        <v>21728166</v>
       </c>
       <c r="D15">
-        <v>12919183</v>
+        <v>13189913</v>
       </c>
       <c r="E15">
-        <v>138452</v>
+        <v>166944</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8027,13 +8402,13 @@
         <v>67562686</v>
       </c>
       <c r="C16">
-        <v>51565223</v>
+        <v>51839155</v>
       </c>
       <c r="D16">
-        <v>42846152</v>
+        <v>44317357</v>
       </c>
       <c r="E16">
-        <v>714283</v>
+        <v>874829</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8044,13 +8419,13 @@
         <v>35699443</v>
       </c>
       <c r="C17">
-        <v>27881960</v>
+        <v>27952315</v>
       </c>
       <c r="D17">
-        <v>22465493</v>
+        <v>22691380</v>
       </c>
       <c r="E17">
-        <v>531846</v>
+        <v>682798</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8061,13 +8436,13 @@
         <v>299000</v>
       </c>
       <c r="C18">
-        <v>225483</v>
+        <v>226038</v>
       </c>
       <c r="D18">
-        <v>177421</v>
+        <v>179588</v>
       </c>
       <c r="E18">
-        <v>15175</v>
+        <v>21017</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8078,13 +8453,13 @@
         <v>289023</v>
       </c>
       <c r="C19">
-        <v>59374</v>
+        <v>59395</v>
       </c>
       <c r="D19">
-        <v>53653</v>
+        <v>54118</v>
       </c>
       <c r="E19">
-        <v>1797</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8095,13 +8470,13 @@
         <v>85358965</v>
       </c>
       <c r="C20">
-        <v>57336216</v>
+        <v>57557978</v>
       </c>
       <c r="D20">
-        <v>51291454</v>
+        <v>52336756</v>
       </c>
       <c r="E20">
-        <v>646624</v>
+        <v>754574</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8112,13 +8487,13 @@
         <v>123144223</v>
       </c>
       <c r="C21">
-        <v>86155581</v>
+        <v>86563476</v>
       </c>
       <c r="D21">
-        <v>60879544</v>
+        <v>62227050</v>
       </c>
       <c r="E21">
-        <v>867009</v>
+        <v>1078864</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8129,13 +8504,13 @@
         <v>3091545</v>
       </c>
       <c r="C22">
-        <v>1420406</v>
+        <v>1454298</v>
       </c>
       <c r="D22">
-        <v>1044901</v>
+        <v>1069745</v>
       </c>
       <c r="E22">
-        <v>26869</v>
+        <v>38461</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8146,13 +8521,13 @@
         <v>3366710</v>
       </c>
       <c r="C23">
-        <v>1334892</v>
+        <v>1343786</v>
       </c>
       <c r="D23">
-        <v>931168</v>
+        <v>937322</v>
       </c>
       <c r="E23">
-        <v>18421</v>
+        <v>21246</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8163,13 +8538,13 @@
         <v>1239244</v>
       </c>
       <c r="C24">
-        <v>809123</v>
+        <v>812929</v>
       </c>
       <c r="D24">
-        <v>610812</v>
+        <v>614818</v>
       </c>
       <c r="E24">
-        <v>18208</v>
+        <v>19950</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8180,13 +8555,13 @@
         <v>2249695</v>
       </c>
       <c r="C25">
-        <v>842153</v>
+        <v>851199</v>
       </c>
       <c r="D25">
-        <v>609741</v>
+        <v>614695</v>
       </c>
       <c r="E25">
-        <v>11115</v>
+        <v>14388</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8197,13 +8572,13 @@
         <v>46356334</v>
       </c>
       <c r="C26">
-        <v>31971188</v>
+        <v>32220970</v>
       </c>
       <c r="D26">
-        <v>24424940</v>
+        <v>25127060</v>
       </c>
       <c r="E26">
-        <v>443082</v>
+        <v>597003</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8214,13 +8589,13 @@
         <v>1413542</v>
       </c>
       <c r="C27">
-        <v>920999</v>
+        <v>923956</v>
       </c>
       <c r="D27">
-        <v>605052</v>
+        <v>609781</v>
       </c>
       <c r="E27">
-        <v>7377</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8231,13 +8606,13 @@
         <v>30141373</v>
       </c>
       <c r="C28">
-        <v>19651992</v>
+        <v>20534473</v>
       </c>
       <c r="D28">
-        <v>13085189</v>
+        <v>14175277</v>
       </c>
       <c r="E28">
-        <v>169185</v>
+        <v>256554</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8248,13 +8623,13 @@
         <v>81032689</v>
       </c>
       <c r="C29">
-        <v>52368728</v>
+        <v>52895392</v>
       </c>
       <c r="D29">
-        <v>39670778</v>
+        <v>40862781</v>
       </c>
       <c r="E29">
-        <v>842382</v>
+        <v>1002059</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8265,13 +8640,13 @@
         <v>690251</v>
       </c>
       <c r="C30">
-        <v>558846</v>
+        <v>560835</v>
       </c>
       <c r="D30">
-        <v>489687</v>
+        <v>496693</v>
       </c>
       <c r="E30">
-        <v>15719</v>
+        <v>19403</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8282,13 +8657,13 @@
         <v>77841267</v>
       </c>
       <c r="C31">
-        <v>54505491</v>
+        <v>54884342</v>
       </c>
       <c r="D31">
-        <v>38759810</v>
+        <v>39754344</v>
       </c>
       <c r="E31">
-        <v>332930</v>
+        <v>425587</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8299,13 +8674,13 @@
         <v>38510982</v>
       </c>
       <c r="C32">
-        <v>30176349</v>
+        <v>30432825</v>
       </c>
       <c r="D32">
-        <v>23424916</v>
+        <v>24356752</v>
       </c>
       <c r="E32">
-        <v>276604</v>
+        <v>318152</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8316,13 +8691,13 @@
         <v>4169794</v>
       </c>
       <c r="C33">
-        <v>2740488</v>
+        <v>2752953</v>
       </c>
       <c r="D33">
-        <v>2164439</v>
+        <v>2201019</v>
       </c>
       <c r="E33">
-        <v>41564</v>
+        <v>50008</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8333,13 +8708,13 @@
         <v>237882725</v>
       </c>
       <c r="C34">
-        <v>155786901</v>
+        <v>159661228</v>
       </c>
       <c r="D34">
-        <v>101520439</v>
+        <v>106660826</v>
       </c>
       <c r="E34">
-        <v>1253759</v>
+        <v>1679419</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8350,13 +8725,13 @@
         <v>11250858</v>
       </c>
       <c r="C35">
-        <v>8438162</v>
+        <v>8499448</v>
       </c>
       <c r="D35">
-        <v>7084023</v>
+        <v>7599656</v>
       </c>
       <c r="E35">
-        <v>211125</v>
+        <v>296470</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8367,13 +8742,13 @@
         <v>99609303</v>
       </c>
       <c r="C36">
-        <v>69286445</v>
+        <v>69511846</v>
       </c>
       <c r="D36">
-        <v>51160206</v>
+        <v>53003092</v>
       </c>
       <c r="E36">
-        <v>865039</v>
+        <v>1104107</v>
       </c>
     </row>
   </sheetData>
@@ -8386,13 +8761,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8409,80 +8784,82 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="26">
-        <v>10395069</v>
-      </c>
-      <c r="C2" s="26">
-        <v>9859959</v>
-      </c>
-      <c r="D2" s="26">
-        <v>3281815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18">
+      <c r="B2" s="25">
+        <v>10397320</v>
+      </c>
+      <c r="C2" s="25">
+        <v>9895501</v>
+      </c>
+      <c r="D2" s="25">
+        <v>3609410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="26">
-        <v>18395392</v>
-      </c>
-      <c r="C3" s="26">
-        <v>17218111</v>
-      </c>
-      <c r="D3" s="26">
-        <v>3714213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18">
+      <c r="B3" s="25">
+        <v>18400586</v>
+      </c>
+      <c r="C3" s="25">
+        <v>17303841</v>
+      </c>
+      <c r="D3" s="25">
+        <v>17303841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20">
       <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="26">
-        <v>45648949</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="18">
+      <c r="B4" s="25">
+        <v>48844872</v>
+      </c>
+      <c r="C4" s="25">
+        <v>4580539</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="26">
-        <v>539799603</v>
-      </c>
-      <c r="C5" s="26">
-        <v>402358637</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="18">
+      <c r="B5" s="25">
+        <v>544058916</v>
+      </c>
+      <c r="C5" s="25">
+        <v>414088065</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="20">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="26">
-        <v>200062699</v>
-      </c>
-      <c r="C6" s="26">
-        <v>170584774</v>
-      </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="18">
+      <c r="B6" s="25">
+        <v>200849691</v>
+      </c>
+      <c r="C6" s="25">
+        <v>173580375</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="20">
       <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="26">
-        <v>124717450</v>
-      </c>
-      <c r="C7" s="26">
-        <v>106326887</v>
-      </c>
-      <c r="D7" s="26">
-        <v>4697134</v>
+      <c r="B7" s="25">
+        <v>125277682</v>
+      </c>
+      <c r="C7" s="25">
+        <v>108141859</v>
+      </c>
+      <c r="D7" s="25">
+        <v>6192772</v>
       </c>
     </row>
   </sheetData>
@@ -8492,10 +8869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA94CA-D9DE-B548-8735-C3641B00F463}">
-  <dimension ref="A1:S305"/>
+  <dimension ref="A1:S310"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="D302" sqref="D302"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26145,58 +26522,58 @@
       <c r="A300" s="3">
         <v>44583</v>
       </c>
-      <c r="B300" s="18">
+      <c r="B300" s="17">
         <v>22000</v>
       </c>
-      <c r="C300" s="18">
+      <c r="C300" s="17">
         <v>21000</v>
       </c>
-      <c r="D300" s="18">
+      <c r="D300" s="17">
         <v>12000</v>
       </c>
-      <c r="E300" s="18">
+      <c r="E300" s="17">
         <v>35000</v>
       </c>
-      <c r="F300" s="18">
+      <c r="F300" s="17">
         <v>28500</v>
       </c>
-      <c r="G300" s="18">
+      <c r="G300" s="17">
         <v>32000</v>
       </c>
-      <c r="H300" s="18">
+      <c r="H300" s="17">
         <v>18500</v>
       </c>
-      <c r="I300" s="18">
+      <c r="I300" s="17">
         <v>20500</v>
       </c>
-      <c r="J300" s="18">
+      <c r="J300" s="17">
         <v>31500</v>
       </c>
-      <c r="K300" s="18">
+      <c r="K300" s="17">
         <v>31500</v>
       </c>
-      <c r="L300" s="18">
+      <c r="L300" s="17">
         <v>49500</v>
       </c>
-      <c r="M300" s="18">
+      <c r="M300" s="17">
         <v>82000</v>
       </c>
-      <c r="N300" s="18">
+      <c r="N300" s="17">
         <v>63000</v>
       </c>
-      <c r="O300" s="18">
+      <c r="O300" s="17">
         <v>84500</v>
       </c>
-      <c r="P300" s="18">
+      <c r="P300" s="17">
         <v>87500</v>
       </c>
-      <c r="Q300" s="18">
+      <c r="Q300" s="17">
         <v>89000</v>
       </c>
-      <c r="R300" s="18">
+      <c r="R300" s="17">
         <v>64000</v>
       </c>
-      <c r="S300" s="18">
+      <c r="S300" s="17">
         <v>51500</v>
       </c>
     </row>
@@ -26204,58 +26581,58 @@
       <c r="A301" s="3">
         <v>44585</v>
       </c>
-      <c r="B301" s="18">
+      <c r="B301" s="17">
         <v>22000</v>
       </c>
-      <c r="C301" s="18">
+      <c r="C301" s="17">
         <v>21000</v>
       </c>
-      <c r="D301" s="18">
+      <c r="D301" s="17">
         <v>12000</v>
       </c>
-      <c r="E301" s="18">
+      <c r="E301" s="17">
         <v>35000</v>
       </c>
-      <c r="F301" s="18">
+      <c r="F301" s="17">
         <v>28500</v>
       </c>
-      <c r="G301" s="18">
+      <c r="G301" s="17">
         <v>32000</v>
       </c>
-      <c r="H301" s="18">
+      <c r="H301" s="17">
         <v>18500</v>
       </c>
-      <c r="I301" s="18">
+      <c r="I301" s="17">
         <v>20500</v>
       </c>
-      <c r="J301" s="18">
+      <c r="J301" s="17">
         <v>31500</v>
       </c>
-      <c r="K301" s="18">
+      <c r="K301" s="17">
         <v>31500</v>
       </c>
-      <c r="L301" s="18">
+      <c r="L301" s="17">
         <v>49500</v>
       </c>
-      <c r="M301" s="18">
+      <c r="M301" s="17">
         <v>82000</v>
       </c>
-      <c r="N301" s="18">
+      <c r="N301" s="17">
         <v>63000</v>
       </c>
-      <c r="O301" s="18">
+      <c r="O301" s="17">
         <v>84500</v>
       </c>
-      <c r="P301" s="18">
+      <c r="P301" s="17">
         <v>87500</v>
       </c>
-      <c r="Q301" s="18">
+      <c r="Q301" s="17">
         <v>89000</v>
       </c>
-      <c r="R301" s="18">
+      <c r="R301" s="17">
         <v>64000</v>
       </c>
-      <c r="S301" s="18">
+      <c r="S301" s="17">
         <v>51500</v>
       </c>
     </row>
@@ -26263,58 +26640,58 @@
       <c r="A302" s="3">
         <v>44586</v>
       </c>
-      <c r="B302" s="18">
+      <c r="B302" s="17">
         <v>22000</v>
       </c>
-      <c r="C302" s="18">
+      <c r="C302" s="17">
         <v>21000</v>
       </c>
-      <c r="D302" s="18">
+      <c r="D302" s="17">
         <v>12000</v>
       </c>
-      <c r="E302" s="18">
+      <c r="E302" s="17">
         <v>35000</v>
       </c>
-      <c r="F302" s="18">
+      <c r="F302" s="17">
         <v>28500</v>
       </c>
-      <c r="G302" s="18">
+      <c r="G302" s="17">
         <v>32000</v>
       </c>
-      <c r="H302" s="18">
+      <c r="H302" s="17">
         <v>18500</v>
       </c>
-      <c r="I302" s="18">
+      <c r="I302" s="17">
         <v>20500</v>
       </c>
-      <c r="J302" s="18">
+      <c r="J302" s="17">
         <v>31500</v>
       </c>
-      <c r="K302" s="18">
+      <c r="K302" s="17">
         <v>31500</v>
       </c>
-      <c r="L302" s="18">
+      <c r="L302" s="17">
         <v>49500</v>
       </c>
-      <c r="M302" s="18">
+      <c r="M302" s="17">
         <v>82000</v>
       </c>
-      <c r="N302" s="18">
+      <c r="N302" s="17">
         <v>63000</v>
       </c>
-      <c r="O302" s="18">
+      <c r="O302" s="17">
         <v>84500</v>
       </c>
-      <c r="P302" s="18">
+      <c r="P302" s="17">
         <v>87500</v>
       </c>
-      <c r="Q302" s="18">
+      <c r="Q302" s="17">
         <v>89000</v>
       </c>
-      <c r="R302" s="18">
+      <c r="R302" s="17">
         <v>64000</v>
       </c>
-      <c r="S302" s="18">
+      <c r="S302" s="17">
         <v>51500</v>
       </c>
     </row>
@@ -26322,58 +26699,58 @@
       <c r="A303" s="3">
         <v>44588</v>
       </c>
-      <c r="B303" s="18">
+      <c r="B303" s="17">
         <v>22000</v>
       </c>
-      <c r="C303" s="18">
+      <c r="C303" s="17">
         <v>21000</v>
       </c>
-      <c r="D303" s="18">
+      <c r="D303" s="17">
         <v>12000</v>
       </c>
-      <c r="E303" s="18">
+      <c r="E303" s="17">
         <v>35000</v>
       </c>
-      <c r="F303" s="18">
+      <c r="F303" s="17">
         <v>28500</v>
       </c>
-      <c r="G303" s="18">
+      <c r="G303" s="17">
         <v>32000</v>
       </c>
-      <c r="H303" s="18">
+      <c r="H303" s="17">
         <v>18500</v>
       </c>
-      <c r="I303" s="18">
+      <c r="I303" s="17">
         <v>20500</v>
       </c>
-      <c r="J303" s="18">
+      <c r="J303" s="17">
         <v>31500</v>
       </c>
-      <c r="K303" s="18">
+      <c r="K303" s="17">
         <v>31500</v>
       </c>
-      <c r="L303" s="18">
+      <c r="L303" s="17">
         <v>49500</v>
       </c>
-      <c r="M303" s="18">
+      <c r="M303" s="17">
         <v>82000</v>
       </c>
-      <c r="N303" s="18">
+      <c r="N303" s="17">
         <v>63000</v>
       </c>
-      <c r="O303" s="18">
+      <c r="O303" s="17">
         <v>84500</v>
       </c>
-      <c r="P303" s="18">
+      <c r="P303" s="17">
         <v>87500</v>
       </c>
-      <c r="Q303" s="18">
+      <c r="Q303" s="17">
         <v>89000</v>
       </c>
-      <c r="R303" s="18">
+      <c r="R303" s="17">
         <v>64000</v>
       </c>
-      <c r="S303" s="18">
+      <c r="S303" s="17">
         <v>51500</v>
       </c>
     </row>
@@ -26381,58 +26758,58 @@
       <c r="A304" s="3">
         <v>44589</v>
       </c>
-      <c r="B304" s="18">
+      <c r="B304" s="17">
         <v>22000</v>
       </c>
-      <c r="C304" s="18">
+      <c r="C304" s="17">
         <v>21000</v>
       </c>
-      <c r="D304" s="18">
+      <c r="D304" s="17">
         <v>12000</v>
       </c>
-      <c r="E304" s="18">
+      <c r="E304" s="17">
         <v>35000</v>
       </c>
-      <c r="F304" s="18">
+      <c r="F304" s="17">
         <v>28500</v>
       </c>
-      <c r="G304" s="18">
+      <c r="G304" s="17">
         <v>32000</v>
       </c>
-      <c r="H304" s="18">
+      <c r="H304" s="17">
         <v>18500</v>
       </c>
-      <c r="I304" s="18">
+      <c r="I304" s="17">
         <v>20500</v>
       </c>
-      <c r="J304" s="18">
+      <c r="J304" s="17">
         <v>31500</v>
       </c>
-      <c r="K304" s="18">
+      <c r="K304" s="17">
         <v>31500</v>
       </c>
-      <c r="L304" s="18">
+      <c r="L304" s="17">
         <v>49500</v>
       </c>
-      <c r="M304" s="18">
+      <c r="M304" s="17">
         <v>82000</v>
       </c>
-      <c r="N304" s="18">
+      <c r="N304" s="17">
         <v>63000</v>
       </c>
-      <c r="O304" s="18">
+      <c r="O304" s="17">
         <v>84500</v>
       </c>
-      <c r="P304" s="18">
+      <c r="P304" s="17">
         <v>87500</v>
       </c>
-      <c r="Q304" s="18">
+      <c r="Q304" s="17">
         <v>89000</v>
       </c>
-      <c r="R304" s="18">
+      <c r="R304" s="17">
         <v>64000</v>
       </c>
-      <c r="S304" s="18">
+      <c r="S304" s="17">
         <v>51500</v>
       </c>
     </row>
@@ -26440,59 +26817,354 @@
       <c r="A305" s="3">
         <v>44590</v>
       </c>
-      <c r="B305" s="18">
+      <c r="B305" s="17">
         <v>22000</v>
       </c>
-      <c r="C305" s="18">
+      <c r="C305" s="17">
         <v>21000</v>
       </c>
-      <c r="D305" s="18">
+      <c r="D305" s="17">
         <v>12000</v>
       </c>
-      <c r="E305" s="18">
+      <c r="E305" s="17">
         <v>35000</v>
       </c>
-      <c r="F305" s="18">
+      <c r="F305" s="17">
         <v>28500</v>
       </c>
-      <c r="G305" s="18">
+      <c r="G305" s="17">
         <v>32000</v>
       </c>
-      <c r="H305" s="18">
+      <c r="H305" s="17">
         <v>18500</v>
       </c>
-      <c r="I305" s="18">
+      <c r="I305" s="17">
         <v>20500</v>
       </c>
-      <c r="J305" s="18">
+      <c r="J305" s="17">
         <v>31500</v>
       </c>
-      <c r="K305" s="18">
+      <c r="K305" s="17">
         <v>31500</v>
       </c>
-      <c r="L305" s="18">
+      <c r="L305" s="17">
         <v>49500</v>
       </c>
-      <c r="M305" s="18">
+      <c r="M305" s="17">
         <v>82000</v>
       </c>
-      <c r="N305" s="18">
+      <c r="N305" s="17">
         <v>63000</v>
       </c>
-      <c r="O305" s="18">
+      <c r="O305" s="17">
         <v>84500</v>
       </c>
-      <c r="P305" s="18">
+      <c r="P305" s="17">
         <v>87500</v>
       </c>
-      <c r="Q305" s="18">
+      <c r="Q305" s="17">
         <v>89000</v>
       </c>
-      <c r="R305" s="18">
+      <c r="R305" s="17">
         <v>64000</v>
       </c>
-      <c r="S305" s="18">
+      <c r="S305" s="17">
         <v>51500</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19">
+      <c r="A306" s="3">
+        <v>44592</v>
+      </c>
+      <c r="B306" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C306" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D306" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E306" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F306" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G306" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H306" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I306" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J306" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K306" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L306" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M306" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N306" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O306" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P306" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q306" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R306" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S306" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19">
+      <c r="A307" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B307" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C307" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D307" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E307" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F307" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G307" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H307" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I307" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J307" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K307" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L307" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M307" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N307" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O307" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P307" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q307" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R307" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S307" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19">
+      <c r="A308" s="3">
+        <v>44594</v>
+      </c>
+      <c r="B308" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C308" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D308" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E308" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F308" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G308" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H308" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I308" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J308" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K308" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L308" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M308" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N308" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O308" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P308" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q308" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R308" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S308" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19">
+      <c r="A309" s="3">
+        <v>44595</v>
+      </c>
+      <c r="B309" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C309" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D309" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E309" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F309" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G309" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H309" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I309" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J309" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K309" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L309" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M309" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N309" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O309" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P309" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q309" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R309" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S309" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19">
+      <c r="A310" s="3">
+        <v>44596</v>
+      </c>
+      <c r="B310" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C310" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D310" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E310" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F310" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G310" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H310" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I310" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J310" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K310" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L310" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M310" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N310" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O310" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P310" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q310" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R310" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S310" s="17">
+        <v>52000</v>
       </c>
     </row>
   </sheetData>
@@ -26502,10 +27174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A5412-72F4-CA4E-9682-44F6B6C554A4}">
-  <dimension ref="A1:B1126"/>
+  <dimension ref="A1:B1132"/>
   <sheetViews>
-    <sheetView topLeftCell="A1113" workbookViewId="0">
-      <selection activeCell="A1122" sqref="A1122"/>
+    <sheetView topLeftCell="A1116" workbookViewId="0">
+      <selection activeCell="A1132" sqref="A1132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35518,6 +36190,54 @@
         <v>3817</v>
       </c>
     </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="4">
+        <v>44591</v>
+      </c>
+      <c r="B1127">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B1128">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B1129">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="4">
+        <v>44594</v>
+      </c>
+      <c r="B1130">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="4">
+        <v>44595</v>
+      </c>
+      <c r="B1131">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" s="4">
+        <v>44596</v>
+      </c>
+      <c r="B1132">
+        <v>3827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35525,10 +36245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E43D3-B2B8-4440-9DFA-30FE18FECCE6}">
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
-    <sheetView topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="B599" sqref="B599"/>
+    <sheetView topLeftCell="A599" workbookViewId="0">
+      <selection activeCell="A615" sqref="A615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40289,7 +41009,7 @@
       <c r="A595" s="4">
         <v>44576</v>
       </c>
-      <c r="B595" s="19">
+      <c r="B595" s="18">
         <v>21970.51</v>
       </c>
     </row>
@@ -40297,7 +41017,7 @@
       <c r="A596" s="4">
         <v>44577</v>
       </c>
-      <c r="B596" s="19">
+      <c r="B596" s="18">
         <v>18000.91</v>
       </c>
     </row>
@@ -40305,7 +41025,7 @@
       <c r="A597" s="4">
         <v>44578</v>
       </c>
-      <c r="B597" s="19">
+      <c r="B597" s="18">
         <v>27641.24</v>
       </c>
     </row>
@@ -40313,7 +41033,7 @@
       <c r="A598" s="4">
         <v>44579</v>
       </c>
-      <c r="B598" s="19">
+      <c r="B598" s="18">
         <v>26732.97</v>
       </c>
     </row>
@@ -40321,7 +41041,7 @@
       <c r="A599" s="4">
         <v>44580</v>
       </c>
-      <c r="B599" s="19">
+      <c r="B599" s="18">
         <v>27400.76</v>
       </c>
     </row>
@@ -40329,7 +41049,7 @@
       <c r="A600" s="4">
         <v>44581</v>
       </c>
-      <c r="B600" s="19">
+      <c r="B600" s="18">
         <v>27092.83</v>
       </c>
     </row>
@@ -40337,7 +41057,7 @@
       <c r="A601" s="4">
         <v>44582</v>
       </c>
-      <c r="B601" s="19">
+      <c r="B601" s="18">
         <v>26652.65</v>
       </c>
     </row>
@@ -40345,7 +41065,7 @@
       <c r="A602" s="4">
         <v>44583</v>
       </c>
-      <c r="B602" s="19">
+      <c r="B602" s="18">
         <v>23272.13</v>
       </c>
     </row>
@@ -40353,7 +41073,7 @@
       <c r="A603" s="4">
         <v>44584</v>
       </c>
-      <c r="B603" s="19">
+      <c r="B603" s="18">
         <v>17525.560000000001</v>
       </c>
     </row>
@@ -40361,7 +41081,7 @@
       <c r="A604" s="4">
         <v>44585</v>
       </c>
-      <c r="B604" s="19">
+      <c r="B604" s="18">
         <v>28414.48</v>
       </c>
     </row>
@@ -40369,7 +41089,7 @@
       <c r="A605" s="4">
         <v>44586</v>
       </c>
-      <c r="B605" s="19">
+      <c r="B605" s="18">
         <v>27920.07</v>
       </c>
     </row>
@@ -40377,7 +41097,7 @@
       <c r="A606" s="4">
         <v>44587</v>
       </c>
-      <c r="B606" s="19">
+      <c r="B606" s="18">
         <v>21232.52</v>
       </c>
     </row>
@@ -40385,7 +41105,7 @@
       <c r="A607" s="4">
         <v>44588</v>
       </c>
-      <c r="B607" s="19">
+      <c r="B607" s="18">
         <v>27360.06</v>
       </c>
     </row>
@@ -40393,8 +41113,64 @@
       <c r="A608" s="4">
         <v>44589</v>
       </c>
-      <c r="B608" s="19">
+      <c r="B608" s="18">
         <v>26942.28</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="4">
+        <v>44590</v>
+      </c>
+      <c r="B609" s="18">
+        <v>24872.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="4">
+        <v>44591</v>
+      </c>
+      <c r="B610" s="18">
+        <v>21176.51</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B611" s="18">
+        <v>36596.639999999999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B612" s="18">
+        <v>38167.32</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="4">
+        <v>44594</v>
+      </c>
+      <c r="B613" s="18">
+        <v>34757.089999999997</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="4">
+        <v>44595</v>
+      </c>
+      <c r="B614" s="18">
+        <v>33265.300000000003</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="4">
+        <v>44596</v>
+      </c>
+      <c r="B615" s="18">
+        <v>32036.03</v>
       </c>
     </row>
   </sheetData>
@@ -40404,10 +41180,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D064278-E4AD-8149-B400-6EAC50E0DC3D}">
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B538"/>
   <sheetViews>
-    <sheetView topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="A528" sqref="A528"/>
+    <sheetView topLeftCell="A520" zoomScale="162" workbookViewId="0">
+      <selection activeCell="A530" sqref="A530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44668,6 +45444,54 @@
         <v>6.64</v>
       </c>
     </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="3">
+        <v>44591</v>
+      </c>
+      <c r="B533">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="3">
+        <v>44592</v>
+      </c>
+      <c r="B534">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B535">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="3">
+        <v>44594</v>
+      </c>
+      <c r="B536">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="3">
+        <v>44595</v>
+      </c>
+      <c r="B537">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="3">
+        <v>44596</v>
+      </c>
+      <c r="B538">
+        <v>6.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44675,10 +45499,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE529FD-4597-F641-B496-01BE3204D79B}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46571,6 +47395,17 @@
         <v>39.770000000000003</v>
       </c>
     </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="4">
+        <v>44591</v>
+      </c>
+      <c r="B123">
+        <v>5.41</v>
+      </c>
+      <c r="E123">
+        <v>39.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46578,10 +47413,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DA751-8DDE-2444-A8CE-DEF963043B5D}">
-  <dimension ref="A1:J362"/>
+  <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="A360" sqref="A360"/>
+    <sheetView topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -58170,6 +59005,198 @@
         <v>64.78</v>
       </c>
     </row>
+    <row r="363" spans="1:10">
+      <c r="A363" s="3">
+        <v>44591</v>
+      </c>
+      <c r="B363">
+        <v>60.11</v>
+      </c>
+      <c r="C363">
+        <v>53.67</v>
+      </c>
+      <c r="D363">
+        <v>63.5</v>
+      </c>
+      <c r="E363">
+        <v>58.82</v>
+      </c>
+      <c r="F363">
+        <v>52.72</v>
+      </c>
+      <c r="G363">
+        <v>61.5</v>
+      </c>
+      <c r="H363">
+        <v>60.93</v>
+      </c>
+      <c r="I363">
+        <v>54.29</v>
+      </c>
+      <c r="J363">
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
+      <c r="A364" s="3">
+        <v>44592</v>
+      </c>
+      <c r="B364">
+        <v>59.93</v>
+      </c>
+      <c r="C364">
+        <v>53.67</v>
+      </c>
+      <c r="D364">
+        <v>63.32</v>
+      </c>
+      <c r="E364">
+        <v>58.37</v>
+      </c>
+      <c r="F364">
+        <v>52.72</v>
+      </c>
+      <c r="G364">
+        <v>61.5</v>
+      </c>
+      <c r="H364">
+        <v>60.93</v>
+      </c>
+      <c r="I364">
+        <v>54.29</v>
+      </c>
+      <c r="J364">
+        <v>64.48</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
+      <c r="A365" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B365">
+        <v>60.11</v>
+      </c>
+      <c r="C365">
+        <v>53.5</v>
+      </c>
+      <c r="D365">
+        <v>63.69</v>
+      </c>
+      <c r="E365">
+        <v>58.37</v>
+      </c>
+      <c r="F365">
+        <v>52.72</v>
+      </c>
+      <c r="G365">
+        <v>61.97</v>
+      </c>
+      <c r="H365">
+        <v>61.22</v>
+      </c>
+      <c r="I365">
+        <v>54.02</v>
+      </c>
+      <c r="J365">
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
+      <c r="A366" s="3">
+        <v>44594</v>
+      </c>
+      <c r="B366">
+        <v>60.46</v>
+      </c>
+      <c r="C366">
+        <v>53.17</v>
+      </c>
+      <c r="D366">
+        <v>64.42</v>
+      </c>
+      <c r="E366">
+        <v>59.28</v>
+      </c>
+      <c r="F366">
+        <v>52.72</v>
+      </c>
+      <c r="G366">
+        <v>62.44</v>
+      </c>
+      <c r="H366">
+        <v>61.22</v>
+      </c>
+      <c r="I366">
+        <v>53.46</v>
+      </c>
+      <c r="J366">
+        <v>65.67</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="A367" s="3">
+        <v>44595</v>
+      </c>
+      <c r="B367">
+        <v>60.64</v>
+      </c>
+      <c r="C367">
+        <v>52.67</v>
+      </c>
+      <c r="D367">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="E367">
+        <v>59.28</v>
+      </c>
+      <c r="F367">
+        <v>51.88</v>
+      </c>
+      <c r="G367">
+        <v>62.91</v>
+      </c>
+      <c r="H367">
+        <v>61.52</v>
+      </c>
+      <c r="I367">
+        <v>53.19</v>
+      </c>
+      <c r="J367">
+        <v>65.67</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
+      <c r="A368" s="3">
+        <v>44596</v>
+      </c>
+      <c r="B368">
+        <v>60.64</v>
+      </c>
+      <c r="C368">
+        <v>52.33</v>
+      </c>
+      <c r="D368">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="E368">
+        <v>59.28</v>
+      </c>
+      <c r="F368">
+        <v>51.88</v>
+      </c>
+      <c r="G368">
+        <v>63.38</v>
+      </c>
+      <c r="H368">
+        <v>61.52</v>
+      </c>
+      <c r="I368">
+        <v>52.63</v>
+      </c>
+      <c r="J368">
+        <v>66.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58177,10 +59204,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8730D1-B073-F949-92E6-FAE69CFEA773}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -59151,6 +60178,20 @@
       </c>
       <c r="D76">
         <v>56.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B77">
+        <v>54</v>
+      </c>
+      <c r="C77">
+        <v>51.5</v>
+      </c>
+      <c r="D77">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -59162,7 +60203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFAB418-80AA-504F-AAFE-ECE862BB3CFF}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>

--- a/Manual/input-data.xlsx
+++ b/Manual/input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker-git/nimf-tracker/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B10794-974F-7749-A363-CB4647AAD983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A254B-68FE-3549-8DBF-27A48712842D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
+    <workbookView xWindow="33400" yWindow="8460" windowWidth="17060" windowHeight="9960" firstSheet="5" activeTab="9" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
   </bookViews>
   <sheets>
     <sheet name="gst-eway" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="209">
   <si>
     <t>e-Way</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Assam</t>
   </si>
   <si>
-    <t>15 </t>
-  </si>
-  <si>
     <t>Bihar</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
   </si>
   <si>
     <t>1 </t>
-  </si>
-  <si>
-    <t>33 </t>
   </si>
   <si>
     <t>Delhi</t>
@@ -316,9 +310,6 @@
   </si>
   <si>
     <t>Karnataka</t>
-  </si>
-  <si>
-    <t>22 </t>
   </si>
   <si>
     <t>Ladakh</t>
@@ -384,19 +375,10 @@
     <t>West Bengal</t>
   </si>
   <si>
-    <t>35 </t>
-  </si>
-  <si>
     <t>3 </t>
   </si>
   <si>
-    <t>34 </t>
-  </si>
-  <si>
     <t>13 </t>
-  </si>
-  <si>
-    <t>79 </t>
   </si>
   <si>
     <t>State</t>
@@ -453,223 +435,247 @@
     <t>Above 60 Years</t>
   </si>
   <si>
-    <t>26 </t>
-  </si>
-  <si>
-    <t>2125 </t>
-  </si>
-  <si>
-    <t>9445 </t>
-  </si>
-  <si>
-    <t>54 </t>
-  </si>
-  <si>
-    <t>379 </t>
-  </si>
-  <si>
-    <t>3225 </t>
-  </si>
-  <si>
-    <t>5497 </t>
-  </si>
-  <si>
-    <t>1281 </t>
-  </si>
-  <si>
-    <t>2577 </t>
-  </si>
-  <si>
-    <t>828 </t>
-  </si>
-  <si>
-    <t>1146 </t>
-  </si>
-  <si>
-    <t>1008 </t>
-  </si>
-  <si>
-    <t>4776 </t>
-  </si>
-  <si>
     <t>12 </t>
-  </si>
-  <si>
-    <t>30 </t>
-  </si>
-  <si>
-    <t>4352 </t>
-  </si>
-  <si>
-    <t>8807 </t>
-  </si>
-  <si>
-    <t>28 </t>
-  </si>
-  <si>
-    <t>1482 </t>
-  </si>
-  <si>
-    <t>2691 </t>
   </si>
   <si>
     <t>10 </t>
   </si>
   <si>
-    <t>9894 </t>
-  </si>
-  <si>
-    <t>21655 </t>
-  </si>
-  <si>
-    <t>1791 </t>
-  </si>
-  <si>
-    <t>6223 </t>
-  </si>
-  <si>
-    <t>299 </t>
-  </si>
-  <si>
-    <t>2005 </t>
-  </si>
-  <si>
-    <t>2937 </t>
-  </si>
-  <si>
-    <t>7107 </t>
-  </si>
-  <si>
-    <t>2640 </t>
-  </si>
-  <si>
-    <t>3675 </t>
-  </si>
-  <si>
-    <t>36635 </t>
-  </si>
-  <si>
-    <t>69902 </t>
-  </si>
-  <si>
     <t>70 </t>
-  </si>
-  <si>
-    <t>2758 </t>
-  </si>
-  <si>
-    <t>47649 </t>
-  </si>
-  <si>
-    <t>94 </t>
-  </si>
-  <si>
-    <t>260 </t>
-  </si>
-  <si>
-    <t>1903 </t>
-  </si>
-  <si>
-    <t>10576 </t>
-  </si>
-  <si>
-    <t>22232 </t>
-  </si>
-  <si>
-    <t>50142 </t>
-  </si>
-  <si>
-    <t>61 </t>
-  </si>
-  <si>
-    <t>130 </t>
-  </si>
-  <si>
-    <t>294 </t>
-  </si>
-  <si>
-    <t>320 </t>
-  </si>
-  <si>
-    <t>203 </t>
-  </si>
-  <si>
-    <t>1611 </t>
-  </si>
-  <si>
-    <t>80 </t>
-  </si>
-  <si>
-    <t>5440 </t>
-  </si>
-  <si>
-    <t>10267 </t>
-  </si>
-  <si>
-    <t>1751 </t>
-  </si>
-  <si>
-    <t>2604 </t>
-  </si>
-  <si>
-    <t>3570 </t>
-  </si>
-  <si>
-    <t>6805 </t>
-  </si>
-  <si>
-    <t>31 </t>
-  </si>
-  <si>
-    <t>5639 </t>
-  </si>
-  <si>
-    <t>16054 </t>
-  </si>
-  <si>
-    <t>135 </t>
-  </si>
-  <si>
-    <t>291 </t>
-  </si>
-  <si>
-    <t>3513 </t>
-  </si>
-  <si>
-    <t>27885 </t>
-  </si>
-  <si>
-    <t>46 </t>
-  </si>
-  <si>
-    <t>3555 </t>
-  </si>
-  <si>
-    <t>668 </t>
-  </si>
-  <si>
-    <t>851 </t>
-  </si>
-  <si>
-    <t>160 </t>
-  </si>
-  <si>
-    <t>2320 </t>
-  </si>
-  <si>
-    <t>5662 </t>
-  </si>
-  <si>
-    <t>13910 </t>
   </si>
   <si>
     <t>25 </t>
   </si>
   <si>
-    <t>7811 </t>
+    <t>16 </t>
   </si>
   <si>
-    <t>11288 </t>
+    <t>8471 </t>
+  </si>
+  <si>
+    <t>9632 </t>
+  </si>
+  <si>
+    <t>128 </t>
+  </si>
+  <si>
+    <t>177 </t>
+  </si>
+  <si>
+    <t>505 </t>
+  </si>
+  <si>
+    <t>766 </t>
+  </si>
+  <si>
+    <t>239 </t>
+  </si>
+  <si>
+    <t>474 </t>
+  </si>
+  <si>
+    <t>88 </t>
+  </si>
+  <si>
+    <t>180 </t>
+  </si>
+  <si>
+    <t>1433 </t>
+  </si>
+  <si>
+    <t>2369 </t>
+  </si>
+  <si>
+    <t>7 </t>
+  </si>
+  <si>
+    <t>11 </t>
+  </si>
+  <si>
+    <t>626 </t>
+  </si>
+  <si>
+    <t>1591 </t>
+  </si>
+  <si>
+    <t>398 </t>
+  </si>
+  <si>
+    <t>595 </t>
+  </si>
+  <si>
+    <t>3136 </t>
+  </si>
+  <si>
+    <t>5005 </t>
+  </si>
+  <si>
+    <t>14 </t>
+  </si>
+  <si>
+    <t>850 </t>
+  </si>
+  <si>
+    <t>2025 </t>
+  </si>
+  <si>
+    <t>212 </t>
+  </si>
+  <si>
+    <t>702 </t>
+  </si>
+  <si>
+    <t>9 </t>
+  </si>
+  <si>
+    <t>1088 </t>
+  </si>
+  <si>
+    <t>1626 </t>
+  </si>
+  <si>
+    <t>120 </t>
+  </si>
+  <si>
+    <t>326 </t>
+  </si>
+  <si>
+    <t>7442 </t>
+  </si>
+  <si>
+    <t>11377 </t>
+  </si>
+  <si>
+    <t>41 </t>
+  </si>
+  <si>
+    <t>Kerala***</t>
+  </si>
+  <si>
+    <t>27567 </t>
+  </si>
+  <si>
+    <t>43087 </t>
+  </si>
+  <si>
+    <t>241 </t>
+  </si>
+  <si>
+    <t>87 </t>
+  </si>
+  <si>
+    <t>147 </t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>3386 </t>
+  </si>
+  <si>
+    <t>5995 </t>
+  </si>
+  <si>
+    <t>9243 </t>
+  </si>
+  <si>
+    <t>14635 </t>
+  </si>
+  <si>
+    <t>63 </t>
+  </si>
+  <si>
+    <t>52 </t>
+  </si>
+  <si>
+    <t>158 </t>
+  </si>
+  <si>
+    <t>92 </t>
+  </si>
+  <si>
+    <t>172 </t>
+  </si>
+  <si>
+    <t>1883 </t>
+  </si>
+  <si>
+    <t>40 </t>
+  </si>
+  <si>
+    <t>74 </t>
+  </si>
+  <si>
+    <t>931 </t>
+  </si>
+  <si>
+    <t>2483 </t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>513 </t>
+  </si>
+  <si>
+    <t>661 </t>
+  </si>
+  <si>
+    <t>825 </t>
+  </si>
+  <si>
+    <t>1249 </t>
+  </si>
+  <si>
+    <t>21 </t>
+  </si>
+  <si>
+    <t>3751 </t>
+  </si>
+  <si>
+    <t>6632 </t>
+  </si>
+  <si>
+    <t>42 </t>
+  </si>
+  <si>
+    <t>10990 </t>
+  </si>
+  <si>
+    <t>14051 </t>
+  </si>
+  <si>
+    <t>2118 </t>
+  </si>
+  <si>
+    <t>2850 </t>
+  </si>
+  <si>
+    <t>51 </t>
+  </si>
+  <si>
+    <t>68 </t>
+  </si>
+  <si>
+    <t>846 </t>
+  </si>
+  <si>
+    <t>1348 </t>
+  </si>
+  <si>
+    <t>1376 </t>
+  </si>
+  <si>
+    <t>3143 </t>
+  </si>
+  <si>
+    <t>621 </t>
+  </si>
+  <si>
+    <t>1361 </t>
+  </si>
+  <si>
+    <t>27 </t>
   </si>
 </sst>
 </file>
@@ -679,7 +685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -764,9 +770,22 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -809,10 +828,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -840,10 +860,15 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 16" xfId="1" xr:uid="{832DC728-AE69-A440-ACA3-486C99AB0045}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1157,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37651D-4599-2748-92D7-4C797FB0A6C3}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1440,7 +1465,7 @@
         <v>44562</v>
       </c>
       <c r="B26">
-        <v>65812849</v>
+        <v>68842785</v>
       </c>
       <c r="C26" s="17">
         <v>1383940</v>
@@ -1456,9 +1481,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975B50F9-B9F7-634D-8B29-BB68178E8695}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1482,1032 +1507,1040 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="2">
+        <v>44562</v>
+      </c>
       <c r="E2" s="7">
-        <v>3679.42</v>
+        <v>3603.71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>3177.17</v>
+      <c r="E3" s="7">
+        <v>3679.42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="7">
-        <v>3356.74</v>
+      <c r="E4" s="5">
+        <v>3177.17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6">
-        <v>44440</v>
-      </c>
-      <c r="B5" s="5">
-        <v>33</v>
-      </c>
+        <v>44470</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>3009.3</v>
+      <c r="E5" s="7">
+        <v>3356.74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B6" s="5">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>3009.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
         <v>44409</v>
-      </c>
-      <c r="B6" s="7">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7">
-        <v>37969696</v>
-      </c>
-      <c r="D6" s="7">
-        <v>201.2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3076.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8">
-        <v>44378</v>
       </c>
       <c r="B7" s="7">
         <v>34</v>
       </c>
       <c r="C7" s="7">
-        <v>36337603</v>
+        <v>37969696</v>
       </c>
       <c r="D7" s="7">
-        <v>192.33</v>
+        <v>201.2</v>
       </c>
       <c r="E7" s="7">
-        <v>2976.39</v>
+        <v>3076.56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B8" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>34734802</v>
+        <v>36337603</v>
       </c>
       <c r="D8" s="7">
-        <v>157.86000000000001</v>
+        <v>192.33</v>
       </c>
       <c r="E8" s="7">
-        <v>2576.2800000000002</v>
+        <v>2976.39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B9" s="7">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7">
+        <v>34734802</v>
+      </c>
+      <c r="D9" s="7">
+        <v>157.86000000000001</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2576.2800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
         <v>44317</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>32</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>33448613</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>116.48</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>2125.16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
         <v>44287</v>
-      </c>
-      <c r="B10" s="7">
-        <v>31</v>
-      </c>
-      <c r="C10" s="7">
-        <v>32716094</v>
-      </c>
-      <c r="D10" s="7">
-        <v>164.32</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2776.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8">
-        <v>44256</v>
       </c>
       <c r="B11" s="7">
         <v>31</v>
       </c>
       <c r="C11" s="7">
-        <v>31209935</v>
+        <v>32716094</v>
       </c>
       <c r="D11" s="7">
-        <v>193.21</v>
+        <v>164.32</v>
       </c>
       <c r="E11" s="7">
-        <v>3086.32</v>
+        <v>2776.9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B12" s="7">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7">
+        <v>31209935</v>
+      </c>
+      <c r="D12" s="7">
+        <v>193.21</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3086.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8">
         <v>44228</v>
-      </c>
-      <c r="B12" s="7">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7">
-        <v>158.96</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2556.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6">
-        <v>44197</v>
       </c>
       <c r="B13" s="7">
         <v>29</v>
       </c>
-      <c r="C13" s="7">
-        <v>24945261</v>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>148.56</v>
+        <v>158.96</v>
       </c>
       <c r="E13" s="7">
-        <v>2397.84</v>
+        <v>2556.34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B14" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>22950023</v>
+        <v>24945261</v>
       </c>
       <c r="D14" s="7">
-        <v>138.41</v>
+        <v>148.56</v>
       </c>
       <c r="E14" s="7">
-        <v>2303.79</v>
+        <v>2397.84</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6">
+        <v>44166</v>
+      </c>
+      <c r="B15" s="7">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7">
+        <v>22950023</v>
+      </c>
+      <c r="D15" s="7">
+        <v>138.41</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2303.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
         <v>44136</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>27</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>21096651</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>124.88</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>2102.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="9">
-        <v>44105</v>
-      </c>
-      <c r="B16" s="10">
-        <v>27</v>
-      </c>
-      <c r="C16" s="10">
-        <v>20206215</v>
-      </c>
-      <c r="D16" s="10">
-        <v>122.36</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2137.16</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18">
       <c r="A17" s="9">
+        <v>44105</v>
+      </c>
+      <c r="B17" s="10">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10">
+        <v>20206215</v>
+      </c>
+      <c r="D17" s="10">
+        <v>122.36</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2137.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18">
+      <c r="A18" s="9">
         <v>44075</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11">
+      <c r="B18" s="5"/>
+      <c r="C18" s="11">
         <v>19404168</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>110.08</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>1940.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18">
-      <c r="A18" s="6">
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="6">
         <v>44044</v>
-      </c>
-      <c r="B18" s="5">
-        <v>26</v>
-      </c>
-      <c r="C18" s="11">
-        <v>18695199</v>
-      </c>
-      <c r="D18" s="11">
-        <v>96.83</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1712.58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="9">
-        <v>44013</v>
       </c>
       <c r="B19" s="5">
         <v>26</v>
       </c>
       <c r="C19" s="11">
-        <v>18087896</v>
+        <v>18695199</v>
       </c>
       <c r="D19" s="11">
-        <v>86.62</v>
+        <v>96.83</v>
       </c>
       <c r="E19" s="11">
-        <v>1623.3</v>
+        <v>1712.58</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18">
       <c r="A20" s="9">
-        <v>43983</v>
-      </c>
-      <c r="B20" s="11">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="5">
         <v>26</v>
       </c>
       <c r="C20" s="11">
-        <v>17522199</v>
+        <v>18087896</v>
       </c>
       <c r="D20" s="11">
-        <v>81.92</v>
+        <v>86.62</v>
       </c>
       <c r="E20" s="11">
-        <v>1511.93</v>
+        <v>1623.3</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18">
       <c r="A21" s="9">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B21" s="11">
         <v>26</v>
       </c>
       <c r="C21" s="11">
-        <v>17023529</v>
+        <v>17522199</v>
       </c>
       <c r="D21" s="11">
-        <v>55.17</v>
+        <v>81.92</v>
       </c>
       <c r="E21" s="11">
-        <v>1142.3399999999999</v>
+        <v>1511.93</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="11">
         <v>26</v>
       </c>
       <c r="C22" s="11">
-        <v>16841414</v>
+        <v>17023529</v>
       </c>
       <c r="D22" s="11">
-        <v>10.26</v>
+        <v>55.17</v>
       </c>
       <c r="E22" s="11">
-        <v>247.58</v>
+        <v>1142.3399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18">
       <c r="A23" s="9">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B23" s="11">
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <v>16820979</v>
+        <v>16841414</v>
       </c>
       <c r="D23" s="11">
-        <v>84.55</v>
+        <v>10.26</v>
       </c>
       <c r="E23" s="11">
-        <v>1421.01</v>
+        <v>247.58</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18">
       <c r="A24" s="9">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B24" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11">
-        <v>16018822</v>
+        <v>16820979</v>
       </c>
       <c r="D24" s="11">
-        <v>110.13</v>
+        <v>84.55</v>
       </c>
       <c r="E24" s="11">
-        <v>1841.22</v>
+        <v>1421.01</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18">
       <c r="A25" s="9">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B25" s="11">
         <v>25</v>
       </c>
       <c r="C25" s="11">
-        <v>14423128</v>
+        <v>16018822</v>
       </c>
       <c r="D25" s="11">
-        <v>93.02</v>
+        <v>110.13</v>
       </c>
       <c r="E25" s="11">
-        <v>1622.68</v>
+        <v>1841.22</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18">
       <c r="A26" s="9">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B26" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="11">
-        <v>11666372</v>
+        <v>14423128</v>
       </c>
       <c r="D26" s="11">
-        <v>64.33</v>
+        <v>93.02</v>
       </c>
       <c r="E26" s="11">
-        <v>1256.8399999999999</v>
+        <v>1622.68</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18">
       <c r="A27" s="9">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B27" s="11">
         <v>24</v>
       </c>
       <c r="C27" s="11">
-        <v>7901499</v>
+        <v>11666372</v>
       </c>
       <c r="D27" s="11">
-        <v>34.92</v>
+        <v>64.33</v>
       </c>
       <c r="E27" s="11">
-        <v>773.95</v>
+        <v>1256.8399999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18">
       <c r="A28" s="9">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B28" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="11">
-        <v>6371309</v>
+        <v>7901499</v>
       </c>
       <c r="D28" s="11">
-        <v>31.46</v>
+        <v>34.92</v>
       </c>
       <c r="E28" s="11">
-        <v>702.86</v>
+        <v>773.95</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18">
       <c r="A29" s="9">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B29" s="11">
         <v>23</v>
       </c>
       <c r="C29" s="11">
-        <v>5998947</v>
+        <v>6371309</v>
       </c>
       <c r="D29" s="11">
-        <v>29.01</v>
+        <v>31.46</v>
       </c>
       <c r="E29" s="11">
-        <v>658.94</v>
+        <v>702.86</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18">
       <c r="A30" s="9">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B30" s="11">
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>5717702</v>
+        <v>5998947</v>
       </c>
       <c r="D30" s="11">
-        <v>27.78</v>
+        <v>29.01</v>
       </c>
       <c r="E30" s="11">
-        <v>610.52</v>
+        <v>658.94</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18">
       <c r="A31" s="9">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B31" s="11">
         <v>23</v>
       </c>
       <c r="C31" s="11">
-        <v>5469196</v>
+        <v>5717702</v>
       </c>
       <c r="D31" s="11">
-        <v>27.26</v>
+        <v>27.78</v>
       </c>
       <c r="E31" s="11">
-        <v>608.51</v>
+        <v>610.52</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18">
       <c r="A32" s="9">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B32" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="11">
-        <v>5222312</v>
+        <v>5469196</v>
       </c>
       <c r="D32" s="11">
-        <v>26.61</v>
+        <v>27.26</v>
       </c>
       <c r="E32" s="11">
-        <v>596.17999999999995</v>
+        <v>608.51</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18">
       <c r="A33" s="9">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B33" s="11">
         <v>22</v>
       </c>
       <c r="C33" s="11">
-        <v>5001217</v>
+        <v>5222312</v>
       </c>
       <c r="D33" s="11">
-        <v>27.52</v>
+        <v>26.61</v>
       </c>
       <c r="E33" s="11">
-        <v>616.4</v>
+        <v>596.17999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18">
       <c r="A34" s="9">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B34" s="11">
         <v>22</v>
       </c>
       <c r="C34" s="11">
-        <v>4772434</v>
+        <v>5001217</v>
       </c>
       <c r="D34" s="11">
-        <v>25.98</v>
+        <v>27.52</v>
       </c>
       <c r="E34" s="11">
-        <v>585.38</v>
+        <v>616.4</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18">
       <c r="A35" s="9">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B35" s="11">
         <v>22</v>
       </c>
       <c r="C35" s="11">
-        <v>4554913</v>
+        <v>4772434</v>
       </c>
       <c r="D35" s="11">
-        <v>26.73</v>
+        <v>25.98</v>
       </c>
       <c r="E35" s="11">
-        <v>595.78</v>
+        <v>585.38</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18">
       <c r="A36" s="9">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B36" s="11">
         <v>22</v>
       </c>
       <c r="C36" s="11">
-        <v>4315255</v>
+        <v>4554913</v>
       </c>
       <c r="D36" s="11">
-        <v>23.85</v>
+        <v>26.73</v>
       </c>
       <c r="E36" s="11">
-        <v>527.44000000000005</v>
+        <v>595.78</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18">
       <c r="A37" s="9">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B37" s="11">
         <v>22</v>
       </c>
       <c r="C37" s="11">
-        <v>4088478</v>
+        <v>4315255</v>
       </c>
       <c r="D37" s="11">
-        <v>24.52</v>
+        <v>23.85</v>
       </c>
       <c r="E37" s="11">
-        <v>535.91</v>
+        <v>527.44000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18">
       <c r="A38" s="9">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B38" s="11">
         <v>22</v>
       </c>
       <c r="C38" s="11">
-        <v>3821564</v>
+        <v>4088478</v>
       </c>
       <c r="D38" s="11">
-        <v>24.21</v>
+        <v>24.52</v>
       </c>
       <c r="E38" s="11">
-        <v>534.11</v>
+        <v>535.91</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18">
       <c r="A39" s="9">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B39" s="11">
         <v>22</v>
       </c>
       <c r="C39" s="11">
-        <v>3583989</v>
+        <v>3821564</v>
       </c>
       <c r="D39" s="11">
-        <v>21.22</v>
+        <v>24.21</v>
       </c>
       <c r="E39" s="11">
-        <v>466.83</v>
+        <v>534.11</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18">
       <c r="A40" s="9">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B40" s="11">
         <v>22</v>
       </c>
       <c r="C40" s="11">
-        <v>3349309</v>
+        <v>3583989</v>
       </c>
       <c r="D40" s="11">
-        <v>22.28</v>
+        <v>21.22</v>
       </c>
       <c r="E40" s="11">
-        <v>502.47</v>
+        <v>466.83</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18">
       <c r="A41" s="9">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B41" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="11">
-        <v>3102686</v>
+        <v>3349309</v>
       </c>
       <c r="D41" s="11">
-        <v>20.64</v>
+        <v>22.28</v>
       </c>
       <c r="E41" s="11">
-        <v>470.65</v>
+        <v>502.47</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18">
       <c r="A42" s="9">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B42" s="11">
         <v>21</v>
       </c>
       <c r="C42" s="11">
-        <v>2879997</v>
+        <v>3102686</v>
       </c>
       <c r="D42" s="11">
-        <v>20.39</v>
+        <v>20.64</v>
       </c>
       <c r="E42" s="11">
-        <v>463.88</v>
+        <v>470.65</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18">
       <c r="A43" s="9">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B43" s="11">
         <v>21</v>
       </c>
       <c r="C43" s="11">
-        <v>2638733</v>
+        <v>2879997</v>
       </c>
       <c r="D43" s="11">
-        <v>18.47</v>
+        <v>20.39</v>
       </c>
       <c r="E43" s="11">
-        <v>418.08</v>
+        <v>463.88</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18">
       <c r="A44" s="9">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B44" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="11">
-        <v>2395938</v>
+        <v>2638733</v>
       </c>
       <c r="D44" s="11">
-        <v>18.29</v>
+        <v>18.47</v>
       </c>
       <c r="E44" s="11">
-        <v>428.61</v>
+        <v>418.08</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18">
       <c r="A45" s="9">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B45" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="11">
-        <v>2138615</v>
+        <v>2395938</v>
       </c>
       <c r="D45" s="11">
-        <v>17.87</v>
+        <v>18.29</v>
       </c>
       <c r="E45" s="11">
-        <v>426.62</v>
+        <v>428.61</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18">
       <c r="A46" s="9">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B46" s="11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C46" s="11">
-        <v>1882586</v>
+        <v>2138615</v>
       </c>
       <c r="D46" s="11">
-        <v>15.88</v>
+        <v>17.87</v>
       </c>
       <c r="E46" s="11">
-        <v>390.07</v>
+        <v>426.62</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18">
       <c r="A47" s="9">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B47" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47" s="11">
-        <v>1633868</v>
+        <v>1882586</v>
       </c>
       <c r="D47" s="11">
-        <v>15.49</v>
+        <v>15.88</v>
       </c>
       <c r="E47" s="11">
-        <v>382.14</v>
+        <v>390.07</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18">
       <c r="A48" s="9">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B48" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" s="11">
-        <v>1366224</v>
+        <v>1633868</v>
       </c>
       <c r="D48" s="11">
-        <v>13.71</v>
+        <v>15.49</v>
       </c>
       <c r="E48" s="11">
-        <v>345.94</v>
+        <v>382.14</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18">
       <c r="A49" s="9">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B49" s="11">
         <v>14</v>
       </c>
       <c r="C49" s="11">
-        <v>1146807</v>
+        <v>1366224</v>
       </c>
       <c r="D49" s="11">
-        <v>12.93</v>
+        <v>13.71</v>
       </c>
       <c r="E49" s="11">
-        <v>327.76</v>
+        <v>345.94</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18">
       <c r="A50" s="9">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B50" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50" s="11">
-        <v>915205</v>
+        <v>1146807</v>
       </c>
       <c r="D50" s="11">
-        <v>12.29</v>
+        <v>12.93</v>
       </c>
       <c r="E50" s="11">
-        <v>319.82</v>
+        <v>327.76</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18">
       <c r="A51" s="9">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B51" s="11">
         <v>12</v>
       </c>
       <c r="C51" s="11">
-        <v>768923</v>
+        <v>915205</v>
       </c>
       <c r="D51" s="11">
-        <v>10.7</v>
+        <v>12.29</v>
       </c>
       <c r="E51" s="11">
-        <v>285.26</v>
+        <v>319.82</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18">
       <c r="A52" s="9">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B52" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="11">
-        <v>724407</v>
+        <v>768923</v>
       </c>
       <c r="D52" s="11">
-        <v>9.7899999999999991</v>
+        <v>10.7</v>
       </c>
       <c r="E52" s="11">
-        <v>262.62</v>
+        <v>285.26</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18">
       <c r="A53" s="9">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B53" s="11">
         <v>11</v>
       </c>
       <c r="C53" s="11">
-        <v>685420</v>
+        <v>724407</v>
       </c>
       <c r="D53" s="11">
-        <v>10.14</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="E53" s="11">
-        <v>275.14999999999998</v>
+        <v>262.62</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18">
       <c r="A54" s="9">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B54" s="11">
         <v>11</v>
       </c>
       <c r="C54" s="11">
-        <v>617623</v>
+        <v>685420</v>
       </c>
       <c r="D54" s="11">
-        <v>9.66</v>
+        <v>10.14</v>
       </c>
       <c r="E54" s="11">
-        <v>257.86</v>
+        <v>275.14999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18">
       <c r="A55" s="9">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B55" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55" s="11">
-        <v>564049</v>
+        <v>617623</v>
       </c>
       <c r="D55" s="11">
-        <v>8.64</v>
+        <v>9.66</v>
       </c>
       <c r="E55" s="11">
-        <v>234.18</v>
+        <v>257.86</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18">
       <c r="A56" s="9">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B56" s="11">
         <v>10</v>
       </c>
       <c r="C56" s="11">
-        <v>522960</v>
+        <v>564049</v>
       </c>
       <c r="D56" s="11">
-        <v>8.2100000000000009</v>
+        <v>8.64</v>
       </c>
       <c r="E56" s="11">
-        <v>225.76</v>
+        <v>234.18</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18">
       <c r="A57" s="9">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B57" s="11">
         <v>10</v>
       </c>
       <c r="C57" s="11">
-        <v>493231</v>
+        <v>522960</v>
       </c>
       <c r="D57" s="11">
-        <v>8.07</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E57" s="11">
-        <v>225.38</v>
+        <v>225.76</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18">
       <c r="A58" s="9">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B58" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C58" s="11">
-        <v>455705</v>
+        <v>493231</v>
       </c>
       <c r="D58" s="11">
-        <v>7.41</v>
+        <v>8.07</v>
       </c>
       <c r="E58" s="11">
-        <v>210.53</v>
+        <v>225.38</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18">
       <c r="A59" s="9">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B59" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" s="11">
-        <v>412497</v>
+        <v>455705</v>
       </c>
       <c r="D59" s="11">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="E59" s="11">
-        <v>209.39</v>
+        <v>210.53</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18">
       <c r="A60" s="9">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B60" s="11">
         <v>6</v>
       </c>
       <c r="C60" s="11">
-        <v>342960</v>
+        <v>412497</v>
       </c>
       <c r="D60" s="11">
-        <v>6.55</v>
+        <v>7.5</v>
       </c>
       <c r="E60" s="11">
-        <v>184.21</v>
+        <v>209.39</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18">
       <c r="A61" s="9">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B61" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="11">
-        <v>289033</v>
+        <v>342960</v>
       </c>
       <c r="D61" s="11">
-        <v>6.41</v>
+        <v>6.55</v>
       </c>
       <c r="E61" s="11">
-        <v>178.95</v>
+        <v>184.21</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18">
       <c r="A62" s="9">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B62" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" s="11">
-        <v>208761</v>
+        <v>289033</v>
       </c>
       <c r="D62" s="11">
-        <v>3.19</v>
+        <v>6.41</v>
       </c>
       <c r="E62" s="11">
-        <v>88.12</v>
+        <v>178.95</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18">
       <c r="A63" s="9">
+        <v>42705</v>
+      </c>
+      <c r="B63" s="11">
+        <v>4</v>
+      </c>
+      <c r="C63" s="11">
+        <v>208761</v>
+      </c>
+      <c r="D63" s="11">
+        <v>3.19</v>
+      </c>
+      <c r="E63" s="11">
+        <v>88.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18">
+      <c r="A64" s="9">
         <v>42675</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B64" s="11">
         <v>3</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C64" s="11">
         <v>107801</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E64" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2518,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE768D-FDEC-414C-B856-7F93E0E94CC0}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2796,6 +2829,14 @@
       </c>
       <c r="B34" s="5">
         <v>18434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B35" s="25">
+        <v>17614</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2850,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3992,8 +4033,8 @@
       <c r="G34" s="19">
         <v>62930</v>
       </c>
-      <c r="H34" s="19">
-        <v>3749330</v>
+      <c r="H34" s="17">
+        <v>3870750</v>
       </c>
       <c r="I34" s="19">
         <v>4464510</v>
@@ -4009,9 +4050,15 @@
       <c r="A35" s="2">
         <v>44562</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="17">
+        <v>9812</v>
+      </c>
+      <c r="C35" s="17">
+        <v>9653</v>
+      </c>
+      <c r="D35" s="17">
+        <v>129010</v>
+      </c>
       <c r="E35" s="17">
         <v>52002.5</v>
       </c>
@@ -4031,11 +4078,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885F84EB-1F73-1245-BB50-FDD52D41BDBE}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4733,6 +4780,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B64">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="C64">
+        <v>8.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4740,10 +4798,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC45300-6A73-FD40-9CA1-0A8697567D0E}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5767,6 +5825,14 @@
         <v>45425340</v>
       </c>
     </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="3">
+        <v>44596</v>
+      </c>
+      <c r="B128" s="17">
+        <v>45444630</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5774,10 +5840,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5353B576-38C4-E445-9E6D-988228532D05}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
@@ -6817,6 +6883,17 @@
         <v>8.02</v>
       </c>
     </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="26">
+        <v>44589</v>
+      </c>
+      <c r="B95">
+        <v>8.31</v>
+      </c>
+      <c r="C95">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6824,13 +6901,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0D774-4FB9-484A-8B9C-C85D078E33FB}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -6844,1283 +6923,1299 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18">
+    <row r="2" spans="1:17" ht="18">
       <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="20">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D2" s="20">
-        <v>9165</v>
+        <v>9693</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F2" s="20">
         <v>129</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:18" ht="18">
+    </row>
+    <row r="3" spans="1:17" ht="18">
       <c r="A3" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="20">
-        <v>88364</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>135</v>
+        <v>32413</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="20">
-        <v>2130162</v>
+        <v>2264032</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="20">
-        <v>14594</v>
+        <v>14688</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="H3" s="22"/>
-      <c r="I3" s="20"/>
+      <c r="I3" s="22">
+        <v>5</v>
+      </c>
       <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22">
+      <c r="Q3" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18">
+    <row r="4" spans="1:17" ht="18">
       <c r="A4" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="20">
-        <v>1985</v>
+        <v>850</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="20">
-        <v>58524</v>
+        <v>62796</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="20">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
       <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="1:18" ht="18">
+    </row>
+    <row r="5" spans="1:17" ht="18">
       <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="20">
-        <v>13289</v>
+        <v>5263</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="20">
+        <v>711385</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="20">
+        <v>6596</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18">
+      <c r="A6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1421</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="20">
-        <v>677128</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D6" s="20">
+        <v>814917</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="20">
-        <v>6422</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="18">
-      <c r="A6" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="20">
-        <v>3238</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="20">
-        <v>801885</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>142</v>
-      </c>
       <c r="F6" s="20">
-        <v>12217</v>
+        <v>12246</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
       <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22">
+      <c r="Q6" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18">
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="20">
-        <v>2099</v>
+        <v>728</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="20">
+        <v>89332</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1149</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
+        <v>3</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18">
+      <c r="A8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="20">
+        <v>8464</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="20">
-        <v>83769</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D8" s="20">
+        <v>1122488</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="20">
-        <v>1115</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="18">
-      <c r="A8" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="20">
-        <v>18686</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="F8" s="20">
+        <v>13988</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
+        <v>10</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18">
+      <c r="A9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="20">
+        <v>28</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="20">
-        <v>1081858</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D9" s="20">
+        <v>11385</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="F8" s="20">
-        <v>13824</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="18">
-      <c r="A9" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="20">
-        <v>107</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="20">
-        <v>11170</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="F9" s="20">
         <v>4</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="1:18" ht="18">
+    </row>
+    <row r="10" spans="1:17" ht="18">
       <c r="A10" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="20">
+        <v>4812</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1818737</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="20">
+        <v>26047</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22">
+        <v>12</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18">
+      <c r="A11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2804</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="20">
+        <v>237312</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="20">
+        <v>3768</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
+        <v>4</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18">
+      <c r="A12" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="20">
-        <v>11716</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1773218</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="20">
-        <v>25797</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="B12" s="20">
+        <v>18301</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18">
-      <c r="A11" s="20" t="s">
+      <c r="D12" s="20">
+        <v>1183294</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="20">
+        <v>10775</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22">
+        <v>14</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18">
+      <c r="A13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="20">
-        <v>5968</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="20">
-        <v>223484</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="20">
-        <v>3675</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="B13" s="20">
+        <v>7039</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22">
+      <c r="D13" s="20">
+        <v>954000</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="20">
+        <v>10472</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="18">
-      <c r="A12" s="20" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18">
+      <c r="A14" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="20">
-        <v>57521</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1036156</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="B14" s="20">
+        <v>4132</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="20">
-        <v>10408</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="18">
-      <c r="A13" s="20" t="s">
+      <c r="D14" s="20">
+        <v>271489</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4076</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
+        <v>9</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18">
+      <c r="A15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="20">
-        <v>16877</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="20">
-        <v>901562</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="20">
-        <v>10269</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18">
-      <c r="A14" s="20" t="s">
+      <c r="B15" s="20">
+        <v>7424</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="20">
+        <v>437708</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="20">
+        <v>4741</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18">
+      <c r="A16" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="20">
-        <v>7539</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="20">
-        <v>255852</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="20">
-        <v>3986</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="18">
-      <c r="A15" s="20" t="s">
+      <c r="B16" s="20">
+        <v>1968</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="20">
+        <v>425672</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="20">
+        <v>5314</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="1:17" ht="18">
+      <c r="A17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="20">
-        <v>24080</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="20">
-        <v>381389</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="20">
-        <v>4652</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="18">
-      <c r="A16" s="20" t="s">
+      <c r="B17" s="20">
+        <v>44605</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3836915</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="20">
+        <v>39575</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22">
+        <v>41</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18">
+      <c r="A18" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="20">
+        <v>206180</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="20">
+        <v>6113257</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="20">
+        <v>61626</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="22">
+        <v>251</v>
+      </c>
+      <c r="I18" s="22">
+        <v>492</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22">
+        <v>370</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18">
+      <c r="A19" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="20">
-        <v>3055</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="20">
-        <v>414136</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="20">
-        <v>5300</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-    </row>
-    <row r="17" spans="1:18" ht="18">
-      <c r="A17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="20">
-        <v>123131</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="20">
-        <v>3465995</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="20">
-        <v>38874</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="18">
-      <c r="A18" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="20">
-        <v>366871</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="20">
-        <v>5541834</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="20">
-        <v>53191</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="B19" s="20">
+        <v>583</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="22">
-        <v>311</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22">
-        <v>370</v>
-      </c>
-      <c r="R18" s="22">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="18">
-      <c r="A19" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1079</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="D19" s="20">
-        <v>24278</v>
+        <v>26530</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>171</v>
       </c>
       <c r="F19" s="20">
-        <v>224</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>79</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G19" s="20"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-    </row>
-    <row r="20" spans="1:18" ht="18">
+    </row>
+    <row r="20" spans="1:17" ht="18">
       <c r="A20" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="20">
-        <v>188</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="D20" s="20">
-        <v>10687</v>
+        <v>11145</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F20" s="20">
         <v>52</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-    </row>
-    <row r="21" spans="1:18" ht="18">
+    </row>
+    <row r="21" spans="1:17" ht="18">
       <c r="A21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="20">
+        <v>26179</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="20">
+        <v>984500</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="20">
+        <v>10682</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
+        <v>3</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18">
+      <c r="A22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="20">
+        <v>64865</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="20">
+        <v>7626868</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="20">
+        <v>143355</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22">
+        <v>63</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18">
+      <c r="A23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="20">
-        <v>51019</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="20">
-        <v>873485</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="20">
-        <v>10607</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22">
+      <c r="B23" s="20">
+        <v>2345</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="20">
+        <v>131216</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2077</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22">
+        <v>2</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18">
+      <c r="A24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="20">
+        <v>928</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="20">
+        <v>90360</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1559</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22">
+        <v>1</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18">
+      <c r="A25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="20">
+        <v>12623</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="20">
+        <v>181931</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="20">
+        <v>635</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22">
+        <v>2</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18">
+      <c r="A26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="20">
+        <v>509</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="20">
+        <v>33858</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="20">
+        <v>750</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18">
+      <c r="A27" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="20">
+        <v>11823</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1253914</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="20">
+        <v>8838</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22">
+        <v>20</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18">
+      <c r="A28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1993</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="20">
+        <v>161121</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1957</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22">
+        <v>1</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18">
+      <c r="A29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="20">
+        <v>4946</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="20">
+        <v>732291</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="20">
+        <v>17575</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22">
+        <v>21</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18">
+      <c r="A30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="20">
+        <v>25779</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1225773</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="20">
+        <v>9448</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="18">
-      <c r="A22" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="20">
-        <v>147941</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="20">
-        <v>7292791</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="20">
-        <v>142522</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="18">
-      <c r="A23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="20">
-        <v>3893</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="20">
-        <v>126609</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="20">
-        <v>2038</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="18">
-      <c r="A24" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1839</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="20">
-        <v>86585</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="20">
-        <v>1518</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="18">
-      <c r="A25" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="20">
-        <v>14999</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="20">
-        <v>156274</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="20">
-        <v>601</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="18">
-      <c r="A26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="20">
-        <v>787</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="20">
-        <v>32654</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="20">
-        <v>715</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="18">
-      <c r="A27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="20">
-        <v>24437</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="20">
-        <v>1184174</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" s="20">
-        <v>8575</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="18">
-      <c r="A28" s="20" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18">
+      <c r="A31" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="20">
-        <v>5458</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="20">
-        <v>145359</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1923</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="18">
-      <c r="A29" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="20">
-        <v>14321</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="20">
-        <v>691749</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="20">
-        <v>17190</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="18">
-      <c r="A30" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="20">
-        <v>54869</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="20">
-        <v>1105918</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="20">
-        <v>9224</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="18">
-      <c r="A31" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="B31" s="20">
-        <v>655</v>
+        <v>499</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D31" s="20">
-        <v>36229</v>
+        <v>37960</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="F31" s="20">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="22"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22">
+      <c r="Q31" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18">
+    <row r="32" spans="1:17" ht="18">
       <c r="A32" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="20">
+        <v>56002</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3337265</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="20">
+        <v>37887</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22">
+        <v>25</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="18">
+      <c r="A33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="20">
+        <v>15636</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="20">
+        <v>762594</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="20">
+        <v>4106</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22">
+        <v>1</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="18">
+      <c r="A34" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="20">
+        <v>256</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="20">
+        <v>99603</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="20">
+        <v>919</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18">
+      <c r="A35" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="20">
-        <v>155329</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="20">
-        <v>3057846</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="20">
-        <v>37506</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="18">
-      <c r="A33" s="20" t="s">
+      <c r="B35" s="20">
+        <v>7993</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="20">
+        <v>417238</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="20">
+        <v>7643</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22">
+        <v>8</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18">
+      <c r="A36" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="20">
-        <v>30931</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="20">
-        <v>714034</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="20">
-        <v>4085</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="18">
-      <c r="A34" s="20" t="s">
+      <c r="B36" s="20">
+        <v>16640</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="20">
+        <v>2014973</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="20">
+        <v>23382</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22">
+        <v>10</v>
+      </c>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="18">
+      <c r="A37" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="20">
-        <v>1184</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="20">
-        <v>94117</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="20">
-        <v>895</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="18">
-      <c r="A35" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="20">
-        <v>21358</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="20">
-        <v>379227</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" s="20">
-        <v>7531</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="18">
-      <c r="A36" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="20">
-        <v>36411</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="20">
-        <v>1922480</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="20">
-        <v>23164</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="18">
-      <c r="A37" s="20" t="s">
-        <v>110</v>
-      </c>
       <c r="B37" s="20">
-        <v>20213</v>
+        <v>14184</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D37" s="20">
-        <v>1931711</v>
+        <v>1974568</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F37" s="20">
-        <v>20550</v>
+        <v>20965</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="H37" s="22"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="22">
+        <v>27</v>
+      </c>
       <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22">
+      <c r="Q37" s="22">
         <v>35</v>
       </c>
     </row>
@@ -8141,36 +8236,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>417036</v>
       </c>
       <c r="C2">
-        <v>327514</v>
+        <v>328101</v>
       </c>
       <c r="D2">
-        <v>310883</v>
+        <v>317705</v>
       </c>
       <c r="E2">
-        <v>6256</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8181,13 +8276,13 @@
         <v>53903393</v>
       </c>
       <c r="C3">
-        <v>42919895</v>
+        <v>42987276</v>
       </c>
       <c r="D3">
-        <v>37821060</v>
+        <v>39046100</v>
       </c>
       <c r="E3">
-        <v>1034645</v>
+        <v>1179720</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8198,13 +8293,13 @@
         <v>1570458</v>
       </c>
       <c r="C4">
-        <v>879031</v>
+        <v>882541</v>
       </c>
       <c r="D4">
-        <v>688285</v>
+        <v>698240</v>
       </c>
       <c r="E4">
-        <v>18575</v>
+        <v>20844</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8215,30 +8310,30 @@
         <v>35607039</v>
       </c>
       <c r="C5">
-        <v>23216107</v>
+        <v>23294377</v>
       </c>
       <c r="D5">
-        <v>18349553</v>
+        <v>18969683</v>
       </c>
       <c r="E5">
-        <v>186055</v>
+        <v>216023</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>124799926</v>
       </c>
       <c r="C6">
-        <v>64934354</v>
+        <v>65512940</v>
       </c>
       <c r="D6">
-        <v>48397823</v>
+        <v>50002648</v>
       </c>
       <c r="E6">
-        <v>568944</v>
+        <v>646368</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8249,506 +8344,506 @@
         <v>1158473</v>
       </c>
       <c r="C7">
-        <v>1114840</v>
+        <v>1119409</v>
       </c>
       <c r="D7">
-        <v>854715</v>
+        <v>868866</v>
       </c>
       <c r="E7">
-        <v>18474</v>
+        <v>21622</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>29436231</v>
       </c>
       <c r="C8">
-        <v>19399199</v>
+        <v>19503320</v>
       </c>
       <c r="D8">
-        <v>14891768</v>
+        <v>15659209</v>
       </c>
       <c r="E8">
-        <v>282495</v>
+        <v>323016</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>18710922</v>
       </c>
       <c r="C9">
-        <v>17071487</v>
+        <v>17178454</v>
       </c>
       <c r="D9">
-        <v>12542612</v>
+        <v>12972907</v>
       </c>
       <c r="E9">
-        <v>316295</v>
+        <v>362003</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>1586250</v>
       </c>
       <c r="C10">
-        <v>1385954</v>
+        <v>1389299</v>
       </c>
       <c r="D10">
-        <v>1196339</v>
+        <v>1212390</v>
       </c>
       <c r="E10">
-        <v>23579</v>
+        <v>28461</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>63872399</v>
       </c>
       <c r="C11">
-        <v>51457217</v>
+        <v>51711233</v>
       </c>
       <c r="D11">
-        <v>46481835</v>
+        <v>47422089</v>
       </c>
       <c r="E11">
-        <v>1547706</v>
+        <v>1780934</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>28204692</v>
       </c>
       <c r="C12">
-        <v>22587360</v>
+        <v>22723140</v>
       </c>
       <c r="D12">
-        <v>16916291</v>
+        <v>17406839</v>
       </c>
       <c r="E12">
-        <v>166108</v>
+        <v>201801</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>7451955</v>
       </c>
       <c r="C13">
-        <v>6291905</v>
+        <v>6307963</v>
       </c>
       <c r="D13">
-        <v>5711977</v>
+        <v>5856645</v>
       </c>
       <c r="E13">
-        <v>112949</v>
+        <v>139889</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>13606320</v>
       </c>
       <c r="C14">
-        <v>10550735</v>
+        <v>10668849</v>
       </c>
       <c r="D14">
-        <v>9959629</v>
+        <v>10178300</v>
       </c>
       <c r="E14">
-        <v>206781</v>
+        <v>240749</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>38593948</v>
       </c>
       <c r="C15">
-        <v>21728166</v>
+        <v>21927508</v>
       </c>
       <c r="D15">
-        <v>13189913</v>
+        <v>13621608</v>
       </c>
       <c r="E15">
-        <v>166944</v>
+        <v>191934</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>67562686</v>
       </c>
       <c r="C16">
-        <v>51839155</v>
+        <v>51957526</v>
       </c>
       <c r="D16">
-        <v>44317357</v>
+        <v>45277642</v>
       </c>
       <c r="E16">
-        <v>874829</v>
+        <v>1012624</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>35699443</v>
       </c>
       <c r="C17">
-        <v>27952315</v>
+        <v>28015384</v>
       </c>
       <c r="D17">
-        <v>22691380</v>
+        <v>23030291</v>
       </c>
       <c r="E17">
-        <v>682798</v>
+        <v>811756</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>299000</v>
       </c>
       <c r="C18">
-        <v>226038</v>
+        <v>226574</v>
       </c>
       <c r="D18">
-        <v>179588</v>
+        <v>184472</v>
       </c>
       <c r="E18">
-        <v>21017</v>
+        <v>24218</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>289023</v>
       </c>
       <c r="C19">
-        <v>59395</v>
+        <v>59458</v>
       </c>
       <c r="D19">
-        <v>54118</v>
+        <v>55761</v>
       </c>
       <c r="E19">
-        <v>2050</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>85358965</v>
       </c>
       <c r="C20">
-        <v>57557978</v>
+        <v>57790730</v>
       </c>
       <c r="D20">
-        <v>52336756</v>
+        <v>53588068</v>
       </c>
       <c r="E20">
-        <v>754574</v>
+        <v>825805</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>123144223</v>
       </c>
       <c r="C21">
-        <v>86563476</v>
+        <v>86902472</v>
       </c>
       <c r="D21">
-        <v>62227050</v>
+        <v>63921140</v>
       </c>
       <c r="E21">
-        <v>1078864</v>
+        <v>1307098</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>3091545</v>
       </c>
       <c r="C22">
-        <v>1454298</v>
+        <v>1484063</v>
       </c>
       <c r="D22">
-        <v>1069745</v>
+        <v>1095112</v>
       </c>
       <c r="E22">
-        <v>38461</v>
+        <v>49382</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>3366710</v>
       </c>
       <c r="C23">
-        <v>1343786</v>
+        <v>1349863</v>
       </c>
       <c r="D23">
-        <v>937322</v>
+        <v>945258</v>
       </c>
       <c r="E23">
-        <v>21246</v>
+        <v>23739</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>1239244</v>
       </c>
       <c r="C24">
-        <v>812929</v>
+        <v>817533</v>
       </c>
       <c r="D24">
-        <v>614818</v>
+        <v>629364</v>
       </c>
       <c r="E24">
-        <v>19950</v>
+        <v>22212</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>2249695</v>
       </c>
       <c r="C25">
-        <v>851199</v>
+        <v>859248</v>
       </c>
       <c r="D25">
-        <v>614695</v>
+        <v>620933</v>
       </c>
       <c r="E25">
-        <v>14388</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>46356334</v>
       </c>
       <c r="C26">
-        <v>32220970</v>
+        <v>32456931</v>
       </c>
       <c r="D26">
-        <v>25127060</v>
+        <v>26034432</v>
       </c>
       <c r="E26">
-        <v>597003</v>
+        <v>719200</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>1413542</v>
       </c>
       <c r="C27">
-        <v>923956</v>
+        <v>926275</v>
       </c>
       <c r="D27">
-        <v>609781</v>
+        <v>618696</v>
       </c>
       <c r="E27">
-        <v>9302</v>
+        <v>11046</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>30141373</v>
       </c>
       <c r="C28">
-        <v>20534473</v>
+        <v>21716225</v>
       </c>
       <c r="D28">
-        <v>14175277</v>
+        <v>15241638</v>
       </c>
       <c r="E28">
-        <v>256554</v>
+        <v>336113</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>81032689</v>
       </c>
       <c r="C29">
-        <v>52895392</v>
+        <v>53285669</v>
       </c>
       <c r="D29">
-        <v>40862781</v>
+        <v>42286081</v>
       </c>
       <c r="E29">
-        <v>1002059</v>
+        <v>1128124</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>690251</v>
       </c>
       <c r="C30">
-        <v>560835</v>
+        <v>561802</v>
       </c>
       <c r="D30">
-        <v>496693</v>
+        <v>504354</v>
       </c>
       <c r="E30">
-        <v>19403</v>
+        <v>25419</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>77841267</v>
       </c>
       <c r="C31">
-        <v>54884342</v>
+        <v>55334111</v>
       </c>
       <c r="D31">
-        <v>39754344</v>
+        <v>40862085</v>
       </c>
       <c r="E31">
-        <v>425587</v>
+        <v>508667</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>38510982</v>
       </c>
       <c r="C32">
-        <v>30432825</v>
+        <v>30662177</v>
       </c>
       <c r="D32">
-        <v>24356752</v>
+        <v>25523714</v>
       </c>
       <c r="E32">
-        <v>318152</v>
+        <v>391227</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33">
         <v>4169794</v>
       </c>
       <c r="C33">
-        <v>2752953</v>
+        <v>2759043</v>
       </c>
       <c r="D33">
-        <v>2201019</v>
+        <v>2240089</v>
       </c>
       <c r="E33">
-        <v>50008</v>
+        <v>57352</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34">
         <v>237882725</v>
       </c>
       <c r="C34">
-        <v>159661228</v>
+        <v>162353768</v>
       </c>
       <c r="D34">
-        <v>106660826</v>
+        <v>111812553</v>
       </c>
       <c r="E34">
-        <v>1679419</v>
+        <v>1977531</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B35">
         <v>11250858</v>
       </c>
       <c r="C35">
-        <v>8499448</v>
+        <v>8539278</v>
       </c>
       <c r="D35">
-        <v>7599656</v>
+        <v>7769207</v>
       </c>
       <c r="E35">
-        <v>296470</v>
+        <v>355345</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>99609303</v>
       </c>
       <c r="C36">
-        <v>69511846</v>
+        <v>69746522</v>
       </c>
       <c r="D36">
-        <v>53003092</v>
+        <v>55772551</v>
       </c>
       <c r="E36">
-        <v>1104107</v>
+        <v>1393940</v>
       </c>
     </row>
   </sheetData>
@@ -8772,94 +8867,94 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20">
       <c r="A2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="25">
-        <v>10397320</v>
-      </c>
-      <c r="C2" s="25">
-        <v>9895501</v>
-      </c>
-      <c r="D2" s="25">
-        <v>3609410</v>
+        <v>122</v>
+      </c>
+      <c r="B2" s="27">
+        <v>10399379</v>
+      </c>
+      <c r="C2" s="27">
+        <v>9930159</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3876145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20">
       <c r="A3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="25">
-        <v>18400586</v>
-      </c>
-      <c r="C3" s="25">
-        <v>17303841</v>
-      </c>
-      <c r="D3" s="25">
-        <v>17303841</v>
+        <v>123</v>
+      </c>
+      <c r="B3" s="27">
+        <v>18405049</v>
+      </c>
+      <c r="C3" s="27">
+        <v>17373764</v>
+      </c>
+      <c r="D3" s="27">
+        <v>5344760</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="25">
-        <v>48844872</v>
-      </c>
-      <c r="C4" s="25">
-        <v>4580539</v>
+        <v>124</v>
+      </c>
+      <c r="B4" s="27">
+        <v>51987388</v>
+      </c>
+      <c r="C4" s="27">
+        <v>14694234</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="20">
       <c r="A5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="25">
-        <v>544058916</v>
-      </c>
-      <c r="C5" s="25">
-        <v>414088065</v>
+        <v>125</v>
+      </c>
+      <c r="B5" s="27">
+        <v>547971374</v>
+      </c>
+      <c r="C5" s="27">
+        <v>426140948</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="20">
       <c r="A6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="25">
-        <v>200849691</v>
-      </c>
-      <c r="C6" s="25">
-        <v>173580375</v>
+        <v>126</v>
+      </c>
+      <c r="B6" s="27">
+        <v>201603878</v>
+      </c>
+      <c r="C6" s="27">
+        <v>176224094</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="20">
       <c r="A7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="25">
-        <v>125277682</v>
-      </c>
-      <c r="C7" s="25">
-        <v>108141859</v>
-      </c>
-      <c r="D7" s="25">
-        <v>6192772</v>
+        <v>127</v>
+      </c>
+      <c r="B7" s="27">
+        <v>125869357</v>
+      </c>
+      <c r="C7" s="27">
+        <v>109792049</v>
+      </c>
+      <c r="D7" s="27">
+        <v>7981961</v>
       </c>
     </row>
   </sheetData>
@@ -8869,10 +8964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA94CA-D9DE-B548-8735-C3641B00F463}">
-  <dimension ref="A1:S310"/>
+  <dimension ref="A1:S317"/>
   <sheetViews>
-    <sheetView topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27167,6 +27262,419 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="311" spans="1:19">
+      <c r="A311" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B311" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C311" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D311" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E311" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F311" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G311" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H311" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I311" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J311" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K311" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L311" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M311" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N311" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O311" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P311" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q311" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R311" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S311" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19">
+      <c r="A312" s="3">
+        <v>44599</v>
+      </c>
+      <c r="B312" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C312" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D312" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E312" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F312" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G312" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H312" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I312" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J312" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K312" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L312" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M312" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N312" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O312" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P312" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q312" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R312" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S312" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19">
+      <c r="A313" s="3">
+        <v>44600</v>
+      </c>
+      <c r="B313" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C313" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D313" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E313" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F313" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G313" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H313" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I313" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J313" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K313" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L313" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M313" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N313" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O313" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P313" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q313" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R313" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S313" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19">
+      <c r="A314" s="3">
+        <v>44601</v>
+      </c>
+      <c r="B314" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C314" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D314" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E314" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F314" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G314" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H314" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I314" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J314" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K314" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L314" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M314" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N314" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O314" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P314" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q314" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R314" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S314" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19">
+      <c r="A315" s="3">
+        <v>44602</v>
+      </c>
+      <c r="B315" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C315" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D315" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E315" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F315" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G315" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H315" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I315" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J315" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K315" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L315" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M315" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N315" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O315" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P315" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q315" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R315" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S315" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19">
+      <c r="A316" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B316" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C316" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D316" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E316" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F316" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G316" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H316" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I316" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J316" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K316" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L316" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M316" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N316" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O316" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P316" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q316" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R316" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S316" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19">
+      <c r="A317" s="3">
+        <v>44604</v>
+      </c>
+      <c r="B317" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C317" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D317" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E317" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F317" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G317" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H317" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I317" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J317" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K317" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L317" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M317" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N317" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O317" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P317" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q317" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R317" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S317" s="17">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27174,10 +27682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A5412-72F4-CA4E-9682-44F6B6C554A4}">
-  <dimension ref="A1:B1132"/>
+  <dimension ref="A1:B1139"/>
   <sheetViews>
-    <sheetView topLeftCell="A1116" workbookViewId="0">
-      <selection activeCell="A1132" sqref="A1132"/>
+    <sheetView topLeftCell="A1125" workbookViewId="0">
+      <selection activeCell="A1139" sqref="A1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36238,6 +36746,62 @@
         <v>3827</v>
       </c>
     </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="4">
+        <v>44597</v>
+      </c>
+      <c r="B1133">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="4">
+        <v>44598</v>
+      </c>
+      <c r="B1134">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="4">
+        <v>44599</v>
+      </c>
+      <c r="B1135">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" s="4">
+        <v>44600</v>
+      </c>
+      <c r="B1136">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="4">
+        <v>44601</v>
+      </c>
+      <c r="B1137">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="4">
+        <v>44602</v>
+      </c>
+      <c r="B1138">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="4">
+        <v>44603</v>
+      </c>
+      <c r="B1139">
+        <v>3893</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36245,10 +36809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E43D3-B2B8-4440-9DFA-30FE18FECCE6}">
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
-    <sheetView topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="A615" sqref="A615"/>
+    <sheetView topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="A613" sqref="A613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -41173,6 +41737,62 @@
         <v>32036.03</v>
       </c>
     </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="4">
+        <v>44597</v>
+      </c>
+      <c r="B616" s="18">
+        <v>31339.7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="4">
+        <v>44598</v>
+      </c>
+      <c r="B617" s="18">
+        <v>23445.48</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="4">
+        <v>44599</v>
+      </c>
+      <c r="B618" s="18">
+        <v>33670.85</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="4">
+        <v>44600</v>
+      </c>
+      <c r="B619" s="18">
+        <v>32682.18</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="4">
+        <v>44601</v>
+      </c>
+      <c r="B620" s="18">
+        <v>32468.47</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="4">
+        <v>44602</v>
+      </c>
+      <c r="B621" s="18">
+        <v>31703.55</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="4">
+        <v>44603</v>
+      </c>
+      <c r="B622" s="18">
+        <v>30697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41180,10 +41800,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D064278-E4AD-8149-B400-6EAC50E0DC3D}">
-  <dimension ref="A1:B538"/>
+  <dimension ref="A1:B545"/>
   <sheetViews>
-    <sheetView topLeftCell="A520" zoomScale="162" workbookViewId="0">
-      <selection activeCell="A530" sqref="A530"/>
+    <sheetView topLeftCell="A536" zoomScale="162" workbookViewId="0">
+      <selection activeCell="B542" sqref="B542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -45492,6 +46112,62 @@
         <v>6.72</v>
       </c>
     </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B539">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="3">
+        <v>44598</v>
+      </c>
+      <c r="B540">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="3">
+        <v>44599</v>
+      </c>
+      <c r="B541">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="3">
+        <v>44600</v>
+      </c>
+      <c r="B542">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="3">
+        <v>44601</v>
+      </c>
+      <c r="B543">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="3">
+        <v>44602</v>
+      </c>
+      <c r="B544">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B545">
+        <v>7.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45499,10 +46175,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE529FD-4597-F641-B496-01BE3204D79B}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -47406,6 +48082,17 @@
         <v>39.33</v>
       </c>
     </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="4">
+        <v>44598</v>
+      </c>
+      <c r="B124">
+        <v>10.06</v>
+      </c>
+      <c r="E124">
+        <v>40.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47413,10 +48100,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DA751-8DDE-2444-A8CE-DEF963043B5D}">
-  <dimension ref="A1:J368"/>
+  <dimension ref="A1:J375"/>
   <sheetViews>
-    <sheetView topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363"/>
+    <sheetView topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="A374" sqref="A374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -59194,6 +59881,230 @@
         <v>52.63</v>
       </c>
       <c r="J368">
+        <v>66.27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="A369" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B369">
+        <v>60.82</v>
+      </c>
+      <c r="C369">
+        <v>52.5</v>
+      </c>
+      <c r="D369">
+        <v>65.33</v>
+      </c>
+      <c r="E369">
+        <v>59.28</v>
+      </c>
+      <c r="F369">
+        <v>51.88</v>
+      </c>
+      <c r="G369">
+        <v>63.38</v>
+      </c>
+      <c r="H369">
+        <v>61.81</v>
+      </c>
+      <c r="I369">
+        <v>52.91</v>
+      </c>
+      <c r="J369">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="A370" s="3">
+        <v>44598</v>
+      </c>
+      <c r="B370">
+        <v>60.82</v>
+      </c>
+      <c r="C370">
+        <v>52.33</v>
+      </c>
+      <c r="D370">
+        <v>65.33</v>
+      </c>
+      <c r="E370">
+        <v>59.28</v>
+      </c>
+      <c r="F370">
+        <v>51.46</v>
+      </c>
+      <c r="G370">
+        <v>63.38</v>
+      </c>
+      <c r="H370">
+        <v>61.81</v>
+      </c>
+      <c r="I370">
+        <v>52.91</v>
+      </c>
+      <c r="J370">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="A371" s="3">
+        <v>44599</v>
+      </c>
+      <c r="B371">
+        <v>60.64</v>
+      </c>
+      <c r="C371">
+        <v>52</v>
+      </c>
+      <c r="D371">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="E371">
+        <v>59.28</v>
+      </c>
+      <c r="F371">
+        <v>51.46</v>
+      </c>
+      <c r="G371">
+        <v>63.38</v>
+      </c>
+      <c r="H371">
+        <v>61.52</v>
+      </c>
+      <c r="I371">
+        <v>52.35</v>
+      </c>
+      <c r="J371">
+        <v>65.97</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
+      <c r="A372" s="3">
+        <v>44600</v>
+      </c>
+      <c r="B372">
+        <v>60.64</v>
+      </c>
+      <c r="C372">
+        <v>52</v>
+      </c>
+      <c r="D372">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="E372">
+        <v>59.28</v>
+      </c>
+      <c r="F372">
+        <v>51.46</v>
+      </c>
+      <c r="G372">
+        <v>63.38</v>
+      </c>
+      <c r="H372">
+        <v>61.52</v>
+      </c>
+      <c r="I372">
+        <v>52.35</v>
+      </c>
+      <c r="J372">
+        <v>65.97</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="A373" s="3">
+        <v>44601</v>
+      </c>
+      <c r="B373">
+        <v>60.28</v>
+      </c>
+      <c r="C373">
+        <v>52</v>
+      </c>
+      <c r="D373">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="E373">
+        <v>58.82</v>
+      </c>
+      <c r="F373">
+        <v>51.46</v>
+      </c>
+      <c r="G373">
+        <v>63.38</v>
+      </c>
+      <c r="H373">
+        <v>61.22</v>
+      </c>
+      <c r="I373">
+        <v>52.35</v>
+      </c>
+      <c r="J373">
+        <v>65.37</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="A374" s="3">
+        <v>44602</v>
+      </c>
+      <c r="B374">
+        <v>60.28</v>
+      </c>
+      <c r="C374">
+        <v>52</v>
+      </c>
+      <c r="D374">
+        <v>64.78</v>
+      </c>
+      <c r="E374">
+        <v>59.28</v>
+      </c>
+      <c r="F374">
+        <v>51.46</v>
+      </c>
+      <c r="G374">
+        <v>63.38</v>
+      </c>
+      <c r="H374">
+        <v>60.93</v>
+      </c>
+      <c r="I374">
+        <v>52.35</v>
+      </c>
+      <c r="J374">
+        <v>65.67</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="A375" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B375">
+        <v>60.64</v>
+      </c>
+      <c r="C375">
+        <v>51.83</v>
+      </c>
+      <c r="D375">
+        <v>65.33</v>
+      </c>
+      <c r="E375">
+        <v>59.28</v>
+      </c>
+      <c r="F375">
+        <v>51.46</v>
+      </c>
+      <c r="G375">
+        <v>63.85</v>
+      </c>
+      <c r="H375">
+        <v>61.52</v>
+      </c>
+      <c r="I375">
+        <v>52.08</v>
+      </c>
+      <c r="J375">
         <v>66.27</v>
       </c>
     </row>
@@ -59206,8 +60117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8730D1-B073-F949-92E6-FAE69CFEA773}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -60201,10 +61112,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFAB418-80AA-504F-AAFE-ECE862BB3CFF}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -61284,6 +62195,20 @@
         <v>1451712</v>
       </c>
     </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B78" s="17">
+        <v>1444456</v>
+      </c>
+      <c r="C78" s="17">
+        <v>118849</v>
+      </c>
+      <c r="D78" s="17">
+        <v>1325607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Manual/input-data.xlsx
+++ b/Manual/input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker-git/nimf-tracker/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259786E-2212-424C-94C2-D3F5BB385437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109C2AA3-8173-6C47-9D86-CEF5A7AAD63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="6840" windowWidth="17060" windowHeight="9960" firstSheet="4" activeTab="6" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
+    <workbookView xWindow="34140" yWindow="10460" windowWidth="17060" windowHeight="9960" firstSheet="13" activeTab="19" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
   </bookViews>
   <sheets>
     <sheet name="gst-eway" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="210">
   <si>
     <t>e-Way</t>
   </si>
@@ -443,199 +443,19 @@
     <t>7 </t>
   </si>
   <si>
-    <t>11 </t>
-  </si>
-  <si>
     <t>9 </t>
-  </si>
-  <si>
-    <t>1088 </t>
   </si>
   <si>
     <t>Kerala***</t>
   </si>
   <si>
-    <t>87 </t>
-  </si>
-  <si>
-    <t>23 </t>
-  </si>
-  <si>
-    <t>158 </t>
-  </si>
-  <si>
-    <t>20 </t>
-  </si>
-  <si>
-    <t>21 </t>
-  </si>
-  <si>
-    <t>22 </t>
-  </si>
-  <si>
-    <t>1063 </t>
-  </si>
-  <si>
-    <t>1486 </t>
-  </si>
-  <si>
-    <t>29 </t>
-  </si>
-  <si>
-    <t>55 </t>
-  </si>
-  <si>
-    <t>153 </t>
-  </si>
-  <si>
-    <t>179 </t>
-  </si>
-  <si>
     <t>80 </t>
-  </si>
-  <si>
-    <t>151 </t>
-  </si>
-  <si>
-    <t>62 </t>
-  </si>
-  <si>
-    <t>317 </t>
-  </si>
-  <si>
-    <t>821 </t>
-  </si>
-  <si>
-    <t>791 </t>
-  </si>
-  <si>
-    <t>130 </t>
-  </si>
-  <si>
-    <t>199 </t>
-  </si>
-  <si>
-    <t>946 </t>
-  </si>
-  <si>
-    <t>1419 </t>
-  </si>
-  <si>
-    <t>313 </t>
-  </si>
-  <si>
-    <t>867 </t>
-  </si>
-  <si>
-    <t>305 </t>
   </si>
   <si>
     <t>303 </t>
   </si>
   <si>
-    <t>469 </t>
-  </si>
-  <si>
-    <t>91 </t>
-  </si>
-  <si>
-    <t>173 </t>
-  </si>
-  <si>
-    <t>2753 </t>
-  </si>
-  <si>
-    <t>3870 </t>
-  </si>
-  <si>
-    <t>10853 </t>
-  </si>
-  <si>
-    <t>17086 </t>
-  </si>
-  <si>
-    <t>112 </t>
-  </si>
-  <si>
-    <t>1342 </t>
-  </si>
-  <si>
-    <t>2353 </t>
-  </si>
-  <si>
-    <t>2788 </t>
-  </si>
-  <si>
-    <t>4394 </t>
-  </si>
-  <si>
-    <t>76 </t>
-  </si>
-  <si>
-    <t>105 </t>
-  </si>
-  <si>
-    <t>152 </t>
-  </si>
-  <si>
-    <t>1173 </t>
-  </si>
-  <si>
-    <t>36 </t>
-  </si>
-  <si>
-    <t>750 </t>
-  </si>
-  <si>
-    <t>1266 </t>
-  </si>
-  <si>
     <t>18 </t>
-  </si>
-  <si>
-    <t>121 </t>
-  </si>
-  <si>
-    <t>269 </t>
-  </si>
-  <si>
-    <t>449 </t>
-  </si>
-  <si>
-    <t>1233 </t>
-  </si>
-  <si>
-    <t>2299 </t>
-  </si>
-  <si>
-    <t>2517 </t>
-  </si>
-  <si>
-    <t>3561 </t>
-  </si>
-  <si>
-    <t>465 </t>
-  </si>
-  <si>
-    <t>865 </t>
-  </si>
-  <si>
-    <t>17 </t>
-  </si>
-  <si>
-    <t>541 </t>
-  </si>
-  <si>
-    <t>783 </t>
-  </si>
-  <si>
-    <t>1131 </t>
-  </si>
-  <si>
-    <t>1902 </t>
-  </si>
-  <si>
-    <t>1357 </t>
   </si>
   <si>
     <t>Domestic</t>
@@ -700,6 +520,168 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>218 </t>
+  </si>
+  <si>
+    <t>496 </t>
+  </si>
+  <si>
+    <t>43 </t>
+  </si>
+  <si>
+    <t>59 </t>
+  </si>
+  <si>
+    <t>56 </t>
+  </si>
+  <si>
+    <t>73 </t>
+  </si>
+  <si>
+    <t>31 </t>
+  </si>
+  <si>
+    <t>100 </t>
+  </si>
+  <si>
+    <t>315 </t>
+  </si>
+  <si>
+    <t>191 </t>
+  </si>
+  <si>
+    <t>649 </t>
+  </si>
+  <si>
+    <t>60 </t>
+  </si>
+  <si>
+    <t>90 </t>
+  </si>
+  <si>
+    <t>404 </t>
+  </si>
+  <si>
+    <t>644 </t>
+  </si>
+  <si>
+    <t>190 </t>
+  </si>
+  <si>
+    <t>585 </t>
+  </si>
+  <si>
+    <t>149 </t>
+  </si>
+  <si>
+    <t>297 </t>
+  </si>
+  <si>
+    <t>92 </t>
+  </si>
+  <si>
+    <t>187 </t>
+  </si>
+  <si>
+    <t>33 </t>
+  </si>
+  <si>
+    <t>85 </t>
+  </si>
+  <si>
+    <t>736 </t>
+  </si>
+  <si>
+    <t>1349 </t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>4433 </t>
+  </si>
+  <si>
+    <t>7837 </t>
+  </si>
+  <si>
+    <t>49 </t>
+  </si>
+  <si>
+    <t>42 </t>
+  </si>
+  <si>
+    <t>361 </t>
+  </si>
+  <si>
+    <t>889 </t>
+  </si>
+  <si>
+    <t>1560 </t>
+  </si>
+  <si>
+    <t>2521 </t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>10 </t>
+  </si>
+  <si>
+    <t>34 </t>
+  </si>
+  <si>
+    <t>1207 </t>
+  </si>
+  <si>
+    <t>247 </t>
+  </si>
+  <si>
+    <t>39 </t>
+  </si>
+  <si>
+    <t>51 </t>
+  </si>
+  <si>
+    <t>164 </t>
+  </si>
+  <si>
+    <t>857 </t>
+  </si>
+  <si>
+    <t>1510 </t>
+  </si>
+  <si>
+    <t>1290 </t>
+  </si>
+  <si>
+    <t>1794 </t>
+  </si>
+  <si>
+    <t>282 </t>
+  </si>
+  <si>
+    <t>569 </t>
+  </si>
+  <si>
+    <t>106 </t>
+  </si>
+  <si>
+    <t>357 </t>
+  </si>
+  <si>
+    <t>823 </t>
+  </si>
+  <si>
+    <t>174 </t>
+  </si>
+  <si>
+    <t>430 </t>
+  </si>
 </sst>
 </file>
 
@@ -709,7 +691,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,18 +790,40 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -863,9 +867,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -897,7 +901,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,6 +910,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,7 +1529,7 @@
         <v>44593</v>
       </c>
       <c r="B27">
-        <v>30670233</v>
+        <v>47656893</v>
       </c>
       <c r="C27" s="17"/>
     </row>
@@ -1532,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8730D1-B073-F949-92E6-FAE69CFEA773}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -5000,7 +5010,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6232,11 +6242,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885F84EB-1F73-1245-BB50-FDD52D41BDBE}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6943,6 +6953,17 @@
       </c>
       <c r="C64">
         <v>8.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B65" s="5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C65" s="5">
+        <v>8.3800000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -6955,7 +6976,7 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7996,7 +8017,12 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="B130" s="17"/>
+      <c r="A130" s="3">
+        <v>44610</v>
+      </c>
+      <c r="B130" s="17">
+        <v>45508670</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8005,7 +8031,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5353B576-38C4-E445-9E6D-988228532D05}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
@@ -9059,6 +9085,17 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="26">
+        <v>44603</v>
+      </c>
+      <c r="B96" s="5">
+        <v>9.11</v>
+      </c>
+      <c r="C96" s="5">
+        <v>7.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9066,15 +9103,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0D774-4FB9-484A-8B9C-C85D078E33FB}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -9088,21 +9123,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18">
+    <row r="2" spans="1:15" ht="18">
       <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="20">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D2" s="20">
-        <v>9833</v>
+        <v>9872</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F2" s="20">
         <v>129</v>
@@ -9110,32 +9145,31 @@
       <c r="G2" s="20"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" ht="18">
+    </row>
+    <row r="3" spans="1:15" ht="18">
       <c r="A3" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="20">
-        <v>7358</v>
+        <v>4709</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D3" s="20">
-        <v>2293882</v>
+        <v>2298033</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F3" s="20">
-        <v>14710</v>
+        <v>14722</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>74</v>
@@ -9144,29 +9178,28 @@
       <c r="I3" s="22">
         <v>2</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" ht="18">
+    </row>
+    <row r="4" spans="1:15" ht="18">
       <c r="A4" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="20">
-        <v>322</v>
+        <v>178</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D4" s="20">
-        <v>63652</v>
+        <v>63928</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F4" s="20">
         <v>296</v>
@@ -9174,63 +9207,61 @@
       <c r="G4" s="20"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" ht="18">
+    </row>
+    <row r="5" spans="1:15" ht="18">
       <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="20">
-        <v>2160</v>
+        <v>1610</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D5" s="20">
-        <v>715147</v>
+        <v>715840</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F5" s="20">
-        <v>6629</v>
+        <v>6638</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
-        <v>3</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" ht="18">
+    </row>
+    <row r="6" spans="1:15" ht="18">
       <c r="A6" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="20">
-        <v>703</v>
+        <v>349</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D6" s="20">
-        <v>816661</v>
+        <v>817349</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F6" s="20">
         <v>12255</v>
@@ -9238,89 +9269,90 @@
       <c r="G6" s="20"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" ht="18">
+    </row>
+    <row r="7" spans="1:15" ht="18">
       <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="20">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D7" s="20">
-        <v>90136</v>
+        <v>90356</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F7" s="20">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" ht="18">
+    </row>
+    <row r="8" spans="1:15" ht="18">
       <c r="A8" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="20">
-        <v>3539</v>
+        <v>1961</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D8" s="20">
-        <v>1131637</v>
+        <v>1134554</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F8" s="20">
-        <v>14021</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>14024</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="18">
+    </row>
+    <row r="9" spans="1:15" ht="18">
       <c r="A9" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="20">
-        <v>11425</v>
+        <v>11433</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="20">
         <v>4</v>
@@ -9328,32 +9360,31 @@
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" ht="18">
+    </row>
+    <row r="10" spans="1:15" ht="18">
       <c r="A10" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="20">
-        <v>2617</v>
+        <v>2085</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D10" s="20">
-        <v>1826695</v>
+        <v>1830412</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F10" s="20">
-        <v>26097</v>
+        <v>26117</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>74</v>
@@ -9362,195 +9393,189 @@
       <c r="I10" s="22">
         <v>2</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" ht="18">
+    </row>
+    <row r="11" spans="1:15" ht="18">
       <c r="A11" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="20">
-        <v>677</v>
+        <v>347</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20">
-        <v>240207</v>
+        <v>240791</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F11" s="20">
-        <v>3789</v>
+        <v>3800</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22">
-        <v>1</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="18">
+    </row>
+    <row r="12" spans="1:15" ht="18">
       <c r="A12" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="20">
-        <v>5790</v>
+        <v>2538</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20">
-        <v>1203508</v>
+        <v>1208657</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F12" s="20">
-        <v>10887</v>
+        <v>10924</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22">
-        <v>13</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="18">
+    </row>
+    <row r="13" spans="1:15" ht="18">
       <c r="A13" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="20">
-        <v>3682</v>
+        <v>2310</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20">
-        <v>963666</v>
+        <v>967898</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F13" s="20">
-        <v>10522</v>
+        <v>10551</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22">
-        <v>5</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" ht="18">
+    </row>
+    <row r="14" spans="1:15" ht="18">
       <c r="A14" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B14" s="20">
-        <v>1992</v>
+        <v>1322</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20">
-        <v>275886</v>
+        <v>277637</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F14" s="20">
-        <v>4093</v>
+        <v>4114</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22">
-        <v>3</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" ht="18">
+    </row>
+    <row r="15" spans="1:15" ht="18">
       <c r="A15" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="20">
-        <v>2294</v>
+        <v>995</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D15" s="20">
-        <v>445115</v>
+        <v>447074</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F15" s="20">
-        <v>4746</v>
+        <v>4748</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" ht="18">
+    </row>
+    <row r="16" spans="1:15" ht="18">
       <c r="A16" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="20">
-        <v>746</v>
+        <v>520</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D16" s="20">
-        <v>427869</v>
+        <v>428436</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F16" s="20">
         <v>5315</v>
@@ -9558,99 +9583,96 @@
       <c r="G16" s="20"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" ht="18">
+    </row>
+    <row r="17" spans="1:15" ht="18">
       <c r="A17" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="20">
-        <v>13468</v>
+        <v>7556</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D17" s="20">
-        <v>3882340</v>
+        <v>3892459</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F17" s="20">
-        <v>39777</v>
+        <v>39900</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22">
-        <v>20</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="1:16" ht="18">
+    </row>
+    <row r="18" spans="1:15" ht="18">
       <c r="A18" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="20">
-        <v>75813</v>
+        <v>38040</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D18" s="20">
-        <v>6323697</v>
+        <v>6388398</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F18" s="20">
-        <v>64053</v>
+        <v>64980</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="H18" s="22">
-        <v>412</v>
+        <v>128</v>
       </c>
       <c r="I18" s="22">
-        <v>524</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20"/>
+        <v>177</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" ht="18">
+    </row>
+    <row r="19" spans="1:15" ht="18">
       <c r="A19" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="20">
-        <v>398</v>
+        <v>230</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D19" s="20">
-        <v>27175</v>
+        <v>27513</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F19" s="20">
         <v>228</v>
@@ -9658,29 +9680,28 @@
       <c r="G19" s="20"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16" ht="18">
+    </row>
+    <row r="20" spans="1:15" ht="18">
       <c r="A20" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="20">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D20" s="20">
-        <v>11255</v>
+        <v>11331</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F20" s="20">
         <v>52</v>
@@ -9688,32 +9709,31 @@
       <c r="G20" s="20"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16" ht="18">
+    </row>
+    <row r="21" spans="1:15" ht="18">
       <c r="A21" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="20">
-        <v>8364</v>
+        <v>4809</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D21" s="20">
-        <v>1014413</v>
+        <v>1022161</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F21" s="20">
-        <v>10713</v>
+        <v>10726</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>74</v>
@@ -9722,100 +9742,97 @@
       <c r="I21" s="22">
         <v>2</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="1:16" ht="18">
+    </row>
+    <row r="22" spans="1:15" ht="18">
       <c r="A22" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="20">
-        <v>22354</v>
+        <v>12682</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D22" s="20">
-        <v>7691064</v>
+        <v>7707254</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F22" s="20">
-        <v>143576</v>
+        <v>143687</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22">
-        <v>29</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" ht="18">
+    </row>
+    <row r="23" spans="1:15" ht="18">
       <c r="A23" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="20">
-        <v>683</v>
+        <v>536</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="D23" s="20">
-        <v>133605</v>
+        <v>134046</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F23" s="20">
-        <v>2096</v>
+        <v>2108</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22">
-        <v>4</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16" ht="18">
+    </row>
+    <row r="24" spans="1:15" ht="18">
       <c r="A24" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="20">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D24" s="20">
-        <v>91294</v>
+        <v>91627</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F24" s="20">
-        <v>1568</v>
+        <v>1575</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>74</v>
@@ -9824,327 +9841,305 @@
       <c r="I24" s="22">
         <v>2</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-    </row>
-    <row r="25" spans="1:16" ht="18">
+    </row>
+    <row r="25" spans="1:15" ht="18">
       <c r="A25" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="20">
-        <v>10071</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>174</v>
+        <v>8106</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="D25" s="20">
-        <v>195089</v>
+        <v>203456</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F25" s="20">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22">
-        <v>1</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16" ht="18">
+    </row>
+    <row r="26" spans="1:15" ht="18">
       <c r="A26" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="20">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D26" s="20">
-        <v>34307</v>
+        <v>34502</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="F26" s="20">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" ht="18">
+    </row>
+    <row r="27" spans="1:15" ht="18">
       <c r="A27" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B27" s="20">
-        <v>5886</v>
+        <v>2843</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D27" s="20">
-        <v>1267109</v>
+        <v>1272428</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F27" s="20">
-        <v>8994</v>
+        <v>9052</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22">
-        <v>18</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="1:16" ht="18">
+    </row>
+    <row r="28" spans="1:15" ht="18">
       <c r="A28" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="20">
-        <v>495</v>
+        <v>202</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20">
-        <v>163110</v>
+        <v>163528</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F28" s="20">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" spans="1:16" ht="18">
+    </row>
+    <row r="29" spans="1:15" ht="18">
       <c r="A29" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B29" s="20">
-        <v>1606</v>
+        <v>848</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D29" s="20">
-        <v>737822</v>
+        <v>739310</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F29" s="20">
-        <v>17662</v>
+        <v>17701</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22">
-        <v>11</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16" ht="18">
+    </row>
+    <row r="30" spans="1:15" ht="18">
       <c r="A30" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="20">
-        <v>10967</v>
+        <v>5739</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D30" s="20">
-        <v>1253305</v>
+        <v>1263081</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F30" s="20">
-        <v>9516</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>131</v>
-      </c>
+        <v>9535</v>
+      </c>
+      <c r="G30" s="20"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="22">
-        <v>9</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="20"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" ht="18">
+    </row>
+    <row r="31" spans="1:15" ht="18">
       <c r="A31" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="20">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D31" s="20">
-        <v>38417</v>
+        <v>38540</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="F31" s="20">
-        <v>441</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G31" s="20"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="22">
-        <v>1</v>
-      </c>
+      <c r="I31" s="22"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-    </row>
-    <row r="32" spans="1:16" ht="18">
+    </row>
+    <row r="32" spans="1:15" ht="18">
       <c r="A32" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="20">
-        <v>18164</v>
+        <v>8150</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D32" s="20">
-        <v>3387839</v>
+        <v>3401938</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F32" s="20">
-        <v>37977</v>
+        <v>38000</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="22">
-        <v>7</v>
-      </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-    </row>
-    <row r="33" spans="1:16" ht="18">
+    </row>
+    <row r="33" spans="1:15" ht="18">
       <c r="A33" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B33" s="20">
-        <v>5646</v>
+        <v>3810</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D33" s="20">
-        <v>776667</v>
+        <v>780462</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F33" s="20">
-        <v>4109</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>4111</v>
+      </c>
+      <c r="G33" s="20"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="22">
-        <v>1</v>
-      </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="20"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-    </row>
-    <row r="34" spans="1:16" ht="18">
+    </row>
+    <row r="34" spans="1:15" ht="18">
       <c r="A34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="20">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="D34" s="20">
-        <v>99842</v>
+        <v>99898</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F34" s="20">
         <v>919</v>
@@ -10152,32 +10147,31 @@
       <c r="G34" s="20"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-    </row>
-    <row r="35" spans="1:16" ht="18">
+    </row>
+    <row r="35" spans="1:15" ht="18">
       <c r="A35" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="20">
-        <v>2899</v>
+        <v>2342</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D35" s="20">
-        <v>424507</v>
+        <v>425891</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F35" s="20">
-        <v>7670</v>
+        <v>7679</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>78</v>
@@ -10186,83 +10180,76 @@
       <c r="I35" s="22">
         <v>1</v>
       </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-    </row>
-    <row r="36" spans="1:16" ht="18">
+    </row>
+    <row r="36" spans="1:15" ht="18">
       <c r="A36" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="20">
-        <v>7552</v>
+        <v>4409</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D36" s="20">
-        <v>2032899</v>
+        <v>2038979</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F36" s="20">
-        <v>23426</v>
+        <v>23447</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22">
-        <v>2</v>
-      </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-    </row>
-    <row r="37" spans="1:16" ht="18">
+    </row>
+    <row r="37" spans="1:15" ht="18">
       <c r="A37" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="20">
-        <v>6648</v>
+        <v>1988</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="D37" s="20">
-        <v>1985308</v>
+        <v>1991410</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F37" s="20">
-        <v>21119</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22">
-        <v>12</v>
-      </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="20"/>
+        <v>21169</v>
+      </c>
+      <c r="G37" s="22">
+        <v>4</v>
+      </c>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-    </row>
-    <row r="38" spans="1:16" ht="18">
+    </row>
+    <row r="38" spans="1:15" ht="18">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="20"/>
@@ -10281,8 +10268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D317E-D501-B04E-B622-A50394A159C7}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10312,13 +10299,13 @@
         <v>417036</v>
       </c>
       <c r="C2">
-        <v>328402</v>
+        <v>328563</v>
       </c>
       <c r="D2">
-        <v>319667</v>
+        <v>320674</v>
       </c>
       <c r="E2">
-        <v>8416</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10329,13 +10316,13 @@
         <v>53903393</v>
       </c>
       <c r="C3">
-        <v>43029208</v>
+        <v>43051164</v>
       </c>
       <c r="D3">
-        <v>39989064</v>
+        <v>41017511</v>
       </c>
       <c r="E3">
-        <v>1303308</v>
+        <v>1398202</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10346,13 +10333,13 @@
         <v>1570458</v>
       </c>
       <c r="C4">
-        <v>885898</v>
+        <v>887982</v>
       </c>
       <c r="D4">
-        <v>712899</v>
+        <v>721481</v>
       </c>
       <c r="E4">
-        <v>22460</v>
+        <v>23408</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10363,13 +10350,13 @@
         <v>35607039</v>
       </c>
       <c r="C5">
-        <v>23348874</v>
+        <v>23383888</v>
       </c>
       <c r="D5">
-        <v>19367546</v>
+        <v>19611429</v>
       </c>
       <c r="E5">
-        <v>239362</v>
+        <v>256596</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10380,13 +10367,13 @@
         <v>124799926</v>
       </c>
       <c r="C6">
-        <v>65970108</v>
+        <v>66316530</v>
       </c>
       <c r="D6">
-        <v>51310816</v>
+        <v>52622510</v>
       </c>
       <c r="E6">
-        <v>705256</v>
+        <v>766921</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10397,13 +10384,13 @@
         <v>1158473</v>
       </c>
       <c r="C7">
-        <v>1121942</v>
+        <v>1123491</v>
       </c>
       <c r="D7">
-        <v>879319</v>
+        <v>885590</v>
       </c>
       <c r="E7">
-        <v>23338</v>
+        <v>24221</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10414,13 +10401,13 @@
         <v>29436231</v>
       </c>
       <c r="C8">
-        <v>19586061</v>
+        <v>19638135</v>
       </c>
       <c r="D8">
-        <v>16274229</v>
+        <v>16649059</v>
       </c>
       <c r="E8">
-        <v>352101</v>
+        <v>371352</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10431,13 +10418,13 @@
         <v>18710922</v>
       </c>
       <c r="C9">
-        <v>17241787</v>
+        <v>17284940</v>
       </c>
       <c r="D9">
-        <v>13354018</v>
+        <v>13640600</v>
       </c>
       <c r="E9">
-        <v>393760</v>
+        <v>414023</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10448,13 +10435,13 @@
         <v>1586250</v>
       </c>
       <c r="C10">
-        <v>1390736</v>
+        <v>1391818</v>
       </c>
       <c r="D10">
-        <v>1218168</v>
+        <v>1221946</v>
       </c>
       <c r="E10">
-        <v>29501</v>
+        <v>30374</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10465,13 +10452,13 @@
         <v>63872399</v>
       </c>
       <c r="C11">
-        <v>51886238</v>
+        <v>51999238</v>
       </c>
       <c r="D11">
-        <v>48221103</v>
+        <v>48866166</v>
       </c>
       <c r="E11">
-        <v>1948722</v>
+        <v>2037737</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10482,13 +10469,13 @@
         <v>28204692</v>
       </c>
       <c r="C12">
-        <v>22804990</v>
+        <v>22850521</v>
       </c>
       <c r="D12">
-        <v>17764307</v>
+        <v>18006891</v>
       </c>
       <c r="E12">
-        <v>222613</v>
+        <v>235826</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10499,13 +10486,13 @@
         <v>7451955</v>
       </c>
       <c r="C13">
-        <v>6315079</v>
+        <v>6320125</v>
       </c>
       <c r="D13">
-        <v>5892298</v>
+        <v>5913246</v>
       </c>
       <c r="E13">
-        <v>160803</v>
+        <v>173099</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10516,13 +10503,13 @@
         <v>13606320</v>
       </c>
       <c r="C14">
-        <v>10714843</v>
+        <v>10736802</v>
       </c>
       <c r="D14">
-        <v>10361103</v>
+        <v>10470467</v>
       </c>
       <c r="E14">
-        <v>268611</v>
+        <v>285135</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10533,13 +10520,13 @@
         <v>38593948</v>
       </c>
       <c r="C15">
-        <v>22106217</v>
+        <v>22220908</v>
       </c>
       <c r="D15">
-        <v>14072194</v>
+        <v>14436923</v>
       </c>
       <c r="E15">
-        <v>210401</v>
+        <v>224039</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10550,13 +10537,13 @@
         <v>67562686</v>
       </c>
       <c r="C16">
-        <v>52064680</v>
+        <v>52124388</v>
       </c>
       <c r="D16">
-        <v>46450437</v>
+        <v>47294362</v>
       </c>
       <c r="E16">
-        <v>1127049</v>
+        <v>1187509</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10567,13 +10554,13 @@
         <v>35699443</v>
       </c>
       <c r="C17">
-        <v>28052858</v>
+        <v>28083232</v>
       </c>
       <c r="D17">
-        <v>23310241</v>
+        <v>23560868</v>
       </c>
       <c r="E17">
-        <v>878552</v>
+        <v>906700</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10584,13 +10571,13 @@
         <v>299000</v>
       </c>
       <c r="C18">
-        <v>226875</v>
+        <v>227054</v>
       </c>
       <c r="D18">
-        <v>186400</v>
+        <v>187395</v>
       </c>
       <c r="E18">
-        <v>26863</v>
+        <v>28184</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10601,13 +10588,13 @@
         <v>289023</v>
       </c>
       <c r="C19">
-        <v>59492</v>
+        <v>59498</v>
       </c>
       <c r="D19">
-        <v>56674</v>
+        <v>56976</v>
       </c>
       <c r="E19">
-        <v>2282</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10618,13 +10605,13 @@
         <v>85358965</v>
       </c>
       <c r="C20">
-        <v>57888619</v>
+        <v>57966198</v>
       </c>
       <c r="D20">
-        <v>54267288</v>
+        <v>54814161</v>
       </c>
       <c r="E20">
-        <v>861939</v>
+        <v>886310</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10635,13 +10622,13 @@
         <v>123144223</v>
       </c>
       <c r="C21">
-        <v>87109254</v>
+        <v>87328140</v>
       </c>
       <c r="D21">
-        <v>65174967</v>
+        <v>66728278</v>
       </c>
       <c r="E21">
-        <v>1431340</v>
+        <v>1513620</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10652,13 +10639,13 @@
         <v>3091545</v>
       </c>
       <c r="C22">
-        <v>1498474</v>
+        <v>1510095</v>
       </c>
       <c r="D22">
-        <v>1113681</v>
+        <v>1136387</v>
       </c>
       <c r="E22">
-        <v>55535</v>
+        <v>59085</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10669,13 +10656,13 @@
         <v>3366710</v>
       </c>
       <c r="C23">
-        <v>1355779</v>
+        <v>1359667</v>
       </c>
       <c r="D23">
-        <v>956468</v>
+        <v>965534</v>
       </c>
       <c r="E23">
-        <v>25655</v>
+        <v>26993</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10686,13 +10673,13 @@
         <v>1239244</v>
       </c>
       <c r="C24">
-        <v>821318</v>
+        <v>823758</v>
       </c>
       <c r="D24">
-        <v>640411</v>
+        <v>648311</v>
       </c>
       <c r="E24">
-        <v>23625</v>
+        <v>24401</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10703,13 +10690,13 @@
         <v>2249695</v>
       </c>
       <c r="C25">
-        <v>865077</v>
+        <v>870563</v>
       </c>
       <c r="D25">
-        <v>634442</v>
+        <v>647398</v>
       </c>
       <c r="E25">
-        <v>19629</v>
+        <v>21143</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10720,13 +10707,13 @@
         <v>46356334</v>
       </c>
       <c r="C26">
-        <v>32633322</v>
+        <v>32747905</v>
       </c>
       <c r="D26">
-        <v>26824890</v>
+        <v>27398726</v>
       </c>
       <c r="E26">
-        <v>770777</v>
+        <v>799108</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10737,13 +10724,13 @@
         <v>1413542</v>
       </c>
       <c r="C27">
-        <v>928494</v>
+        <v>931304</v>
       </c>
       <c r="D27">
-        <v>629283</v>
+        <v>646844</v>
       </c>
       <c r="E27">
-        <v>11955</v>
+        <v>12368</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10754,13 +10741,13 @@
         <v>30141373</v>
       </c>
       <c r="C28">
-        <v>22334192</v>
+        <v>22512581</v>
       </c>
       <c r="D28">
-        <v>15873590</v>
+        <v>16152325</v>
       </c>
       <c r="E28">
-        <v>379135</v>
+        <v>393361</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10771,13 +10758,13 @@
         <v>81032689</v>
       </c>
       <c r="C29">
-        <v>53587710</v>
+        <v>53785334</v>
       </c>
       <c r="D29">
-        <v>43049408</v>
+        <v>43676509</v>
       </c>
       <c r="E29">
-        <v>1211849</v>
+        <v>1277366</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10788,13 +10775,13 @@
         <v>690251</v>
       </c>
       <c r="C30">
-        <v>562464</v>
+        <v>563106</v>
       </c>
       <c r="D30">
-        <v>510476</v>
+        <v>514824</v>
       </c>
       <c r="E30">
-        <v>28248</v>
+        <v>29385</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10805,13 +10792,13 @@
         <v>77841267</v>
       </c>
       <c r="C31">
-        <v>55545388</v>
+        <v>55700626</v>
       </c>
       <c r="D31">
-        <v>41443382</v>
+        <v>42140120</v>
       </c>
       <c r="E31">
-        <v>544242</v>
+        <v>568783</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10822,13 +10809,13 @@
         <v>38510982</v>
       </c>
       <c r="C32">
-        <v>30798908</v>
+        <v>30874859</v>
       </c>
       <c r="D32">
-        <v>26407374</v>
+        <v>26953746</v>
       </c>
       <c r="E32">
-        <v>433473</v>
+        <v>467657</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10839,13 +10826,13 @@
         <v>4169794</v>
       </c>
       <c r="C33">
-        <v>2763180</v>
+        <v>2765407</v>
       </c>
       <c r="D33">
-        <v>2265805</v>
+        <v>2278690</v>
       </c>
       <c r="E33">
-        <v>62102</v>
+        <v>65166</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10856,13 +10843,13 @@
         <v>237882725</v>
       </c>
       <c r="C34">
-        <v>163687535</v>
+        <v>164534086</v>
       </c>
       <c r="D34">
-        <v>116638430</v>
+        <v>121008880</v>
       </c>
       <c r="E34">
-        <v>2156451</v>
+        <v>2247713</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10873,13 +10860,13 @@
         <v>11250858</v>
       </c>
       <c r="C35">
-        <v>8556611</v>
+        <v>8570163</v>
       </c>
       <c r="D35">
-        <v>7835777</v>
+        <v>7892108</v>
       </c>
       <c r="E35">
-        <v>377317</v>
+        <v>392757</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10890,13 +10877,13 @@
         <v>99609303</v>
       </c>
       <c r="C36">
-        <v>69919065</v>
+        <v>70037735</v>
       </c>
       <c r="D36">
-        <v>57763823</v>
+        <v>59142774</v>
       </c>
       <c r="E36">
-        <v>1553629</v>
+        <v>1638983</v>
       </c>
     </row>
   </sheetData>
@@ -10906,10 +10893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA94CA-D9DE-B548-8735-C3641B00F463}">
-  <dimension ref="A1:S323"/>
+  <dimension ref="A1:S329"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="D329" sqref="D329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29968,6 +29955,360 @@
         <v>64000</v>
       </c>
       <c r="S323" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B324" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C324" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D324" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E324" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F324" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G324" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H324" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I324" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J324" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K324" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L324" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M324" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N324" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O324" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P324" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q324" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R324" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S324" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
+      <c r="A325" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B325" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C325" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D325" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E325" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F325" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G325" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H325" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I325" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J325" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K325" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L325" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M325" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N325" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O325" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P325" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q325" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R325" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S325" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
+      <c r="A326" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B326" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C326" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D326" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E326" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F326" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G326" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H326" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I326" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J326" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K326" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L326" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M326" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N326" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O326" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P326" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q326" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R326" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S326" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B327" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C327" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D327" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E327" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F327" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G327" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H327" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I327" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J327" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K327" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L327" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M327" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N327" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O327" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P327" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q327" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R327" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S327" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B328" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C328" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D328" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E328" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F328" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G328" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H328" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I328" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J328" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K328" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L328" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M328" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N328" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O328" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P328" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q328" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R328" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S328" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
+      <c r="A329" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B329" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C329" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D329" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E329" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F329" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G329" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H329" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I329" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J329" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K329" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L329" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M329" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N329" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O329" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P329" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q329" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R329" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S329" s="17">
         <v>52000</v>
       </c>
     </row>
@@ -29980,8 +30321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8984DF-48CB-5447-B9FA-A4B1DAFD9CF3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30008,39 +30349,39 @@
       <c r="A2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="27">
-        <v>10400661</v>
-      </c>
-      <c r="C2" s="27">
-        <v>9952131</v>
-      </c>
-      <c r="D2" s="27">
-        <v>4045802</v>
+      <c r="B2" s="36">
+        <v>10401480</v>
+      </c>
+      <c r="C2" s="36">
+        <v>9965907</v>
+      </c>
+      <c r="D2" s="36">
+        <v>4166909</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20">
       <c r="A3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="27">
-        <v>18407876</v>
-      </c>
-      <c r="C3" s="27">
-        <v>17415830</v>
-      </c>
-      <c r="D3" s="27">
-        <v>5897178</v>
+      <c r="B3" s="36">
+        <v>18409341</v>
+      </c>
+      <c r="C3" s="36">
+        <v>17439847</v>
+      </c>
+      <c r="D3" s="36">
+        <v>6191330</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="27">
-        <v>53625069</v>
-      </c>
-      <c r="C4" s="27">
-        <v>21557154</v>
+      <c r="B4" s="36">
+        <v>54747973</v>
+      </c>
+      <c r="C4" s="36">
+        <v>27260355</v>
       </c>
       <c r="D4" s="19"/>
     </row>
@@ -30048,11 +30389,11 @@
       <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="27">
-        <v>550294446</v>
-      </c>
-      <c r="C5" s="27">
-        <v>435543092</v>
+      <c r="B5" s="36">
+        <v>551674510</v>
+      </c>
+      <c r="C5" s="36">
+        <v>443457581</v>
       </c>
       <c r="D5" s="19"/>
     </row>
@@ -30060,11 +30401,11 @@
       <c r="A6" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="27">
-        <v>202030925</v>
-      </c>
-      <c r="C6" s="27">
-        <v>178284433</v>
+      <c r="B6" s="36">
+        <v>202251597</v>
+      </c>
+      <c r="C6" s="36">
+        <v>179982110</v>
       </c>
       <c r="D6" s="19"/>
     </row>
@@ -30072,14 +30413,14 @@
       <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="27">
-        <v>126199513</v>
-      </c>
-      <c r="C7" s="27">
-        <v>111065151</v>
-      </c>
-      <c r="D7" s="27">
-        <v>9003436</v>
+      <c r="B7" s="36">
+        <v>126392536</v>
+      </c>
+      <c r="C7" s="36">
+        <v>112113754</v>
+      </c>
+      <c r="D7" s="36">
+        <v>9604490</v>
       </c>
     </row>
   </sheetData>
@@ -30089,10 +30430,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A5412-72F4-CA4E-9682-44F6B6C554A4}">
-  <dimension ref="A1:B1147"/>
+  <dimension ref="A1:B1153"/>
   <sheetViews>
-    <sheetView topLeftCell="A1138" workbookViewId="0">
-      <selection activeCell="A1138" sqref="A1138"/>
+    <sheetView topLeftCell="A1144" workbookViewId="0">
+      <selection activeCell="A1153" sqref="A1153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39273,6 +39614,54 @@
         <v>3948</v>
       </c>
     </row>
+    <row r="1148" spans="1:2">
+      <c r="A1148" s="4">
+        <v>44612</v>
+      </c>
+      <c r="B1148">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="A1149" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B1149">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2">
+      <c r="A1150" s="4">
+        <v>44614</v>
+      </c>
+      <c r="B1150">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2">
+      <c r="A1151" s="4">
+        <v>44615</v>
+      </c>
+      <c r="B1151">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2">
+      <c r="A1152" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B1152">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" s="4">
+        <v>44617</v>
+      </c>
+      <c r="B1153">
+        <v>4042</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39280,10 +39669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E43D3-B2B8-4440-9DFA-30FE18FECCE6}">
-  <dimension ref="A1:B629"/>
+  <dimension ref="A1:B636"/>
   <sheetViews>
-    <sheetView topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="A629" sqref="A629"/>
+    <sheetView topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="B629" sqref="B629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44320,6 +44709,62 @@
         <v>27226.799999999999</v>
       </c>
     </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="4">
+        <v>44611</v>
+      </c>
+      <c r="B630" s="18">
+        <v>25778.25</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="4">
+        <v>44612</v>
+      </c>
+      <c r="B631" s="18">
+        <v>21128.33</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B632" s="18">
+        <v>29480.41</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="4">
+        <v>44614</v>
+      </c>
+      <c r="B633" s="18">
+        <v>27023.99</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="4">
+        <v>44615</v>
+      </c>
+      <c r="B634" s="18">
+        <v>24444.21</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B635" s="18">
+        <v>32003.16</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="4">
+        <v>44617</v>
+      </c>
+      <c r="B636" s="18">
+        <v>29271.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44327,10 +44772,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D064278-E4AD-8149-B400-6EAC50E0DC3D}">
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
-    <sheetView topLeftCell="A542" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A553" sqref="A553"/>
+    <sheetView topLeftCell="A548" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A559" sqref="A559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48759,6 +49204,54 @@
         <v>7.63</v>
       </c>
     </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B554">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B555">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B556">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B557">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B558">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B559">
+        <v>8.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48766,290 +49259,464 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70EF183-B223-BA44-B3E0-EC1BFDE7C01F}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="30">
-        <v>-0.17735211707621867</v>
-      </c>
-      <c r="C2" s="30">
-        <v>-0.45864832389983623</v>
-      </c>
-      <c r="D2" s="30">
-        <v>-0.39957622427515282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="30">
-        <v>-0.42169635735176814</v>
-      </c>
-      <c r="C3" s="30">
-        <v>-0.52364393813460708</v>
-      </c>
-      <c r="D3" s="30">
-        <v>-0.46022632568229782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="30">
-        <v>0.16097513622109383</v>
-      </c>
-      <c r="C4" s="30">
-        <v>-0.19143531974841188</v>
-      </c>
-      <c r="D4" s="30">
-        <v>-5.65070900496909E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="30">
-        <v>-2.0152972166682548E-2</v>
-      </c>
-      <c r="C5" s="30">
-        <v>-0.33197530104416684</v>
-      </c>
-      <c r="D5" s="30">
-        <v>-0.22569103580324035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="30">
-        <v>-0.16588285745706499</v>
-      </c>
-      <c r="C6" s="30">
-        <v>-0.31981553451902034</v>
-      </c>
-      <c r="D6" s="30">
-        <v>-0.20896245562648241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="30">
-        <v>-0.17415571610611713</v>
-      </c>
-      <c r="C7" s="30">
-        <v>-0.17664582429181463</v>
-      </c>
-      <c r="D7" s="30">
-        <v>-0.17544644096981143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="30">
-        <v>-0.25518182243006426</v>
-      </c>
-      <c r="C8" s="30">
-        <v>-0.81865645467779558</v>
-      </c>
-      <c r="D8" s="30">
-        <v>-0.4960698868526574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="30">
-        <v>-6.9279233739349966E-3</v>
-      </c>
-      <c r="C9" s="30">
-        <v>-0.86681022282244224</v>
-      </c>
-      <c r="D9" s="30">
-        <v>-0.21913867185817815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="30">
-        <v>-0.36550769915729397</v>
-      </c>
-      <c r="C10" s="30">
-        <v>-0.45605680743869892</v>
-      </c>
-      <c r="D10" s="30">
-        <v>-0.42873704245052968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="30">
-        <v>3.7593456359970467E-2</v>
-      </c>
-      <c r="C11" s="30">
-        <v>-0.3948121358113309</v>
-      </c>
-      <c r="D11" s="30">
-        <v>-0.25060548738908706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="30">
-        <v>-0.29843049032376889</v>
-      </c>
-      <c r="C12" s="30">
-        <v>-0.19965577917079069</v>
-      </c>
-      <c r="D12" s="30">
-        <v>-0.20727567235116628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="30">
-        <v>5.6759953977539634E-2</v>
-      </c>
-      <c r="C13" s="30">
-        <v>-5.3973991489100426E-2</v>
-      </c>
-      <c r="D13" s="30">
-        <v>6.0563786123917218E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="30">
-        <v>1.9534758774691241E-2</v>
-      </c>
-      <c r="C14" s="30">
-        <v>-0.31088734516914962</v>
-      </c>
-      <c r="D14" s="30">
-        <v>-7.3827762924827289E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="30">
-        <v>-0.19580412633079769</v>
-      </c>
-      <c r="C15" s="30">
-        <v>-0.53495480825990149</v>
-      </c>
-      <c r="D15" s="30">
-        <v>-0.25830707577622791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="30">
-        <v>-0.16298906869037799</v>
-      </c>
-      <c r="C16" s="30">
-        <v>-0.30202906701789001</v>
-      </c>
-      <c r="D16" s="30">
-        <v>-0.2698307763711586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="30">
-        <v>-7.921595910553747E-2</v>
-      </c>
-      <c r="C17" s="30">
-        <v>-0.31775758817335953</v>
-      </c>
-      <c r="D17" s="30">
-        <v>-0.1176482619802941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="30">
-        <v>-0.25451552902388619</v>
-      </c>
-      <c r="C18" s="30">
-        <v>-0.78124789408620743</v>
-      </c>
-      <c r="D18" s="30">
-        <v>-0.42220330077296586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="30">
-        <v>-0.11381232163002042</v>
-      </c>
-      <c r="C19" s="30">
-        <v>-0.50500126046625582</v>
-      </c>
-      <c r="D19" s="30">
-        <v>-0.26737909949125938</v>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="35">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="C2" s="35">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="D2" s="35">
+        <v>-0.193</v>
+      </c>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="35">
+        <v>-0.372</v>
+      </c>
+      <c r="C3" s="35">
+        <v>-0.46500000000000002</v>
+      </c>
+      <c r="D3" s="35">
+        <v>-0.40600000000000003</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.437</v>
+      </c>
+      <c r="C4" s="35">
+        <v>-0.151</v>
+      </c>
+      <c r="D4" s="35">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="D5" s="35">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="35">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="C6" s="35">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="D6" s="35">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="35">
+        <v>-0.161</v>
+      </c>
+      <c r="C7" s="35">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="D7" s="35">
+        <v>-0.128</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="35">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="C8" s="35">
+        <v>-0.81499999999999995</v>
+      </c>
+      <c r="D8" s="35">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C9" s="35">
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="D9" s="35">
+        <v>-0.20799999999999999</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="35">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="C10" s="35">
+        <v>-0.33500000000000002</v>
+      </c>
+      <c r="D10" s="35">
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="35">
+        <v>0</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="D11" s="35">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="35">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="C12" s="35">
+        <v>-0.183</v>
+      </c>
+      <c r="D12" s="35">
+        <v>-0.191</v>
+      </c>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="35">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="C13" s="35">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="D13" s="35">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="35">
+        <v>0.153</v>
+      </c>
+      <c r="C14" s="35">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="35">
+        <v>-0.154</v>
+      </c>
+      <c r="C15" s="35">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="D15" s="35">
+        <v>-0.214</v>
+      </c>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="35">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="C16" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D16" s="35">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="35">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="C17" s="35">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="D17" s="35">
+        <v>-0.115</v>
+      </c>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="35">
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="C18" s="35">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="D18" s="35">
+        <v>-0.47</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="35">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="C19" s="35">
+        <v>-0.45</v>
+      </c>
+      <c r="D19" s="35">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="6:6" ht="18">
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="6:6" ht="18">
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="6:6" ht="18">
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="6:6" ht="18">
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="6:6" ht="18">
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="6:6" ht="18">
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="6:6" ht="18">
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="6:6" ht="18">
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="6:6" ht="18">
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="6:6" ht="18">
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="6:6" ht="18">
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="6:6" ht="18">
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="6:6" ht="18">
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="6:6" ht="18">
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="6:6" ht="18">
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="6:6" ht="18">
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="6:6" ht="18">
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="6:6" ht="18">
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="6:6" ht="18">
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="6:6" ht="18">
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="6:6" ht="18">
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="6:6" ht="18">
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="6:6" ht="18">
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="6:6" ht="18">
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="6:6" ht="18">
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="6:6" ht="18">
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="6:6" ht="18">
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="6:6" ht="18">
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="6:6" ht="18">
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="6:6" ht="18">
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="6:6" ht="18">
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="6:6" ht="18">
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" spans="6:6" ht="18">
+      <c r="F65" s="31"/>
+    </row>
+    <row r="66" spans="6:6" ht="18">
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="6:6" ht="18">
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" spans="6:6" ht="18">
+      <c r="F68" s="31"/>
+    </row>
+    <row r="69" spans="6:6" ht="18">
+      <c r="F69" s="31"/>
+    </row>
+    <row r="70" spans="6:6" ht="18">
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="6:6" ht="18">
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="6:6" ht="18">
+      <c r="F72" s="31"/>
+    </row>
+    <row r="73" spans="6:6" ht="18">
+      <c r="F73" s="31"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49058,272 +49725,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B73DA-0631-CA47-AE4E-9C96F2353AB8}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>197</v>
+      <c r="A1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="29">
         <v>-9.8584166412597596E-2</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>-8.5617661820756141E-2</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>-8.9386491049690764E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="29">
         <v>-2.4202355199732906E-2</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>7.277922514497015E-2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>6.1349400009080846E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="30">
+      <c r="A4" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="29">
         <v>-9.4527828992855278E-3</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>-1.0922625530115693E-2</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>-1.0230686295118474E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="29">
         <v>1.957902819000279E-2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>-4.8573189936511607E-2</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>-2.0327929432213954E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="30">
+      <c r="A6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="29">
         <v>-0.13082254612170008</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>8.0548284713528595E-3</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>-0.10101897519046421</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="A7" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="29">
         <v>-1.3146380955662007E-2</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>4.9278608154151859E-2</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>1.8207196455272578E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="A8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="29">
         <v>-1.3400977497078914E-3</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>-1.3033129323763992E-2</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>-3.1569684812242649E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="30">
+      <c r="A9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="29">
         <v>8.6045091610129631E-3</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>-2.3038979195998732E-2</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>7.2312211083909173E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="A10" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="29">
         <v>-2.0373768670736148E-3</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>-7.1588720167111264E-2</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>-4.9387447796636286E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="29">
         <v>-7.4506039062984031E-2</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>-0.10853353024529477</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>-9.3137509888338577E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="A12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="29">
         <v>1.5926539787773253E-2</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <v>-3.6165337853945378E-2</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>-3.2779353873625294E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="30">
+      <c r="A13" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="29">
         <v>-3.3194663946651382E-2</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <v>-4.1867135095641883E-2</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>-3.6947896536471125E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="30">
+      <c r="A14" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="29">
         <v>-5.2234484717663454E-2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>-1.9887767507147158E-2</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <v>-4.5612608726683712E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="30">
+      <c r="A15" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="29">
         <v>-8.3842121111726176E-2</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <v>1.0671354147059109E-2</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>-7.3834025692786187E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="30">
+      <c r="A16" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="29">
         <v>-2.0634762341944279E-2</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>-4.2886013787892807E-3</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>-8.6808332428619517E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="30">
+      <c r="A17" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="29">
         <v>1.2220207025338103E-2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>-5.6085072130316105E-2</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>3.1768822601314639E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="30">
+      <c r="A18" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="29">
         <v>-2.3939163436452526E-2</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>1.5664912442679979E-2</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>-1.9330226139112172E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="30">
+      <c r="A19" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="29">
         <v>-1.1337314760303197E-2</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>-4.8286935131272468E-2</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>-2.1414476539736493E-2</v>
       </c>
     </row>
@@ -49346,10 +50013,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE529FD-4597-F641-B496-01BE3204D79B}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51275,6 +51942,17 @@
         <v>40.229999999999997</v>
       </c>
     </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B126">
+        <v>7.42</v>
+      </c>
+      <c r="E126">
+        <v>40.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51282,10 +51960,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DA751-8DDE-2444-A8CE-DEF963043B5D}">
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="E371" sqref="E371"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -63546,6 +64224,198 @@
         <v>66.569999999999993</v>
       </c>
     </row>
+    <row r="384" spans="1:10">
+      <c r="A384" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B384">
+        <v>61.52</v>
+      </c>
+      <c r="C384">
+        <v>53.17</v>
+      </c>
+      <c r="D384">
+        <v>66.06</v>
+      </c>
+      <c r="E384">
+        <v>61.09</v>
+      </c>
+      <c r="F384">
+        <v>53.14</v>
+      </c>
+      <c r="G384">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="H384">
+        <v>61.81</v>
+      </c>
+      <c r="I384">
+        <v>53.19</v>
+      </c>
+      <c r="J384">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
+      <c r="A385" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B385">
+        <v>61.7</v>
+      </c>
+      <c r="C385">
+        <v>53.5</v>
+      </c>
+      <c r="D385">
+        <v>66.42</v>
+      </c>
+      <c r="E385">
+        <v>61.09</v>
+      </c>
+      <c r="F385">
+        <v>53.14</v>
+      </c>
+      <c r="G385">
+        <v>65.73</v>
+      </c>
+      <c r="H385">
+        <v>62.1</v>
+      </c>
+      <c r="I385">
+        <v>53.74</v>
+      </c>
+      <c r="J385">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
+      <c r="A386" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B386">
+        <v>62.06</v>
+      </c>
+      <c r="C386">
+        <v>53.67</v>
+      </c>
+      <c r="D386">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="E386">
+        <v>61.54</v>
+      </c>
+      <c r="F386">
+        <v>53.14</v>
+      </c>
+      <c r="G386">
+        <v>65.73</v>
+      </c>
+      <c r="H386">
+        <v>62.39</v>
+      </c>
+      <c r="I386">
+        <v>54.02</v>
+      </c>
+      <c r="J386">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
+      <c r="A387" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B387">
+        <v>62.23</v>
+      </c>
+      <c r="C387">
+        <v>53.67</v>
+      </c>
+      <c r="D387">
+        <v>66.42</v>
+      </c>
+      <c r="E387">
+        <v>61.99</v>
+      </c>
+      <c r="F387">
+        <v>53.14</v>
+      </c>
+      <c r="G387">
+        <v>66.2</v>
+      </c>
+      <c r="H387">
+        <v>62.39</v>
+      </c>
+      <c r="I387">
+        <v>54.02</v>
+      </c>
+      <c r="J387">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B388">
+        <v>62.23</v>
+      </c>
+      <c r="C388">
+        <v>54.17</v>
+      </c>
+      <c r="D388">
+        <v>66.42</v>
+      </c>
+      <c r="E388">
+        <v>61.99</v>
+      </c>
+      <c r="F388">
+        <v>53.56</v>
+      </c>
+      <c r="G388">
+        <v>66.2</v>
+      </c>
+      <c r="H388">
+        <v>62.39</v>
+      </c>
+      <c r="I388">
+        <v>54.57</v>
+      </c>
+      <c r="J388">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10">
+      <c r="A389" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B389">
+        <v>62.41</v>
+      </c>
+      <c r="C389">
+        <v>54.17</v>
+      </c>
+      <c r="D389">
+        <v>66.61</v>
+      </c>
+      <c r="E389">
+        <v>61.99</v>
+      </c>
+      <c r="F389">
+        <v>53.56</v>
+      </c>
+      <c r="G389">
+        <v>66.2</v>
+      </c>
+      <c r="H389">
+        <v>62.68</v>
+      </c>
+      <c r="I389">
+        <v>54.57</v>
+      </c>
+      <c r="J389">
+        <v>66.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Manual/input-data.xlsx
+++ b/Manual/input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker-git/nimf-tracker/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109C2AA3-8173-6C47-9D86-CEF5A7AAD63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D70ACD-8951-D14F-A9E7-6A4E6A8BEC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="10460" windowWidth="17060" windowHeight="9960" firstSheet="13" activeTab="19" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
+    <workbookView xWindow="8040" yWindow="10140" windowWidth="11200" windowHeight="9660" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
   </bookViews>
   <sheets>
     <sheet name="gst-eway" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="201">
   <si>
     <t>e-Way</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Chhattisgarh</t>
   </si>
   <si>
-    <t>8 </t>
-  </si>
-  <si>
     <t>Dadra and Nagar Haveli and Daman and Diu</t>
   </si>
   <si>
@@ -437,22 +434,7 @@
     <t>12 </t>
   </si>
   <si>
-    <t>25 </t>
-  </si>
-  <si>
-    <t>7 </t>
-  </si>
-  <si>
     <t>9 </t>
-  </si>
-  <si>
-    <t>Kerala***</t>
-  </si>
-  <si>
-    <t>80 </t>
-  </si>
-  <si>
-    <t>303 </t>
   </si>
   <si>
     <t>18 </t>
@@ -524,163 +506,154 @@
     <t>Region</t>
   </si>
   <si>
-    <t>218 </t>
-  </si>
-  <si>
-    <t>496 </t>
-  </si>
-  <si>
-    <t>43 </t>
-  </si>
-  <si>
-    <t>59 </t>
-  </si>
-  <si>
-    <t>56 </t>
-  </si>
-  <si>
-    <t>73 </t>
-  </si>
-  <si>
-    <t>31 </t>
-  </si>
-  <si>
-    <t>100 </t>
-  </si>
-  <si>
-    <t>315 </t>
-  </si>
-  <si>
-    <t>191 </t>
-  </si>
-  <si>
-    <t>649 </t>
-  </si>
-  <si>
-    <t>60 </t>
-  </si>
-  <si>
-    <t>90 </t>
-  </si>
-  <si>
-    <t>404 </t>
-  </si>
-  <si>
-    <t>644 </t>
-  </si>
-  <si>
-    <t>190 </t>
-  </si>
-  <si>
-    <t>585 </t>
-  </si>
-  <si>
-    <t>149 </t>
-  </si>
-  <si>
-    <t>297 </t>
-  </si>
-  <si>
-    <t>92 </t>
-  </si>
-  <si>
-    <t>187 </t>
-  </si>
-  <si>
-    <t>33 </t>
-  </si>
-  <si>
-    <t>85 </t>
-  </si>
-  <si>
-    <t>736 </t>
-  </si>
-  <si>
-    <t>1349 </t>
-  </si>
-  <si>
     <t>15 </t>
-  </si>
-  <si>
-    <t>4433 </t>
-  </si>
-  <si>
-    <t>7837 </t>
-  </si>
-  <si>
-    <t>49 </t>
-  </si>
-  <si>
-    <t>42 </t>
-  </si>
-  <si>
-    <t>361 </t>
-  </si>
-  <si>
-    <t>889 </t>
-  </si>
-  <si>
-    <t>1560 </t>
-  </si>
-  <si>
-    <t>2521 </t>
   </si>
   <si>
     <t>27 </t>
   </si>
   <si>
-    <t>10 </t>
-  </si>
-  <si>
     <t>34 </t>
-  </si>
-  <si>
-    <t>1207 </t>
-  </si>
-  <si>
-    <t>247 </t>
-  </si>
-  <si>
-    <t>39 </t>
   </si>
   <si>
     <t>51 </t>
   </si>
   <si>
-    <t>164 </t>
+    <t>202 </t>
   </si>
   <si>
-    <t>857 </t>
+    <t>288 </t>
   </si>
   <si>
-    <t>1510 </t>
+    <t>17 </t>
   </si>
   <si>
-    <t>1290 </t>
+    <t>24 </t>
   </si>
   <si>
-    <t>1794 </t>
+    <t>64 </t>
   </si>
   <si>
-    <t>282 </t>
+    <t>22 </t>
   </si>
   <si>
-    <t>569 </t>
+    <t>117 </t>
   </si>
   <si>
-    <t>106 </t>
+    <t>224 </t>
   </si>
   <si>
-    <t>357 </t>
+    <t>122 </t>
   </si>
   <si>
-    <t>823 </t>
+    <t>420 </t>
   </si>
   <si>
-    <t>174 </t>
+    <t>30 </t>
   </si>
   <si>
-    <t>430 </t>
+    <t>141 </t>
+  </si>
+  <si>
+    <t>237 </t>
+  </si>
+  <si>
+    <t>89 </t>
+  </si>
+  <si>
+    <t>326 </t>
+  </si>
+  <si>
+    <t>96 </t>
+  </si>
+  <si>
+    <t>163 </t>
+  </si>
+  <si>
+    <t>83 </t>
+  </si>
+  <si>
+    <t>55 </t>
+  </si>
+  <si>
+    <t>75 </t>
+  </si>
+  <si>
+    <t>421 </t>
+  </si>
+  <si>
+    <t>648 </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>1942 </t>
+  </si>
+  <si>
+    <t>3878 </t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>362 </t>
+  </si>
+  <si>
+    <t>515 </t>
+  </si>
+  <si>
+    <t>476 </t>
+  </si>
+  <si>
+    <t>992 </t>
+  </si>
+  <si>
+    <t>35 </t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>373 </t>
+  </si>
+  <si>
+    <t>805 </t>
+  </si>
+  <si>
+    <t>263 </t>
+  </si>
+  <si>
+    <t>116 </t>
+  </si>
+  <si>
+    <t>152 </t>
+  </si>
+  <si>
+    <t>464 </t>
+  </si>
+  <si>
+    <t>445 </t>
+  </si>
+  <si>
+    <t>705 </t>
+  </si>
+  <si>
+    <t>222 </t>
+  </si>
+  <si>
+    <t>374 </t>
+  </si>
+  <si>
+    <t>231 </t>
+  </si>
+  <si>
+    <t>279 </t>
+  </si>
+  <si>
+    <t>145 </t>
+  </si>
+  <si>
+    <t>346 </t>
   </si>
 </sst>
 </file>
@@ -691,7 +664,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -825,6 +798,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -869,7 +849,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -917,6 +897,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37651D-4599-2748-92D7-4C797FB0A6C3}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1529,9 +1511,11 @@
         <v>44593</v>
       </c>
       <c r="B27">
-        <v>47656893</v>
-      </c>
-      <c r="C27" s="17"/>
+        <v>66055997</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1330260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8730D1-B073-F949-92E6-FAE69CFEA773}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2530,6 +2514,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B78">
+        <v>54.9</v>
+      </c>
+      <c r="C78">
+        <v>51.8</v>
+      </c>
+      <c r="D78">
+        <v>53.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFAB418-80AA-504F-AAFE-ECE862BB3CFF}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
@@ -3634,6 +3632,20 @@
         <v>1325607</v>
       </c>
     </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B79" s="17">
+        <v>1380570</v>
+      </c>
+      <c r="C79" s="17">
+        <v>112681</v>
+      </c>
+      <c r="D79" s="17">
+        <v>1267889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3641,10 +3653,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975B50F9-B9F7-634D-8B29-BB68178E8695}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3668,1039 +3680,1047 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3631.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>44562</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="7">
         <v>3603.71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7">
-        <v>3679.42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>3177.17</v>
+      <c r="E4" s="7">
+        <v>3679.42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7">
-        <v>3356.74</v>
+      <c r="E5" s="5">
+        <v>3177.17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6">
-        <v>44440</v>
-      </c>
-      <c r="B6" s="5">
-        <v>33</v>
-      </c>
+        <v>44470</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>3009.3</v>
+      <c r="E6" s="7">
+        <v>3356.74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B7" s="5">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>3009.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
         <v>44409</v>
-      </c>
-      <c r="B7" s="7">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7">
-        <v>37969696</v>
-      </c>
-      <c r="D7" s="7">
-        <v>201.2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3076.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8">
-        <v>44378</v>
       </c>
       <c r="B8" s="7">
         <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>36337603</v>
+        <v>37969696</v>
       </c>
       <c r="D8" s="7">
-        <v>192.33</v>
+        <v>201.2</v>
       </c>
       <c r="E8" s="7">
-        <v>2976.39</v>
+        <v>3076.56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B9" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7">
-        <v>34734802</v>
+        <v>36337603</v>
       </c>
       <c r="D9" s="7">
-        <v>157.86000000000001</v>
+        <v>192.33</v>
       </c>
       <c r="E9" s="7">
-        <v>2576.2800000000002</v>
+        <v>2976.39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B10" s="7">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7">
+        <v>34734802</v>
+      </c>
+      <c r="D10" s="7">
+        <v>157.86000000000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2576.2800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
         <v>44317</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>32</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>33448613</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>116.48</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>2125.16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
         <v>44287</v>
-      </c>
-      <c r="B11" s="7">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7">
-        <v>32716094</v>
-      </c>
-      <c r="D11" s="7">
-        <v>164.32</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2776.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>44256</v>
       </c>
       <c r="B12" s="7">
         <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>31209935</v>
+        <v>32716094</v>
       </c>
       <c r="D12" s="7">
-        <v>193.21</v>
+        <v>164.32</v>
       </c>
       <c r="E12" s="7">
-        <v>3086.32</v>
+        <v>2776.9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B13" s="7">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>31209935</v>
+      </c>
+      <c r="D13" s="7">
+        <v>193.21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3086.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
         <v>44228</v>
-      </c>
-      <c r="B13" s="7">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7">
-        <v>158.96</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2556.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6">
-        <v>44197</v>
       </c>
       <c r="B14" s="7">
         <v>29</v>
       </c>
-      <c r="C14" s="7">
-        <v>24945261</v>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>148.56</v>
+        <v>158.96</v>
       </c>
       <c r="E14" s="7">
-        <v>2397.84</v>
+        <v>2556.34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B15" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
-        <v>22950023</v>
+        <v>24945261</v>
       </c>
       <c r="D15" s="7">
-        <v>138.41</v>
+        <v>148.56</v>
       </c>
       <c r="E15" s="7">
-        <v>2303.79</v>
+        <v>2397.84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6">
+        <v>44166</v>
+      </c>
+      <c r="B16" s="7">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22950023</v>
+      </c>
+      <c r="D16" s="7">
+        <v>138.41</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2303.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
         <v>44136</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>27</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>21096651</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>124.88</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>2102.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18">
-      <c r="A17" s="9">
-        <v>44105</v>
-      </c>
-      <c r="B17" s="10">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10">
-        <v>20206215</v>
-      </c>
-      <c r="D17" s="10">
-        <v>122.36</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2137.16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18">
       <c r="A18" s="9">
+        <v>44105</v>
+      </c>
+      <c r="B18" s="10">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10">
+        <v>20206215</v>
+      </c>
+      <c r="D18" s="10">
+        <v>122.36</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2137.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="9">
         <v>44075</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11">
+      <c r="B19" s="5"/>
+      <c r="C19" s="11">
         <v>19404168</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>110.08</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>1940.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="6">
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="6">
         <v>44044</v>
-      </c>
-      <c r="B19" s="5">
-        <v>26</v>
-      </c>
-      <c r="C19" s="11">
-        <v>18695199</v>
-      </c>
-      <c r="D19" s="11">
-        <v>96.83</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1712.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="9">
-        <v>44013</v>
       </c>
       <c r="B20" s="5">
         <v>26</v>
       </c>
       <c r="C20" s="11">
-        <v>18087896</v>
+        <v>18695199</v>
       </c>
       <c r="D20" s="11">
-        <v>86.62</v>
+        <v>96.83</v>
       </c>
       <c r="E20" s="11">
-        <v>1623.3</v>
+        <v>1712.58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18">
       <c r="A21" s="9">
-        <v>43983</v>
-      </c>
-      <c r="B21" s="11">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="5">
         <v>26</v>
       </c>
       <c r="C21" s="11">
-        <v>17522199</v>
+        <v>18087896</v>
       </c>
       <c r="D21" s="11">
-        <v>81.92</v>
+        <v>86.62</v>
       </c>
       <c r="E21" s="11">
-        <v>1511.93</v>
+        <v>1623.3</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B22" s="11">
         <v>26</v>
       </c>
       <c r="C22" s="11">
-        <v>17023529</v>
+        <v>17522199</v>
       </c>
       <c r="D22" s="11">
-        <v>55.17</v>
+        <v>81.92</v>
       </c>
       <c r="E22" s="11">
-        <v>1142.3399999999999</v>
+        <v>1511.93</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18">
       <c r="A23" s="9">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B23" s="11">
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <v>16841414</v>
+        <v>17023529</v>
       </c>
       <c r="D23" s="11">
-        <v>10.26</v>
+        <v>55.17</v>
       </c>
       <c r="E23" s="11">
-        <v>247.58</v>
+        <v>1142.3399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18">
       <c r="A24" s="9">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B24" s="11">
         <v>26</v>
       </c>
       <c r="C24" s="11">
-        <v>16820979</v>
+        <v>16841414</v>
       </c>
       <c r="D24" s="11">
-        <v>84.55</v>
+        <v>10.26</v>
       </c>
       <c r="E24" s="11">
-        <v>1421.01</v>
+        <v>247.58</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18">
       <c r="A25" s="9">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B25" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11">
-        <v>16018822</v>
+        <v>16820979</v>
       </c>
       <c r="D25" s="11">
-        <v>110.13</v>
+        <v>84.55</v>
       </c>
       <c r="E25" s="11">
-        <v>1841.22</v>
+        <v>1421.01</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18">
       <c r="A26" s="9">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B26" s="11">
         <v>25</v>
       </c>
       <c r="C26" s="11">
-        <v>14423128</v>
+        <v>16018822</v>
       </c>
       <c r="D26" s="11">
-        <v>93.02</v>
+        <v>110.13</v>
       </c>
       <c r="E26" s="11">
-        <v>1622.68</v>
+        <v>1841.22</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18">
       <c r="A27" s="9">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B27" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11">
-        <v>11666372</v>
+        <v>14423128</v>
       </c>
       <c r="D27" s="11">
-        <v>64.33</v>
+        <v>93.02</v>
       </c>
       <c r="E27" s="11">
-        <v>1256.8399999999999</v>
+        <v>1622.68</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18">
       <c r="A28" s="9">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B28" s="11">
         <v>24</v>
       </c>
       <c r="C28" s="11">
-        <v>7901499</v>
+        <v>11666372</v>
       </c>
       <c r="D28" s="11">
-        <v>34.92</v>
+        <v>64.33</v>
       </c>
       <c r="E28" s="11">
-        <v>773.95</v>
+        <v>1256.8399999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18">
       <c r="A29" s="9">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B29" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="11">
-        <v>6371309</v>
+        <v>7901499</v>
       </c>
       <c r="D29" s="11">
-        <v>31.46</v>
+        <v>34.92</v>
       </c>
       <c r="E29" s="11">
-        <v>702.86</v>
+        <v>773.95</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18">
       <c r="A30" s="9">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B30" s="11">
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>5998947</v>
+        <v>6371309</v>
       </c>
       <c r="D30" s="11">
-        <v>29.01</v>
+        <v>31.46</v>
       </c>
       <c r="E30" s="11">
-        <v>658.94</v>
+        <v>702.86</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18">
       <c r="A31" s="9">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B31" s="11">
         <v>23</v>
       </c>
       <c r="C31" s="11">
-        <v>5717702</v>
+        <v>5998947</v>
       </c>
       <c r="D31" s="11">
-        <v>27.78</v>
+        <v>29.01</v>
       </c>
       <c r="E31" s="11">
-        <v>610.52</v>
+        <v>658.94</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18">
       <c r="A32" s="9">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B32" s="11">
         <v>23</v>
       </c>
       <c r="C32" s="11">
-        <v>5469196</v>
+        <v>5717702</v>
       </c>
       <c r="D32" s="11">
-        <v>27.26</v>
+        <v>27.78</v>
       </c>
       <c r="E32" s="11">
-        <v>608.51</v>
+        <v>610.52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18">
       <c r="A33" s="9">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B33" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="11">
-        <v>5222312</v>
+        <v>5469196</v>
       </c>
       <c r="D33" s="11">
-        <v>26.61</v>
+        <v>27.26</v>
       </c>
       <c r="E33" s="11">
-        <v>596.17999999999995</v>
+        <v>608.51</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18">
       <c r="A34" s="9">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B34" s="11">
         <v>22</v>
       </c>
       <c r="C34" s="11">
-        <v>5001217</v>
+        <v>5222312</v>
       </c>
       <c r="D34" s="11">
-        <v>27.52</v>
+        <v>26.61</v>
       </c>
       <c r="E34" s="11">
-        <v>616.4</v>
+        <v>596.17999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18">
       <c r="A35" s="9">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B35" s="11">
         <v>22</v>
       </c>
       <c r="C35" s="11">
-        <v>4772434</v>
+        <v>5001217</v>
       </c>
       <c r="D35" s="11">
-        <v>25.98</v>
+        <v>27.52</v>
       </c>
       <c r="E35" s="11">
-        <v>585.38</v>
+        <v>616.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18">
       <c r="A36" s="9">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B36" s="11">
         <v>22</v>
       </c>
       <c r="C36" s="11">
-        <v>4554913</v>
+        <v>4772434</v>
       </c>
       <c r="D36" s="11">
-        <v>26.73</v>
+        <v>25.98</v>
       </c>
       <c r="E36" s="11">
-        <v>595.78</v>
+        <v>585.38</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18">
       <c r="A37" s="9">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B37" s="11">
         <v>22</v>
       </c>
       <c r="C37" s="11">
-        <v>4315255</v>
+        <v>4554913</v>
       </c>
       <c r="D37" s="11">
-        <v>23.85</v>
+        <v>26.73</v>
       </c>
       <c r="E37" s="11">
-        <v>527.44000000000005</v>
+        <v>595.78</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18">
       <c r="A38" s="9">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B38" s="11">
         <v>22</v>
       </c>
       <c r="C38" s="11">
-        <v>4088478</v>
+        <v>4315255</v>
       </c>
       <c r="D38" s="11">
-        <v>24.52</v>
+        <v>23.85</v>
       </c>
       <c r="E38" s="11">
-        <v>535.91</v>
+        <v>527.44000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18">
       <c r="A39" s="9">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B39" s="11">
         <v>22</v>
       </c>
       <c r="C39" s="11">
-        <v>3821564</v>
+        <v>4088478</v>
       </c>
       <c r="D39" s="11">
-        <v>24.21</v>
+        <v>24.52</v>
       </c>
       <c r="E39" s="11">
-        <v>534.11</v>
+        <v>535.91</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18">
       <c r="A40" s="9">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B40" s="11">
         <v>22</v>
       </c>
       <c r="C40" s="11">
-        <v>3583989</v>
+        <v>3821564</v>
       </c>
       <c r="D40" s="11">
-        <v>21.22</v>
+        <v>24.21</v>
       </c>
       <c r="E40" s="11">
-        <v>466.83</v>
+        <v>534.11</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18">
       <c r="A41" s="9">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B41" s="11">
         <v>22</v>
       </c>
       <c r="C41" s="11">
-        <v>3349309</v>
+        <v>3583989</v>
       </c>
       <c r="D41" s="11">
-        <v>22.28</v>
+        <v>21.22</v>
       </c>
       <c r="E41" s="11">
-        <v>502.47</v>
+        <v>466.83</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18">
       <c r="A42" s="9">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B42" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="11">
-        <v>3102686</v>
+        <v>3349309</v>
       </c>
       <c r="D42" s="11">
-        <v>20.64</v>
+        <v>22.28</v>
       </c>
       <c r="E42" s="11">
-        <v>470.65</v>
+        <v>502.47</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18">
       <c r="A43" s="9">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B43" s="11">
         <v>21</v>
       </c>
       <c r="C43" s="11">
-        <v>2879997</v>
+        <v>3102686</v>
       </c>
       <c r="D43" s="11">
-        <v>20.39</v>
+        <v>20.64</v>
       </c>
       <c r="E43" s="11">
-        <v>463.88</v>
+        <v>470.65</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18">
       <c r="A44" s="9">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B44" s="11">
         <v>21</v>
       </c>
       <c r="C44" s="11">
-        <v>2638733</v>
+        <v>2879997</v>
       </c>
       <c r="D44" s="11">
-        <v>18.47</v>
+        <v>20.39</v>
       </c>
       <c r="E44" s="11">
-        <v>418.08</v>
+        <v>463.88</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18">
       <c r="A45" s="9">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B45" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="11">
-        <v>2395938</v>
+        <v>2638733</v>
       </c>
       <c r="D45" s="11">
-        <v>18.29</v>
+        <v>18.47</v>
       </c>
       <c r="E45" s="11">
-        <v>428.61</v>
+        <v>418.08</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18">
       <c r="A46" s="9">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B46" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="11">
-        <v>2138615</v>
+        <v>2395938</v>
       </c>
       <c r="D46" s="11">
-        <v>17.87</v>
+        <v>18.29</v>
       </c>
       <c r="E46" s="11">
-        <v>426.62</v>
+        <v>428.61</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18">
       <c r="A47" s="9">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B47" s="11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47" s="11">
-        <v>1882586</v>
+        <v>2138615</v>
       </c>
       <c r="D47" s="11">
-        <v>15.88</v>
+        <v>17.87</v>
       </c>
       <c r="E47" s="11">
-        <v>390.07</v>
+        <v>426.62</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18">
       <c r="A48" s="9">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B48" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" s="11">
-        <v>1633868</v>
+        <v>1882586</v>
       </c>
       <c r="D48" s="11">
-        <v>15.49</v>
+        <v>15.88</v>
       </c>
       <c r="E48" s="11">
-        <v>382.14</v>
+        <v>390.07</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18">
       <c r="A49" s="9">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B49" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="11">
-        <v>1366224</v>
+        <v>1633868</v>
       </c>
       <c r="D49" s="11">
-        <v>13.71</v>
+        <v>15.49</v>
       </c>
       <c r="E49" s="11">
-        <v>345.94</v>
+        <v>382.14</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18">
       <c r="A50" s="9">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B50" s="11">
         <v>14</v>
       </c>
       <c r="C50" s="11">
-        <v>1146807</v>
+        <v>1366224</v>
       </c>
       <c r="D50" s="11">
-        <v>12.93</v>
+        <v>13.71</v>
       </c>
       <c r="E50" s="11">
-        <v>327.76</v>
+        <v>345.94</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18">
       <c r="A51" s="9">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B51" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11">
-        <v>915205</v>
+        <v>1146807</v>
       </c>
       <c r="D51" s="11">
-        <v>12.29</v>
+        <v>12.93</v>
       </c>
       <c r="E51" s="11">
-        <v>319.82</v>
+        <v>327.76</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18">
       <c r="A52" s="9">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B52" s="11">
         <v>12</v>
       </c>
       <c r="C52" s="11">
-        <v>768923</v>
+        <v>915205</v>
       </c>
       <c r="D52" s="11">
-        <v>10.7</v>
+        <v>12.29</v>
       </c>
       <c r="E52" s="11">
-        <v>285.26</v>
+        <v>319.82</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18">
       <c r="A53" s="9">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B53" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" s="11">
-        <v>724407</v>
+        <v>768923</v>
       </c>
       <c r="D53" s="11">
-        <v>9.7899999999999991</v>
+        <v>10.7</v>
       </c>
       <c r="E53" s="11">
-        <v>262.62</v>
+        <v>285.26</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18">
       <c r="A54" s="9">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B54" s="11">
         <v>11</v>
       </c>
       <c r="C54" s="11">
-        <v>685420</v>
+        <v>724407</v>
       </c>
       <c r="D54" s="11">
-        <v>10.14</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="E54" s="11">
-        <v>275.14999999999998</v>
+        <v>262.62</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18">
       <c r="A55" s="9">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B55" s="11">
         <v>11</v>
       </c>
       <c r="C55" s="11">
-        <v>617623</v>
+        <v>685420</v>
       </c>
       <c r="D55" s="11">
-        <v>9.66</v>
+        <v>10.14</v>
       </c>
       <c r="E55" s="11">
-        <v>257.86</v>
+        <v>275.14999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18">
       <c r="A56" s="9">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B56" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="11">
-        <v>564049</v>
+        <v>617623</v>
       </c>
       <c r="D56" s="11">
-        <v>8.64</v>
+        <v>9.66</v>
       </c>
       <c r="E56" s="11">
-        <v>234.18</v>
+        <v>257.86</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18">
       <c r="A57" s="9">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B57" s="11">
         <v>10</v>
       </c>
       <c r="C57" s="11">
-        <v>522960</v>
+        <v>564049</v>
       </c>
       <c r="D57" s="11">
-        <v>8.2100000000000009</v>
+        <v>8.64</v>
       </c>
       <c r="E57" s="11">
-        <v>225.76</v>
+        <v>234.18</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18">
       <c r="A58" s="9">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B58" s="11">
         <v>10</v>
       </c>
       <c r="C58" s="11">
-        <v>493231</v>
+        <v>522960</v>
       </c>
       <c r="D58" s="11">
-        <v>8.07</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E58" s="11">
-        <v>225.38</v>
+        <v>225.76</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18">
       <c r="A59" s="9">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B59" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C59" s="11">
-        <v>455705</v>
+        <v>493231</v>
       </c>
       <c r="D59" s="11">
-        <v>7.41</v>
+        <v>8.07</v>
       </c>
       <c r="E59" s="11">
-        <v>210.53</v>
+        <v>225.38</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18">
       <c r="A60" s="9">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B60" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="11">
-        <v>412497</v>
+        <v>455705</v>
       </c>
       <c r="D60" s="11">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="E60" s="11">
-        <v>209.39</v>
+        <v>210.53</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18">
       <c r="A61" s="9">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B61" s="11">
         <v>6</v>
       </c>
       <c r="C61" s="11">
-        <v>342960</v>
+        <v>412497</v>
       </c>
       <c r="D61" s="11">
-        <v>6.55</v>
+        <v>7.5</v>
       </c>
       <c r="E61" s="11">
-        <v>184.21</v>
+        <v>209.39</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18">
       <c r="A62" s="9">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B62" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="11">
-        <v>289033</v>
+        <v>342960</v>
       </c>
       <c r="D62" s="11">
-        <v>6.41</v>
+        <v>6.55</v>
       </c>
       <c r="E62" s="11">
-        <v>178.95</v>
+        <v>184.21</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18">
       <c r="A63" s="9">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B63" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="11">
-        <v>208761</v>
+        <v>289033</v>
       </c>
       <c r="D63" s="11">
-        <v>3.19</v>
+        <v>6.41</v>
       </c>
       <c r="E63" s="11">
-        <v>88.12</v>
+        <v>178.95</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18">
       <c r="A64" s="9">
+        <v>42705</v>
+      </c>
+      <c r="B64" s="11">
+        <v>4</v>
+      </c>
+      <c r="C64" s="11">
+        <v>208761</v>
+      </c>
+      <c r="D64" s="11">
+        <v>3.19</v>
+      </c>
+      <c r="E64" s="11">
+        <v>88.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18">
+      <c r="A65" s="9">
         <v>42675</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B65" s="11">
         <v>3</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C65" s="11">
         <v>107801</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D65" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E65" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4711,10 +4731,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE768D-FDEC-414C-B856-7F93E0E94CC0}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4975,7 +4995,7 @@
         <v>17854</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="12">
         <v>44501</v>
       </c>
@@ -4983,7 +5003,7 @@
         <v>17131</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="12">
         <v>44531</v>
       </c>
@@ -4991,13 +5011,14 @@
         <v>18434</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" s="4">
         <v>44562</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="5">
         <v>17614</v>
       </c>
+      <c r="C35" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5006,11 +5027,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F5E2-B870-4348-99F8-4B5FD1019E5B}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6082,8 +6103,8 @@
       <c r="E31" s="13">
         <v>56383.3</v>
       </c>
-      <c r="F31" s="13">
-        <v>33443.699999999997</v>
+      <c r="F31" s="37">
+        <v>33815.9</v>
       </c>
       <c r="G31" s="5">
         <v>53628</v>
@@ -6105,20 +6126,20 @@
       <c r="A32" s="6">
         <v>44470</v>
       </c>
-      <c r="B32" s="19">
-        <v>9503</v>
-      </c>
-      <c r="C32" s="19">
-        <v>8752</v>
+      <c r="B32" s="37">
+        <v>9790</v>
+      </c>
+      <c r="C32" s="37">
+        <v>9039</v>
       </c>
       <c r="D32" s="19">
         <v>117350</v>
       </c>
-      <c r="E32" s="19">
-        <v>53428.9</v>
-      </c>
-      <c r="F32" s="19">
-        <v>35623.699999999997</v>
+      <c r="E32" s="37">
+        <v>53422.5</v>
+      </c>
+      <c r="F32" s="37">
+        <v>35712.300000000003</v>
       </c>
       <c r="G32" s="19">
         <v>59956</v>
@@ -6140,20 +6161,20 @@
       <c r="A33" s="6">
         <v>44501</v>
       </c>
-      <c r="B33" s="19">
-        <v>9220</v>
-      </c>
-      <c r="C33" s="19">
-        <v>8502</v>
+      <c r="B33" s="37">
+        <v>9269</v>
+      </c>
+      <c r="C33" s="37">
+        <v>8551</v>
       </c>
       <c r="D33" s="19">
         <v>116830</v>
       </c>
-      <c r="E33" s="19">
-        <v>52881</v>
-      </c>
-      <c r="F33" s="19">
-        <v>31740</v>
+      <c r="E33" s="37">
+        <v>53388.2</v>
+      </c>
+      <c r="F33" s="37">
+        <v>31796.6</v>
       </c>
       <c r="G33" s="19">
         <v>59428</v>
@@ -6175,20 +6196,20 @@
       <c r="A34" s="6">
         <v>44531</v>
       </c>
-      <c r="B34" s="19">
-        <v>9390</v>
-      </c>
-      <c r="C34" s="19">
-        <v>8728</v>
+      <c r="B34" s="37">
+        <v>10073</v>
+      </c>
+      <c r="C34" s="37">
+        <v>9408</v>
       </c>
       <c r="D34" s="19">
         <v>126780</v>
       </c>
-      <c r="E34" s="19">
-        <v>59341</v>
-      </c>
-      <c r="F34" s="19">
-        <v>37335</v>
+      <c r="E34" s="37">
+        <v>60309.5</v>
+      </c>
+      <c r="F34" s="37">
+        <v>39307.9</v>
       </c>
       <c r="G34" s="19">
         <v>62930</v>
@@ -6210,29 +6231,52 @@
       <c r="A35" s="2">
         <v>44562</v>
       </c>
-      <c r="B35" s="17">
-        <v>9812</v>
-      </c>
-      <c r="C35" s="17">
-        <v>9653</v>
+      <c r="B35" s="37">
+        <v>10168</v>
+      </c>
+      <c r="C35" s="37">
+        <v>10087</v>
       </c>
       <c r="D35" s="17">
         <v>129010</v>
       </c>
-      <c r="E35" s="17">
-        <v>52002.5</v>
-      </c>
-      <c r="F35" s="17">
-        <v>34055.1</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="E35" s="37">
+        <v>53054.1</v>
+      </c>
+      <c r="F35" s="37">
+        <v>35150.400000000001</v>
+      </c>
+      <c r="G35" s="37">
+        <v>62492</v>
+      </c>
+      <c r="H35" s="37">
+        <v>1691850</v>
+      </c>
+      <c r="I35" s="37">
+        <v>2883260</v>
+      </c>
       <c r="J35" s="17">
         <v>26910</v>
       </c>
       <c r="K35" s="17">
         <v>15830</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B36" s="37">
+        <v>9706</v>
+      </c>
+      <c r="C36" s="37">
+        <v>9200</v>
+      </c>
+      <c r="E36" s="37">
+        <v>54984.9</v>
+      </c>
+      <c r="F36" s="37">
+        <v>33794.6</v>
       </c>
     </row>
   </sheetData>
@@ -6973,10 +7017,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC45300-6A73-FD40-9CA1-0A8697567D0E}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8022,6 +8066,14 @@
       </c>
       <c r="B130" s="17">
         <v>45508670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="14">
+        <v>44617</v>
+      </c>
+      <c r="B131" s="37">
+        <v>45829590</v>
       </c>
     </row>
   </sheetData>
@@ -9103,13 +9155,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0D774-4FB9-484A-8B9C-C85D078E33FB}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -9123,21 +9177,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:14" ht="18">
       <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D2" s="20">
-        <v>9872</v>
+        <v>9887</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F2" s="20">
         <v>129</v>
@@ -9145,61 +9199,55 @@
       <c r="G2" s="20"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" ht="18">
+    </row>
+    <row r="3" spans="1:14" ht="18">
       <c r="A3" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="20">
-        <v>4709</v>
+        <v>1341</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="20">
-        <v>2298033</v>
+        <v>2302192</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F3" s="20">
-        <v>14722</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>74</v>
-      </c>
+        <v>14729</v>
+      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="22">
-        <v>2</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" ht="18">
+    </row>
+    <row r="4" spans="1:14" ht="18">
       <c r="A4" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="20">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D4" s="20">
-        <v>63928</v>
+        <v>64092</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F4" s="20">
         <v>296</v>
@@ -9207,61 +9255,55 @@
       <c r="G4" s="20"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:15" ht="18">
+    </row>
+    <row r="5" spans="1:14" ht="18">
       <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="20">
-        <v>1610</v>
+        <v>1452</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D5" s="20">
-        <v>715840</v>
+        <v>716066</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F5" s="20">
-        <v>6638</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>6639</v>
+      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="22">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="1:15" ht="18">
+    </row>
+    <row r="6" spans="1:14" ht="18">
       <c r="A6" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="20">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D6" s="20">
-        <v>817349</v>
+        <v>817747</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F6" s="20">
         <v>12255</v>
@@ -9269,313 +9311,291 @@
       <c r="G6" s="20"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:15" ht="18">
+    </row>
+    <row r="7" spans="1:14" ht="18">
       <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="20">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D7" s="20">
-        <v>90356</v>
+        <v>90522</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F7" s="20">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="1:15" ht="18">
+    </row>
+    <row r="8" spans="1:14" ht="18">
       <c r="A8" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="20">
-        <v>1961</v>
+        <v>888</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D8" s="20">
-        <v>1134554</v>
+        <v>1136425</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8" s="20">
-        <v>14024</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>14030</v>
+      </c>
+      <c r="G8" s="20"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="22">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" ht="18">
+    </row>
+    <row r="9" spans="1:14" ht="18">
       <c r="A9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>74</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="20">
-        <v>11433</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>74</v>
-      </c>
+        <v>11434</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="20">
         <v>4</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="1:15" ht="18">
+    </row>
+    <row r="10" spans="1:14" ht="18">
       <c r="A10" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="20">
-        <v>2085</v>
+        <v>1466</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" s="20">
-        <v>1830412</v>
+        <v>1833589</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" s="20">
-        <v>26117</v>
+        <v>26134</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22">
-        <v>2</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" ht="18">
+    </row>
+    <row r="11" spans="1:14" ht="18">
       <c r="A11" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="20">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20">
-        <v>240791</v>
+        <v>241092</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" s="20">
-        <v>3800</v>
+        <v>3826</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22">
-        <v>2</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="18">
+    </row>
+    <row r="12" spans="1:14" ht="18">
       <c r="A12" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="20">
-        <v>2538</v>
+        <v>1109</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20">
-        <v>1208657</v>
+        <v>1211087</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" s="20">
-        <v>10924</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>70</v>
-      </c>
+        <v>10934</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="22">
-        <v>5</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:15" ht="18">
+    </row>
+    <row r="13" spans="1:14" ht="18">
       <c r="A13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="20">
-        <v>2310</v>
+        <v>1345</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20">
-        <v>967898</v>
+        <v>970766</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F13" s="20">
-        <v>10551</v>
+        <v>10571</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22">
-        <v>4</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:15" ht="18">
+    </row>
+    <row r="14" spans="1:14" ht="18">
       <c r="A14" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="20">
-        <v>1322</v>
+        <v>536</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20">
-        <v>277637</v>
+        <v>278947</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F14" s="20">
-        <v>4114</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>4122</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" ht="18">
+    </row>
+    <row r="15" spans="1:14" ht="18">
       <c r="A15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="20">
-        <v>995</v>
+        <v>412</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D15" s="20">
-        <v>447074</v>
+        <v>448006</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F15" s="20">
-        <v>4748</v>
-      </c>
-      <c r="G15" s="20"/>
+        <v>4749</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="1:15" ht="18">
+    </row>
+    <row r="16" spans="1:14" ht="18">
       <c r="A16" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="20">
-        <v>520</v>
+        <v>266</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D16" s="20">
-        <v>428436</v>
+        <v>428935</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F16" s="20">
         <v>5315</v>
@@ -9583,96 +9603,93 @@
       <c r="G16" s="20"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="1:15" ht="18">
+    </row>
+    <row r="17" spans="1:14" ht="18">
       <c r="A17" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="20">
-        <v>7556</v>
+        <v>3507</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D17" s="20">
-        <v>3892459</v>
+        <v>3898576</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F17" s="20">
-        <v>39900</v>
+        <v>39985</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22">
-        <v>15</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" ht="18">
+    </row>
+    <row r="18" spans="1:14" ht="18">
       <c r="A18" s="20" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B18" s="20">
-        <v>38040</v>
+        <v>17913</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D18" s="20">
-        <v>6388398</v>
+        <v>6424920</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F18" s="20">
-        <v>64980</v>
+        <v>66012</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H18" s="22">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="I18" s="22">
-        <v>177</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20"/>
+        <v>254</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" ht="18">
+    </row>
+    <row r="19" spans="1:14" ht="18">
       <c r="A19" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="20">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D19" s="20">
-        <v>27513</v>
+        <v>27742</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F19" s="20">
         <v>228</v>
@@ -9680,437 +9697,415 @@
       <c r="G19" s="20"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-    </row>
-    <row r="20" spans="1:15" ht="18">
+    </row>
+    <row r="20" spans="1:14" ht="18">
       <c r="A20" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="20">
-        <v>14</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>76</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C20" s="20"/>
       <c r="D20" s="20">
-        <v>11331</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>76</v>
-      </c>
+        <v>11346</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="20">
         <v>52</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="1:15" ht="18">
+    </row>
+    <row r="21" spans="1:14" ht="18">
       <c r="A21" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="20">
-        <v>4809</v>
+        <v>1871</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D21" s="20">
-        <v>1022161</v>
+        <v>1027142</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F21" s="20">
-        <v>10726</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>74</v>
-      </c>
+        <v>10732</v>
+      </c>
+      <c r="G21" s="20"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="22">
-        <v>2</v>
-      </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" ht="18">
+    </row>
+    <row r="22" spans="1:14" ht="18">
       <c r="A22" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="20">
-        <v>12682</v>
+        <v>8478</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D22" s="20">
-        <v>7707254</v>
+        <v>7715711</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F22" s="20">
-        <v>143687</v>
+        <v>143727</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22">
-        <v>12</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-    </row>
-    <row r="23" spans="1:15" ht="18">
+    </row>
+    <row r="23" spans="1:14" ht="18">
       <c r="A23" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="20">
-        <v>536</v>
+        <v>276</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="D23" s="20">
-        <v>134046</v>
+        <v>134483</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F23" s="20">
-        <v>2108</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>107</v>
-      </c>
+        <v>2113</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="22">
-        <v>3</v>
-      </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-    </row>
-    <row r="24" spans="1:15" ht="18">
+    </row>
+    <row r="24" spans="1:14" ht="18">
       <c r="A24" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="20">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D24" s="20">
-        <v>91627</v>
+        <v>91831</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="F24" s="20">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22">
-        <v>2</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-    </row>
-    <row r="25" spans="1:15" ht="18">
+    </row>
+    <row r="25" spans="1:14" ht="18">
       <c r="A25" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="20">
-        <v>8106</v>
+        <v>5110</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="D25" s="20">
-        <v>203456</v>
+        <v>211267</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F25" s="20">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22">
-        <v>3</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-    </row>
-    <row r="26" spans="1:15" ht="18">
+    </row>
+    <row r="26" spans="1:14" ht="18">
       <c r="A26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="20">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D26" s="20">
-        <v>34502</v>
+        <v>34596</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="F26" s="20">
-        <v>754</v>
-      </c>
-      <c r="G26" s="20"/>
+        <v>757</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="20"/>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-    </row>
-    <row r="27" spans="1:15" ht="18">
+    </row>
+    <row r="27" spans="1:14" ht="18">
       <c r="A27" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="20">
-        <v>2843</v>
+        <v>1505</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="D27" s="20">
-        <v>1272428</v>
+        <v>1275019</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F27" s="20">
-        <v>9052</v>
+        <v>9091</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22">
-        <v>7</v>
-      </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-    </row>
-    <row r="28" spans="1:15" ht="18">
+    </row>
+    <row r="28" spans="1:14" ht="18">
       <c r="A28" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="20">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D28" s="20">
-        <v>163528</v>
+        <v>163725</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F28" s="20">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-    </row>
-    <row r="29" spans="1:15" ht="18">
+    </row>
+    <row r="29" spans="1:14" ht="18">
       <c r="A29" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="20">
-        <v>848</v>
+        <v>425</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="D29" s="20">
-        <v>739310</v>
+        <v>740208</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F29" s="20">
-        <v>17701</v>
+        <v>17719</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22">
-        <v>7</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-    </row>
-    <row r="30" spans="1:15" ht="18">
+    </row>
+    <row r="30" spans="1:14" ht="18">
       <c r="A30" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="20">
-        <v>5739</v>
+        <v>2959</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D30" s="20">
-        <v>1263081</v>
+        <v>1268377</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F30" s="20">
-        <v>9535</v>
+        <v>9540</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="20"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" ht="18">
+    </row>
+    <row r="31" spans="1:14" ht="18">
       <c r="A31" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="20">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="20">
-        <v>38540</v>
+        <v>38602</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F31" s="20">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="20"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-    </row>
-    <row r="32" spans="1:15" ht="18">
+    </row>
+    <row r="32" spans="1:14" ht="18">
       <c r="A32" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="20">
-        <v>8150</v>
+        <v>3505</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D32" s="20">
-        <v>3401938</v>
+        <v>3409078</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F32" s="20">
-        <v>38000</v>
+        <v>38011</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="22">
-        <v>3</v>
-      </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-    </row>
-    <row r="33" spans="1:15" ht="18">
+    </row>
+    <row r="33" spans="1:14" ht="18">
       <c r="A33" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="20">
-        <v>3810</v>
+        <v>2164</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D33" s="20">
-        <v>780462</v>
+        <v>783278</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F33" s="20">
         <v>4111</v>
@@ -10118,28 +10113,27 @@
       <c r="G33" s="20"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="20"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-    </row>
-    <row r="34" spans="1:15" ht="18">
+    </row>
+    <row r="34" spans="1:14" ht="18">
       <c r="A34" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="20">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D34" s="20">
-        <v>99898</v>
+        <v>99939</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="F34" s="20">
         <v>919</v>
@@ -10147,109 +10141,98 @@
       <c r="G34" s="20"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="20"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-    </row>
-    <row r="35" spans="1:15" ht="18">
+    </row>
+    <row r="35" spans="1:14" ht="18">
       <c r="A35" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="20">
-        <v>2342</v>
+        <v>1956</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D35" s="20">
-        <v>425891</v>
+        <v>426686</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F35" s="20">
-        <v>7679</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>7686</v>
+      </c>
+      <c r="G35" s="20"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="22">
-        <v>1</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="20"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-    </row>
-    <row r="36" spans="1:15" ht="18">
+    </row>
+    <row r="36" spans="1:14" ht="18">
       <c r="A36" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="20">
-        <v>4409</v>
+        <v>2629</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D36" s="20">
-        <v>2038979</v>
+        <v>2042665</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F36" s="20">
-        <v>23447</v>
+        <v>23471</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22">
         <v>1</v>
       </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="20"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-    </row>
-    <row r="37" spans="1:15" ht="18">
+    </row>
+    <row r="37" spans="1:14" ht="18">
       <c r="A37" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="20">
-        <v>1988</v>
+        <v>1749</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="D37" s="20">
-        <v>1991410</v>
+        <v>1992743</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F37" s="20">
-        <v>21169</v>
-      </c>
-      <c r="G37" s="22">
-        <v>4</v>
-      </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="20"/>
+        <v>21178</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-    </row>
-    <row r="38" spans="1:15" ht="18">
+    </row>
+    <row r="38" spans="1:14" ht="18">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="20"/>
@@ -10268,44 +10251,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D317E-D501-B04E-B622-A50394A159C7}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="E1" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>417036</v>
       </c>
-      <c r="C2">
-        <v>328563</v>
-      </c>
-      <c r="D2">
-        <v>320674</v>
-      </c>
-      <c r="E2">
-        <v>8805</v>
+      <c r="C2" s="38">
+        <v>328681</v>
+      </c>
+      <c r="D2" s="38">
+        <v>321504</v>
+      </c>
+      <c r="E2" s="38">
+        <v>9122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10315,14 +10298,14 @@
       <c r="B3">
         <v>53903393</v>
       </c>
-      <c r="C3">
-        <v>43051164</v>
-      </c>
-      <c r="D3">
-        <v>41017511</v>
-      </c>
-      <c r="E3">
-        <v>1398202</v>
+      <c r="C3" s="38">
+        <v>43064854</v>
+      </c>
+      <c r="D3" s="38">
+        <v>41921938</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1471635</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10332,14 +10315,14 @@
       <c r="B4">
         <v>1570458</v>
       </c>
-      <c r="C4">
-        <v>887982</v>
-      </c>
-      <c r="D4">
-        <v>721481</v>
-      </c>
-      <c r="E4">
-        <v>23408</v>
+      <c r="C4" s="38">
+        <v>889229</v>
+      </c>
+      <c r="D4" s="38">
+        <v>725737</v>
+      </c>
+      <c r="E4" s="38">
+        <v>23983</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10349,14 +10332,14 @@
       <c r="B5">
         <v>35607039</v>
       </c>
-      <c r="C5">
-        <v>23383888</v>
-      </c>
-      <c r="D5">
-        <v>19611429</v>
-      </c>
-      <c r="E5">
-        <v>256596</v>
+      <c r="C5" s="38">
+        <v>23404950</v>
+      </c>
+      <c r="D5" s="38">
+        <v>19756118</v>
+      </c>
+      <c r="E5" s="38">
+        <v>265119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10366,14 +10349,14 @@
       <c r="B6">
         <v>124799926</v>
       </c>
-      <c r="C6">
-        <v>66316530</v>
-      </c>
-      <c r="D6">
-        <v>52622510</v>
-      </c>
-      <c r="E6">
-        <v>766921</v>
+      <c r="C6" s="38">
+        <v>66522527</v>
+      </c>
+      <c r="D6" s="38">
+        <v>53548014</v>
+      </c>
+      <c r="E6" s="38">
+        <v>794924</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10383,14 +10366,14 @@
       <c r="B7">
         <v>1158473</v>
       </c>
-      <c r="C7">
-        <v>1123491</v>
-      </c>
-      <c r="D7">
-        <v>885590</v>
-      </c>
-      <c r="E7">
-        <v>24221</v>
+      <c r="C7" s="38">
+        <v>1124753</v>
+      </c>
+      <c r="D7" s="38">
+        <v>890412</v>
+      </c>
+      <c r="E7" s="38">
+        <v>24915</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10400,490 +10383,490 @@
       <c r="B8">
         <v>29436231</v>
       </c>
-      <c r="C8">
-        <v>19638135</v>
-      </c>
-      <c r="D8">
-        <v>16649059</v>
-      </c>
-      <c r="E8">
-        <v>371352</v>
+      <c r="C8" s="38">
+        <v>19673327</v>
+      </c>
+      <c r="D8" s="38">
+        <v>17004386</v>
+      </c>
+      <c r="E8" s="38">
+        <v>385057</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>18710922</v>
       </c>
-      <c r="C9">
-        <v>17284940</v>
-      </c>
-      <c r="D9">
-        <v>13640600</v>
-      </c>
-      <c r="E9">
-        <v>414023</v>
+      <c r="C9" s="38">
+        <v>444977</v>
+      </c>
+      <c r="D9" s="38">
+        <v>334245</v>
+      </c>
+      <c r="E9" s="38">
+        <v>3100</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>1586250</v>
       </c>
-      <c r="C10">
-        <v>1391818</v>
-      </c>
-      <c r="D10">
-        <v>1221946</v>
-      </c>
-      <c r="E10">
-        <v>30374</v>
+      <c r="C10" s="38">
+        <v>310289</v>
+      </c>
+      <c r="D10" s="38">
+        <v>264720</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>63872399</v>
       </c>
-      <c r="C11">
-        <v>51999238</v>
-      </c>
-      <c r="D11">
-        <v>48866166</v>
-      </c>
-      <c r="E11">
-        <v>2037737</v>
+      <c r="C11" s="38">
+        <v>17310169</v>
+      </c>
+      <c r="D11" s="38">
+        <v>13819637</v>
+      </c>
+      <c r="E11" s="38">
+        <v>428458</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>28204692</v>
       </c>
-      <c r="C12">
-        <v>22850521</v>
-      </c>
-      <c r="D12">
-        <v>18006891</v>
-      </c>
-      <c r="E12">
-        <v>235826</v>
+      <c r="C12" s="38">
+        <v>1392721</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1225671</v>
+      </c>
+      <c r="E12" s="38">
+        <v>30931</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>7451955</v>
       </c>
-      <c r="C13">
-        <v>6320125</v>
-      </c>
-      <c r="D13">
-        <v>5913246</v>
-      </c>
-      <c r="E13">
-        <v>173099</v>
+      <c r="C13" s="38">
+        <v>52051651</v>
+      </c>
+      <c r="D13" s="38">
+        <v>49244464</v>
+      </c>
+      <c r="E13" s="38">
+        <v>2103614</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>13606320</v>
       </c>
-      <c r="C14">
-        <v>10736802</v>
-      </c>
-      <c r="D14">
-        <v>10470467</v>
-      </c>
-      <c r="E14">
-        <v>285135</v>
+      <c r="C14" s="38">
+        <v>22873891</v>
+      </c>
+      <c r="D14" s="38">
+        <v>18128907</v>
+      </c>
+      <c r="E14" s="38">
+        <v>243171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>38593948</v>
       </c>
-      <c r="C15">
-        <v>22220908</v>
-      </c>
-      <c r="D15">
-        <v>14436923</v>
-      </c>
-      <c r="E15">
-        <v>224039</v>
+      <c r="C15" s="38">
+        <v>6322356</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5922878</v>
+      </c>
+      <c r="E15" s="38">
+        <v>179033</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>67562686</v>
       </c>
-      <c r="C16">
-        <v>52124388</v>
-      </c>
-      <c r="D16">
-        <v>47294362</v>
-      </c>
-      <c r="E16">
-        <v>1187509</v>
+      <c r="C16" s="38">
+        <v>10748123</v>
+      </c>
+      <c r="D16" s="38">
+        <v>10537166</v>
+      </c>
+      <c r="E16" s="38">
+        <v>294654</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>35699443</v>
       </c>
-      <c r="C17">
-        <v>28083232</v>
-      </c>
-      <c r="D17">
-        <v>23560868</v>
-      </c>
-      <c r="E17">
-        <v>906700</v>
+      <c r="C17" s="38">
+        <v>22280037</v>
+      </c>
+      <c r="D17" s="38">
+        <v>14666318</v>
+      </c>
+      <c r="E17" s="38">
+        <v>231331</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>299000</v>
       </c>
-      <c r="C18">
-        <v>227054</v>
-      </c>
-      <c r="D18">
-        <v>187395</v>
-      </c>
-      <c r="E18">
-        <v>28184</v>
+      <c r="C18" s="38">
+        <v>52160496</v>
+      </c>
+      <c r="D18" s="38">
+        <v>47894595</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1226198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>289023</v>
       </c>
-      <c r="C19">
-        <v>59498</v>
-      </c>
-      <c r="D19">
-        <v>56976</v>
-      </c>
-      <c r="E19">
-        <v>2440</v>
+      <c r="C19" s="38">
+        <v>28101819</v>
+      </c>
+      <c r="D19" s="38">
+        <v>23712014</v>
+      </c>
+      <c r="E19" s="38">
+        <v>934766</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>85358965</v>
       </c>
-      <c r="C20">
-        <v>57966198</v>
-      </c>
-      <c r="D20">
-        <v>54814161</v>
-      </c>
-      <c r="E20">
-        <v>886310</v>
+      <c r="C20" s="38">
+        <v>227312</v>
+      </c>
+      <c r="D20" s="38">
+        <v>187988</v>
+      </c>
+      <c r="E20" s="38">
+        <v>29883</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>123144223</v>
       </c>
-      <c r="C21">
-        <v>87328140</v>
-      </c>
-      <c r="D21">
-        <v>66728278</v>
-      </c>
-      <c r="E21">
-        <v>1513620</v>
+      <c r="C21" s="38">
+        <v>59517</v>
+      </c>
+      <c r="D21" s="38">
+        <v>57069</v>
+      </c>
+      <c r="E21" s="38">
+        <v>2497</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>3091545</v>
       </c>
-      <c r="C22">
-        <v>1510095</v>
-      </c>
-      <c r="D22">
-        <v>1136387</v>
-      </c>
-      <c r="E22">
-        <v>59085</v>
+      <c r="C22" s="38">
+        <v>57988179</v>
+      </c>
+      <c r="D22" s="38">
+        <v>55066452</v>
+      </c>
+      <c r="E22" s="38">
+        <v>897705</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>3366710</v>
       </c>
-      <c r="C23">
-        <v>1359667</v>
-      </c>
-      <c r="D23">
-        <v>965534</v>
-      </c>
-      <c r="E23">
-        <v>26993</v>
+      <c r="C23" s="38">
+        <v>87428373</v>
+      </c>
+      <c r="D23" s="38">
+        <v>67525381</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1565406</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>1239244</v>
       </c>
-      <c r="C24">
-        <v>823758</v>
-      </c>
-      <c r="D24">
-        <v>648311</v>
-      </c>
-      <c r="E24">
-        <v>24401</v>
+      <c r="C24" s="38">
+        <v>1516617</v>
+      </c>
+      <c r="D24" s="38">
+        <v>1151266</v>
+      </c>
+      <c r="E24" s="38">
+        <v>61143</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>2249695</v>
       </c>
-      <c r="C25">
-        <v>870563</v>
-      </c>
-      <c r="D25">
-        <v>647398</v>
-      </c>
-      <c r="E25">
-        <v>21143</v>
+      <c r="C25" s="38">
+        <v>1363265</v>
+      </c>
+      <c r="D25" s="38">
+        <v>974233</v>
+      </c>
+      <c r="E25" s="38">
+        <v>27749</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>46356334</v>
       </c>
-      <c r="C26">
-        <v>32747905</v>
-      </c>
-      <c r="D26">
-        <v>27398726</v>
-      </c>
-      <c r="E26">
-        <v>799108</v>
+      <c r="C26" s="38">
+        <v>824277</v>
+      </c>
+      <c r="D26" s="38">
+        <v>650260</v>
+      </c>
+      <c r="E26" s="38">
+        <v>24537</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>1413542</v>
       </c>
-      <c r="C27">
-        <v>931304</v>
-      </c>
-      <c r="D27">
-        <v>646844</v>
-      </c>
-      <c r="E27">
-        <v>12368</v>
+      <c r="C27" s="38">
+        <v>874334</v>
+      </c>
+      <c r="D27" s="38">
+        <v>655598</v>
+      </c>
+      <c r="E27" s="38">
+        <v>21999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>30141373</v>
       </c>
-      <c r="C28">
-        <v>22512581</v>
-      </c>
-      <c r="D28">
-        <v>16152325</v>
-      </c>
-      <c r="E28">
-        <v>393361</v>
+      <c r="C28" s="38">
+        <v>32832691</v>
+      </c>
+      <c r="D28" s="38">
+        <v>27800940</v>
+      </c>
+      <c r="E28" s="38">
+        <v>818116</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>81032689</v>
       </c>
-      <c r="C29">
-        <v>53785334</v>
-      </c>
-      <c r="D29">
-        <v>43676509</v>
-      </c>
-      <c r="E29">
-        <v>1277366</v>
+      <c r="C29" s="38">
+        <v>932256</v>
+      </c>
+      <c r="D29" s="38">
+        <v>651930</v>
+      </c>
+      <c r="E29" s="38">
+        <v>12642</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>690251</v>
       </c>
-      <c r="C30">
-        <v>563106</v>
-      </c>
-      <c r="D30">
-        <v>514824</v>
-      </c>
-      <c r="E30">
-        <v>29385</v>
+      <c r="C30" s="38">
+        <v>22663011</v>
+      </c>
+      <c r="D30" s="38">
+        <v>16438646</v>
+      </c>
+      <c r="E30" s="38">
+        <v>403500</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>77841267</v>
       </c>
-      <c r="C31">
-        <v>55700626</v>
-      </c>
-      <c r="D31">
-        <v>42140120</v>
-      </c>
-      <c r="E31">
-        <v>568783</v>
+      <c r="C31" s="38">
+        <v>53867248</v>
+      </c>
+      <c r="D31" s="38">
+        <v>44086123</v>
+      </c>
+      <c r="E31" s="38">
+        <v>1322619</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>38510982</v>
       </c>
-      <c r="C32">
-        <v>30874859</v>
-      </c>
-      <c r="D32">
-        <v>26953746</v>
-      </c>
-      <c r="E32">
-        <v>467657</v>
+      <c r="C32" s="38">
+        <v>563383</v>
+      </c>
+      <c r="D32" s="38">
+        <v>516203</v>
+      </c>
+      <c r="E32" s="38">
+        <v>29893</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>4169794</v>
       </c>
-      <c r="C33">
-        <v>2765407</v>
-      </c>
-      <c r="D33">
-        <v>2278690</v>
-      </c>
-      <c r="E33">
-        <v>65166</v>
+      <c r="C33" s="38">
+        <v>55861189</v>
+      </c>
+      <c r="D33" s="38">
+        <v>42837225</v>
+      </c>
+      <c r="E33" s="38">
+        <v>592936</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>237882725</v>
       </c>
-      <c r="C34">
-        <v>164534086</v>
-      </c>
-      <c r="D34">
-        <v>121008880</v>
-      </c>
-      <c r="E34">
-        <v>2247713</v>
+      <c r="C34" s="38">
+        <v>30908140</v>
+      </c>
+      <c r="D34" s="38">
+        <v>27405897</v>
+      </c>
+      <c r="E34" s="38">
+        <v>486808</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>11250858</v>
       </c>
-      <c r="C35">
-        <v>8570163</v>
-      </c>
-      <c r="D35">
-        <v>7892108</v>
-      </c>
-      <c r="E35">
-        <v>392757</v>
+      <c r="C35" s="38">
+        <v>2766263</v>
+      </c>
+      <c r="D35" s="38">
+        <v>2283673</v>
+      </c>
+      <c r="E35" s="38">
+        <v>66363</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>99609303</v>
       </c>
-      <c r="C36">
-        <v>70037735</v>
-      </c>
-      <c r="D36">
-        <v>59142774</v>
-      </c>
-      <c r="E36">
-        <v>1638983</v>
+      <c r="C36" s="38">
+        <v>165036252</v>
+      </c>
+      <c r="D36" s="38">
+        <v>124492786</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2302934</v>
       </c>
     </row>
   </sheetData>
@@ -10893,10 +10876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA94CA-D9DE-B548-8735-C3641B00F463}">
-  <dimension ref="A1:S329"/>
+  <dimension ref="A1:S335"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="D329" sqref="D329"/>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30309,6 +30292,360 @@
         <v>64000</v>
       </c>
       <c r="S329" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
+      <c r="A330" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B330" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C330" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D330" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E330" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F330" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G330" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H330" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I330" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J330" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K330" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L330" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M330" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N330" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O330" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P330" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q330" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R330" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S330" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
+      <c r="A331" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B331" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C331" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D331" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E331" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F331" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G331" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H331" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I331" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J331" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K331" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L331" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M331" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N331" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O331" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P331" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q331" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R331" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S331" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
+      <c r="A332" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B332" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C332" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D332" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E332" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F332" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G332" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H332" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I332" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J332" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K332" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L332" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M332" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N332" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O332" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P332" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q332" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R332" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S332" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19">
+      <c r="A333" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B333" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C333" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D333" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E333" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F333" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G333" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H333" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I333" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J333" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K333" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L333" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M333" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N333" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O333" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P333" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q333" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R333" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S333" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19">
+      <c r="A334" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B334" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C334" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D334" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E334" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F334" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G334" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H334" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I334" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J334" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K334" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L334" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M334" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N334" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O334" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P334" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q334" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R334" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S334" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19">
+      <c r="A335" s="3">
+        <v>44625</v>
+      </c>
+      <c r="B335" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C335" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D335" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E335" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F335" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G335" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H335" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I335" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J335" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K335" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L335" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M335" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N335" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O335" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P335" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q335" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R335" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S335" s="17">
         <v>52000</v>
       </c>
     </row>
@@ -30321,9 +30658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8984DF-48CB-5447-B9FA-A4B1DAFD9CF3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -30333,94 +30668,94 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="36">
-        <v>10401480</v>
+        <v>10402069</v>
       </c>
       <c r="C2" s="36">
-        <v>9965907</v>
+        <v>9975317</v>
       </c>
       <c r="D2" s="36">
-        <v>4166909</v>
+        <v>4242878</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="36">
-        <v>18409341</v>
+        <v>18410414</v>
       </c>
       <c r="C3" s="36">
-        <v>17439847</v>
+        <v>17458815</v>
       </c>
       <c r="D3" s="36">
-        <v>6191330</v>
+        <v>6373464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="36">
-        <v>54747973</v>
+        <v>55365272</v>
       </c>
       <c r="C4" s="36">
-        <v>27260355</v>
+        <v>30753607</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="20">
       <c r="A5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="36">
-        <v>551674510</v>
+        <v>552528971</v>
       </c>
       <c r="C5" s="36">
-        <v>443457581</v>
+        <v>552528971</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="20">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="36">
-        <v>202251597</v>
+        <v>202395099</v>
       </c>
       <c r="C6" s="36">
-        <v>179982110</v>
+        <v>181332025</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="20">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="36">
-        <v>126392536</v>
+        <v>126505012</v>
       </c>
       <c r="C7" s="36">
-        <v>112113754</v>
+        <v>112926990</v>
       </c>
       <c r="D7" s="36">
-        <v>9604490</v>
+        <v>9991669</v>
       </c>
     </row>
   </sheetData>
@@ -30430,10 +30765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A5412-72F4-CA4E-9682-44F6B6C554A4}">
-  <dimension ref="A1:B1153"/>
+  <dimension ref="A1:B1160"/>
   <sheetViews>
-    <sheetView topLeftCell="A1144" workbookViewId="0">
-      <selection activeCell="A1153" sqref="A1153"/>
+    <sheetView topLeftCell="A1148" workbookViewId="0">
+      <selection activeCell="A1160" sqref="A1160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39662,6 +39997,62 @@
         <v>4042</v>
       </c>
     </row>
+    <row r="1154" spans="1:2">
+      <c r="A1154" s="4">
+        <v>44618</v>
+      </c>
+      <c r="B1154">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="A1155" s="4">
+        <v>44619</v>
+      </c>
+      <c r="B1155">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="4">
+        <v>44620</v>
+      </c>
+      <c r="B1156">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="A1157" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B1157">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="A1158" s="4">
+        <v>44622</v>
+      </c>
+      <c r="B1158">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="A1159" s="4">
+        <v>44623</v>
+      </c>
+      <c r="B1159">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="A1160" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B1160">
+        <v>4080</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39669,10 +40060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E43D3-B2B8-4440-9DFA-30FE18FECCE6}">
-  <dimension ref="A1:B636"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
-    <sheetView topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="B629" sqref="B629"/>
+    <sheetView topLeftCell="A629" workbookViewId="0">
+      <selection activeCell="B639" sqref="B639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44765,6 +45156,62 @@
         <v>29271.51</v>
       </c>
     </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="4">
+        <v>44618</v>
+      </c>
+      <c r="B637" s="18">
+        <v>26149.22</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="4">
+        <v>44619</v>
+      </c>
+      <c r="B638" s="18">
+        <v>21228.83</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="4">
+        <v>44620</v>
+      </c>
+      <c r="B639" s="18">
+        <v>34896.42</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B640" s="18">
+        <v>33758.22</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="4">
+        <v>44622</v>
+      </c>
+      <c r="B641" s="18">
+        <v>37033.35</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="4">
+        <v>44623</v>
+      </c>
+      <c r="B642" s="18">
+        <v>36252.300000000003</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B643" s="18">
+        <v>35210.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44772,10 +45219,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D064278-E4AD-8149-B400-6EAC50E0DC3D}">
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
-    <sheetView topLeftCell="A548" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A559" sqref="A559"/>
+    <sheetView topLeftCell="A557" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A566" sqref="A566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -49250,6 +49697,62 @@
       </c>
       <c r="B559">
         <v>8.15</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B560">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B561">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B562">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B563">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B564">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B565">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B566">
+        <v>8.06</v>
       </c>
     </row>
   </sheetData>
@@ -49262,295 +49765,295 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B2" s="35">
-        <v>-6.0999999999999999E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="C2" s="35">
-        <v>-0.22700000000000001</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="D2" s="35">
-        <v>-0.193</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" s="35">
-        <v>-0.372</v>
+        <v>-0.34300000000000003</v>
       </c>
       <c r="C3" s="35">
-        <v>-0.46500000000000002</v>
+        <v>-0.44800000000000001</v>
       </c>
       <c r="D3" s="35">
-        <v>-0.40600000000000003</v>
+        <v>-0.38100000000000001</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B4" s="35">
-        <v>0.437</v>
+        <v>0.501</v>
       </c>
       <c r="C4" s="35">
-        <v>-0.151</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="D4" s="35">
-        <v>7.0999999999999994E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="34" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B5" s="35">
-        <v>6.0000000000000001E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C5" s="35">
-        <v>-0.30199999999999999</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="D5" s="35">
-        <v>-0.19900000000000001</v>
+        <v>-0.188</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="18">
       <c r="A6" s="34" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B6" s="35">
-        <v>-6.6000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C6" s="35">
-        <v>-0.32900000000000001</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="D6" s="35">
-        <v>-0.14000000000000001</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="A7" s="34" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B7" s="35">
-        <v>-0.161</v>
+        <v>-0.158</v>
       </c>
       <c r="C7" s="35">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.104</v>
       </c>
       <c r="D7" s="35">
-        <v>-0.128</v>
+        <v>-0.13</v>
       </c>
       <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="18">
       <c r="A8" s="34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B8" s="35">
-        <v>-0.24099999999999999</v>
+        <v>-0.224</v>
       </c>
       <c r="C8" s="35">
-        <v>-0.81499999999999995</v>
+        <v>-0.80400000000000005</v>
       </c>
       <c r="D8" s="35">
-        <v>-0.48499999999999999</v>
+        <v>-0.46800000000000003</v>
       </c>
       <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="18">
       <c r="A9" s="34" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B9" s="35">
-        <v>1.0999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C9" s="35">
-        <v>-0.86599999999999999</v>
+        <v>-0.873</v>
       </c>
       <c r="D9" s="35">
-        <v>-0.20799999999999999</v>
+        <v>-0.216</v>
       </c>
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="18">
       <c r="A10" s="34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B10" s="35">
-        <v>-0.29899999999999999</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="C10" s="35">
-        <v>-0.33500000000000002</v>
+        <v>-0.29799999999999999</v>
       </c>
       <c r="D10" s="35">
-        <v>-0.32500000000000001</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="A11" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B11" s="35">
-        <v>0</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="C11" s="35">
-        <v>-0.34200000000000003</v>
+        <v>-0.32600000000000001</v>
       </c>
       <c r="D11" s="35">
-        <v>-0.22800000000000001</v>
+        <v>-0.22</v>
       </c>
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="18">
       <c r="A12" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="35">
-        <v>-0.29199999999999998</v>
+        <v>-0.35</v>
       </c>
       <c r="C12" s="35">
-        <v>-0.183</v>
+        <v>-0.186</v>
       </c>
       <c r="D12" s="35">
-        <v>-0.191</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="18">
       <c r="A13" s="34" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B13" s="35">
-        <v>-8.0000000000000002E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C13" s="35">
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="D13" s="35">
-        <v>-2.7E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="18">
       <c r="A14" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B14" s="35">
-        <v>0.153</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="C14" s="35">
-        <v>-0.27700000000000002</v>
+        <v>-0.255</v>
       </c>
       <c r="D14" s="35">
-        <v>3.5000000000000003E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="18">
       <c r="A15" s="34" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B15" s="35">
-        <v>-0.154</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="C15" s="35">
-        <v>-0.47499999999999998</v>
+        <v>-0.46700000000000003</v>
       </c>
       <c r="D15" s="35">
-        <v>-0.214</v>
+        <v>-0.224</v>
       </c>
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="18">
       <c r="A16" s="34" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B16" s="35">
-        <v>-0.16500000000000001</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="C16" s="35">
-        <v>-0.28999999999999998</v>
+        <v>-0.25800000000000001</v>
       </c>
       <c r="D16" s="35">
-        <v>-0.26200000000000001</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="18">
       <c r="A17" s="34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B17" s="35">
-        <v>-7.4999999999999997E-2</v>
+        <v>-0.11</v>
       </c>
       <c r="C17" s="35">
-        <v>-0.32900000000000001</v>
+        <v>-0.307</v>
       </c>
       <c r="D17" s="35">
-        <v>-0.115</v>
+        <v>-0.14099999999999999</v>
       </c>
       <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="18">
       <c r="A18" s="34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B18" s="35">
-        <v>-0.34100000000000003</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="C18" s="35">
-        <v>-0.77800000000000002</v>
+        <v>-0.74399999999999999</v>
       </c>
       <c r="D18" s="35">
-        <v>-0.47</v>
+        <v>-0.43099999999999999</v>
       </c>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="18">
       <c r="A19" s="34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" s="35">
-        <v>-9.2999999999999999E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="C19" s="35">
-        <v>-0.45</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="D19" s="35">
-        <v>-0.23499999999999999</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="F19" s="31"/>
     </row>
@@ -49733,18 +50236,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <v>-9.8584166412597596E-2</v>
@@ -49758,7 +50261,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" s="29">
         <v>-2.4202355199732906E-2</v>
@@ -49772,7 +50275,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B4" s="29">
         <v>-9.4527828992855278E-3</v>
@@ -49786,7 +50289,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B5" s="29">
         <v>1.957902819000279E-2</v>
@@ -49800,7 +50303,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B6" s="29">
         <v>-0.13082254612170008</v>
@@ -49814,7 +50317,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B7" s="29">
         <v>-1.3146380955662007E-2</v>
@@ -49828,7 +50331,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B8" s="29">
         <v>-1.3400977497078914E-3</v>
@@ -49842,7 +50345,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B9" s="29">
         <v>8.6045091610129631E-3</v>
@@ -49856,7 +50359,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B10" s="29">
         <v>-2.0373768670736148E-3</v>
@@ -49870,7 +50373,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B11" s="29">
         <v>-7.4506039062984031E-2</v>
@@ -49884,7 +50387,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="29">
         <v>1.5926539787773253E-2</v>
@@ -49898,7 +50401,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B13" s="29">
         <v>-3.3194663946651382E-2</v>
@@ -49912,7 +50415,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B14" s="29">
         <v>-5.2234484717663454E-2</v>
@@ -49926,7 +50429,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B15" s="29">
         <v>-8.3842121111726176E-2</v>
@@ -49940,7 +50443,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B16" s="29">
         <v>-2.0634762341944279E-2</v>
@@ -49954,7 +50457,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="28" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B17" s="29">
         <v>1.2220207025338103E-2</v>
@@ -49968,7 +50471,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B18" s="29">
         <v>-2.3939163436452526E-2</v>
@@ -49982,7 +50485,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" s="29">
         <v>-1.1337314760303197E-2</v>
@@ -50013,10 +50516,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE529FD-4597-F641-B496-01BE3204D79B}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51953,6 +52456,17 @@
         <v>40.06</v>
       </c>
     </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B127">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E127">
+        <v>40.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51960,10 +52474,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DA751-8DDE-2444-A8CE-DEF963043B5D}">
-  <dimension ref="A1:J389"/>
+  <dimension ref="A1:J396"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -64416,6 +64930,230 @@
         <v>66.87</v>
       </c>
     </row>
+    <row r="390" spans="1:10">
+      <c r="A390" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B390">
+        <v>62.59</v>
+      </c>
+      <c r="C390">
+        <v>54.67</v>
+      </c>
+      <c r="D390">
+        <v>66.61</v>
+      </c>
+      <c r="E390">
+        <v>61.99</v>
+      </c>
+      <c r="F390">
+        <v>53.97</v>
+      </c>
+      <c r="G390">
+        <v>66.2</v>
+      </c>
+      <c r="H390">
+        <v>62.97</v>
+      </c>
+      <c r="I390">
+        <v>55.12</v>
+      </c>
+      <c r="J390">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10">
+      <c r="A391" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B391">
+        <v>63.12</v>
+      </c>
+      <c r="C391">
+        <v>54.83</v>
+      </c>
+      <c r="D391">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="E391">
+        <v>62.44</v>
+      </c>
+      <c r="F391">
+        <v>53.97</v>
+      </c>
+      <c r="G391">
+        <v>66.67</v>
+      </c>
+      <c r="H391">
+        <v>63.56</v>
+      </c>
+      <c r="I391">
+        <v>55.4</v>
+      </c>
+      <c r="J391">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
+      <c r="A392" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B392">
+        <v>63.3</v>
+      </c>
+      <c r="C392">
+        <v>55.33</v>
+      </c>
+      <c r="D392">
+        <v>66.97</v>
+      </c>
+      <c r="E392">
+        <v>62.9</v>
+      </c>
+      <c r="F392">
+        <v>54.39</v>
+      </c>
+      <c r="G392">
+        <v>66.67</v>
+      </c>
+      <c r="H392">
+        <v>63.56</v>
+      </c>
+      <c r="I392">
+        <v>55.96</v>
+      </c>
+      <c r="J392">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10">
+      <c r="A393" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B393">
+        <v>63.3</v>
+      </c>
+      <c r="C393">
+        <v>55.5</v>
+      </c>
+      <c r="D393">
+        <v>66.97</v>
+      </c>
+      <c r="E393">
+        <v>62.9</v>
+      </c>
+      <c r="F393">
+        <v>54.39</v>
+      </c>
+      <c r="G393">
+        <v>66.67</v>
+      </c>
+      <c r="H393">
+        <v>63.56</v>
+      </c>
+      <c r="I393">
+        <v>56.23</v>
+      </c>
+      <c r="J393">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10">
+      <c r="A394" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B394">
+        <v>63.3</v>
+      </c>
+      <c r="C394">
+        <v>55.5</v>
+      </c>
+      <c r="D394">
+        <v>67.52</v>
+      </c>
+      <c r="E394">
+        <v>62.9</v>
+      </c>
+      <c r="F394">
+        <v>54.39</v>
+      </c>
+      <c r="G394">
+        <v>67.61</v>
+      </c>
+      <c r="H394">
+        <v>63.56</v>
+      </c>
+      <c r="I394">
+        <v>56.23</v>
+      </c>
+      <c r="J394">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
+      <c r="A395" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B395">
+        <v>63.65</v>
+      </c>
+      <c r="C395">
+        <v>55.5</v>
+      </c>
+      <c r="D395">
+        <v>67.52</v>
+      </c>
+      <c r="E395">
+        <v>63.35</v>
+      </c>
+      <c r="F395">
+        <v>54.39</v>
+      </c>
+      <c r="G395">
+        <v>67.61</v>
+      </c>
+      <c r="H395">
+        <v>63.85</v>
+      </c>
+      <c r="I395">
+        <v>56.23</v>
+      </c>
+      <c r="J395">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
+      <c r="A396" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B396">
+        <v>63.48</v>
+      </c>
+      <c r="C396">
+        <v>55.67</v>
+      </c>
+      <c r="D396">
+        <v>67.34</v>
+      </c>
+      <c r="E396">
+        <v>63.35</v>
+      </c>
+      <c r="F396">
+        <v>54.39</v>
+      </c>
+      <c r="G396">
+        <v>68.08</v>
+      </c>
+      <c r="H396">
+        <v>63.56</v>
+      </c>
+      <c r="I396">
+        <v>56.51</v>
+      </c>
+      <c r="J396">
+        <v>66.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Manual/input-data.xlsx
+++ b/Manual/input-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker-git/nimf-tracker/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D33C2E-3497-9E46-BF20-06D27D95F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AAD444-5B43-3449-9969-1C51C410F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="10160" windowWidth="11200" windowHeight="9660" firstSheet="9" activeTab="12" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
+    <workbookView xWindow="22400" yWindow="10180" windowWidth="11200" windowHeight="9660" activeTab="2" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
   </bookViews>
   <sheets>
     <sheet name="gst-eway" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
   <si>
     <t>e-Way</t>
   </si>
@@ -477,6 +477,18 @@
   <si>
     <t>45-59 Years</t>
   </si>
+  <si>
+    <t>12-14 Years</t>
+  </si>
+  <si>
+    <t>1 </t>
+  </si>
+  <si>
+    <t>3 </t>
+  </si>
+  <si>
+    <t>4 </t>
+  </si>
 </sst>
 </file>
 
@@ -607,9 +619,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -656,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -694,7 +705,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3821,9 +3834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F5E2-B870-4348-99F8-4B5FD1019E5B}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5048,10 +5061,10 @@
         <v>2883260</v>
       </c>
       <c r="J35" s="16">
-        <v>26910</v>
+        <v>21572</v>
       </c>
       <c r="K35" s="16">
-        <v>15830</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5076,8 +5089,12 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="J36" s="16">
+        <v>22460</v>
+      </c>
+      <c r="K36" s="16">
+        <v>13910</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5086,11 +5103,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885F84EB-1F73-1245-BB50-FDD52D41BDBE}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5821,6 +5838,17 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B67" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C67" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5828,10 +5856,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC45300-6A73-FD40-9CA1-0A8697567D0E}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6895,6 +6923,22 @@
         <v>46499510</v>
       </c>
     </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B133" s="16">
+        <v>46059870</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B134" s="34">
+        <v>45439590</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6902,11 +6946,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5353B576-38C4-E445-9E6D-988228532D05}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7976,6 +8020,17 @@
       </c>
       <c r="C97">
         <v>7.91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4">
+        <v>44631</v>
+      </c>
+      <c r="B98" s="5">
+        <v>8.84</v>
+      </c>
+      <c r="C98" s="5">
+        <v>8.52</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +8042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0D774-4FB9-484A-8B9C-C85D078E33FB}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -8012,15 +8067,25 @@
       <c r="B2" s="19">
         <v>2</v>
       </c>
+      <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
+        <v>129</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:17" ht="18">
       <c r="A3" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="19">
-        <v>633</v>
+        <v>395</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -8028,11 +8093,13 @@
       <c r="F3" s="20"/>
       <c r="G3" s="19"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="19"/>
+      <c r="I3" s="19">
+        <v>14730</v>
+      </c>
       <c r="J3" s="19"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="20"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="21"/>
@@ -8043,7 +8110,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="19">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -8051,11 +8118,13 @@
       <c r="F4" s="20"/>
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="19">
+        <v>296</v>
+      </c>
+      <c r="J4" s="19"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="19"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -8066,7 +8135,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="19">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -8074,11 +8143,13 @@
       <c r="F5" s="20"/>
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19">
+        <v>6639</v>
+      </c>
       <c r="J5" s="19"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="21"/>
@@ -8089,7 +8160,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="19">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -8097,11 +8168,13 @@
       <c r="F6" s="20"/>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="19">
+        <v>12256</v>
+      </c>
       <c r="J6" s="19"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="21"/>
@@ -8112,19 +8185,21 @@
         <v>62</v>
       </c>
       <c r="B7" s="19">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="19">
+        <v>1165</v>
+      </c>
       <c r="J7" s="19"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="21"/>
@@ -8135,19 +8210,21 @@
         <v>73</v>
       </c>
       <c r="B8" s="19">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="19">
+        <v>14034</v>
+      </c>
       <c r="J8" s="19"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="21"/>
@@ -8163,14 +8240,16 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19">
+        <v>4</v>
+      </c>
       <c r="J9" s="19"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
-      <c r="M9" s="20"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="21"/>
@@ -8181,19 +8260,21 @@
         <v>75</v>
       </c>
       <c r="B10" s="19">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19">
+        <v>26150</v>
+      </c>
       <c r="J10" s="19"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="19"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="21"/>
@@ -8204,19 +8285,21 @@
         <v>76</v>
       </c>
       <c r="B11" s="19">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="19">
+        <v>3830</v>
+      </c>
+      <c r="J11" s="19"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="20"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="19"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -8227,7 +8310,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="19">
-        <v>560</v>
+        <v>276</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -8235,11 +8318,13 @@
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19">
+        <v>10942</v>
+      </c>
       <c r="J12" s="19"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="20"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="21"/>
@@ -8250,7 +8335,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="19">
-        <v>813</v>
+        <v>390</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -8258,11 +8343,17 @@
       <c r="F13" s="20"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="19">
+        <v>10607</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
+      <c r="L13" s="21">
+        <v>4</v>
+      </c>
+      <c r="M13" s="21"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="21"/>
@@ -8273,7 +8364,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="19">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -8281,11 +8372,13 @@
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="21"/>
+      <c r="I14" s="19">
+        <v>4132</v>
+      </c>
+      <c r="J14" s="19"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="19"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -8296,19 +8389,21 @@
         <v>80</v>
       </c>
       <c r="B15" s="19">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="21"/>
+      <c r="I15" s="19">
+        <v>4750</v>
+      </c>
+      <c r="J15" s="19"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="20"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="19"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -8319,19 +8414,21 @@
         <v>81</v>
       </c>
       <c r="B16" s="19">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="19">
+        <v>5315</v>
+      </c>
       <c r="J16" s="19"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="21"/>
@@ -8342,7 +8439,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="19">
-        <v>2661</v>
+        <v>1818</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -8350,11 +8447,17 @@
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="19">
+        <v>40049</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="21"/>
@@ -8365,7 +8468,7 @@
         <v>109</v>
       </c>
       <c r="B18" s="19">
-        <v>10350</v>
+        <v>4881</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -8373,11 +8476,19 @@
       <c r="F18" s="20"/>
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20"/>
+      <c r="I18" s="19">
+        <v>67772</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="21">
+        <v>138</v>
+      </c>
+      <c r="L18" s="21">
+        <v>141</v>
+      </c>
+      <c r="M18" s="21"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
@@ -8388,7 +8499,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="19">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -8396,11 +8507,13 @@
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="21"/>
+      <c r="I19" s="19">
+        <v>228</v>
+      </c>
+      <c r="J19" s="19"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
@@ -8411,19 +8524,21 @@
         <v>84</v>
       </c>
       <c r="B20" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19">
+        <v>52</v>
+      </c>
       <c r="J20" s="19"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="21"/>
@@ -8434,19 +8549,21 @@
         <v>85</v>
       </c>
       <c r="B21" s="19">
-        <v>678</v>
+        <v>118</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19">
+        <v>10734</v>
+      </c>
       <c r="J21" s="19"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="19"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="21"/>
@@ -8457,19 +8574,21 @@
         <v>86</v>
       </c>
       <c r="B22" s="19">
-        <v>6725</v>
+        <v>893</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="19">
+        <v>147779</v>
+      </c>
       <c r="J22" s="19"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="20"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="21"/>
@@ -8480,19 +8599,21 @@
         <v>87</v>
       </c>
       <c r="B23" s="19">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="21"/>
+      <c r="I23" s="19">
+        <v>2120</v>
+      </c>
+      <c r="J23" s="19"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="19"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -8503,7 +8624,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="19">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -8511,11 +8632,13 @@
       <c r="F24" s="20"/>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="19">
+        <v>1593</v>
+      </c>
       <c r="J24" s="19"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="20"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="21"/>
@@ -8526,7 +8649,7 @@
         <v>89</v>
       </c>
       <c r="B25" s="19">
-        <v>3352</v>
+        <v>1227</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -8534,11 +8657,17 @@
       <c r="F25" s="20"/>
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="19">
+        <v>681</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
+      <c r="L25" s="21">
+        <v>1</v>
+      </c>
+      <c r="M25" s="21"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="21"/>
@@ -8549,7 +8678,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="19">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -8557,11 +8686,13 @@
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="21"/>
+      <c r="I26" s="19">
+        <v>758</v>
+      </c>
+      <c r="J26" s="19"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="20"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="19"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
@@ -8572,19 +8703,25 @@
         <v>91</v>
       </c>
       <c r="B27" s="19">
-        <v>867</v>
+        <v>484</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19">
+        <v>9118</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="20"/>
+      <c r="L27" s="21">
+        <v>1</v>
+      </c>
+      <c r="M27" s="21"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="21"/>
@@ -8595,7 +8732,7 @@
         <v>92</v>
       </c>
       <c r="B28" s="19">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -8603,11 +8740,13 @@
       <c r="F28" s="20"/>
       <c r="G28" s="19"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="19">
+        <v>1962</v>
+      </c>
+      <c r="J28" s="19"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="19"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
@@ -8618,7 +8757,7 @@
         <v>93</v>
       </c>
       <c r="B29" s="19">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -8626,11 +8765,13 @@
       <c r="F29" s="20"/>
       <c r="G29" s="19"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="19"/>
+      <c r="I29" s="19">
+        <v>17740</v>
+      </c>
       <c r="J29" s="19"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="20"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="21"/>
@@ -8641,7 +8782,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="19">
-        <v>1109</v>
+        <v>271</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -8649,11 +8790,13 @@
       <c r="F30" s="20"/>
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="19"/>
+      <c r="I30" s="19">
+        <v>9551</v>
+      </c>
       <c r="J30" s="19"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="20"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="21"/>
@@ -8664,19 +8807,21 @@
         <v>95</v>
       </c>
       <c r="B31" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="19"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="21"/>
+      <c r="I31" s="19">
+        <v>451</v>
+      </c>
+      <c r="J31" s="19"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="20"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="19"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
@@ -8687,7 +8832,7 @@
         <v>96</v>
       </c>
       <c r="B32" s="19">
-        <v>1301</v>
+        <v>418</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -8695,11 +8840,13 @@
       <c r="F32" s="20"/>
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="21"/>
+      <c r="I32" s="19">
+        <v>38025</v>
+      </c>
+      <c r="J32" s="19"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="21"/>
       <c r="N32" s="19"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
@@ -8710,7 +8857,7 @@
         <v>97</v>
       </c>
       <c r="B33" s="19">
-        <v>1064</v>
+        <v>536</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -8718,11 +8865,13 @@
       <c r="F33" s="20"/>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="19">
+        <v>4111</v>
+      </c>
       <c r="J33" s="19"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="21"/>
@@ -8733,19 +8882,21 @@
         <v>98</v>
       </c>
       <c r="B34" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
+        <v>919</v>
+      </c>
       <c r="J34" s="19"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
-      <c r="M34" s="20"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="21"/>
@@ -8756,7 +8907,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="19">
-        <v>680</v>
+        <v>519</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -8764,11 +8915,13 @@
       <c r="F35" s="20"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="19">
+        <v>7691</v>
+      </c>
       <c r="J35" s="19"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
-      <c r="M35" s="20"/>
+      <c r="M35" s="21"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="21"/>
@@ -8779,19 +8932,25 @@
         <v>100</v>
       </c>
       <c r="B36" s="19">
-        <v>1401</v>
+        <v>490</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19">
+        <v>23494</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="20"/>
+      <c r="L36" s="21">
+        <v>1</v>
+      </c>
+      <c r="M36" s="21"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="21"/>
@@ -8802,7 +8961,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="19">
-        <v>1502</v>
+        <v>729</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -8810,11 +8969,10 @@
       <c r="F37" s="20"/>
       <c r="G37" s="19"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="20"/>
+      <c r="I37" s="19">
+        <v>21197</v>
+      </c>
+      <c r="J37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
@@ -8844,9 +9002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D317E-D501-B04E-B622-A50394A159C7}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -8875,13 +9031,13 @@
         <v>417036</v>
       </c>
       <c r="C2">
-        <v>328822</v>
+        <v>336234</v>
       </c>
       <c r="D2">
-        <v>322290</v>
+        <v>323602</v>
       </c>
       <c r="E2">
-        <v>9652</v>
+        <v>10252</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8892,13 +9048,13 @@
         <v>53903393</v>
       </c>
       <c r="C3">
-        <v>43076226</v>
+        <v>44313988</v>
       </c>
       <c r="D3">
-        <v>43097886</v>
+        <v>44983256</v>
       </c>
       <c r="E3">
-        <v>1533568</v>
+        <v>1643791</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8909,13 +9065,13 @@
         <v>1570458</v>
       </c>
       <c r="C4">
-        <v>890297</v>
+        <v>894651</v>
       </c>
       <c r="D4">
-        <v>730444</v>
+        <v>736426</v>
       </c>
       <c r="E4">
-        <v>24572</v>
+        <v>25406</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8926,13 +9082,13 @@
         <v>35607039</v>
       </c>
       <c r="C5">
-        <v>23427171</v>
+        <v>23563998</v>
       </c>
       <c r="D5">
-        <v>19923853</v>
+        <v>20110938</v>
       </c>
       <c r="E5">
-        <v>274542</v>
+        <v>291122</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8943,13 +9099,13 @@
         <v>124799926</v>
       </c>
       <c r="C6">
-        <v>66708539</v>
+        <v>67788000</v>
       </c>
       <c r="D6">
-        <v>54358870</v>
+        <v>55434278</v>
       </c>
       <c r="E6">
-        <v>816212</v>
+        <v>869344</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8960,13 +9116,13 @@
         <v>1158473</v>
       </c>
       <c r="C7">
-        <v>1125863</v>
+        <v>1130971</v>
       </c>
       <c r="D7">
-        <v>895600</v>
+        <v>902504</v>
       </c>
       <c r="E7">
-        <v>25654</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8977,13 +9133,13 @@
         <v>29436231</v>
       </c>
       <c r="C8">
-        <v>19708013</v>
+        <v>19956586</v>
       </c>
       <c r="D8">
-        <v>17286740</v>
+        <v>17531149</v>
       </c>
       <c r="E8">
-        <v>404538</v>
+        <v>428608</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8994,13 +9150,13 @@
         <v>18710922</v>
       </c>
       <c r="C9">
-        <v>17334102</v>
+        <v>17668050</v>
       </c>
       <c r="D9">
-        <v>13991320</v>
+        <v>14243116</v>
       </c>
       <c r="E9">
-        <v>444170</v>
+        <v>480184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9011,13 +9167,13 @@
         <v>1586250</v>
       </c>
       <c r="C10">
-        <v>1393562</v>
+        <v>1408643</v>
       </c>
       <c r="D10">
-        <v>1229762</v>
+        <v>1235307</v>
       </c>
       <c r="E10">
-        <v>31341</v>
+        <v>32274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9028,13 +9184,13 @@
         <v>63872399</v>
       </c>
       <c r="C11">
-        <v>52114051</v>
+        <v>53424876</v>
       </c>
       <c r="D11">
-        <v>49677626</v>
+        <v>50104108</v>
       </c>
       <c r="E11">
-        <v>2174009</v>
+        <v>2310623</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9045,13 +9201,13 @@
         <v>28204692</v>
       </c>
       <c r="C12">
-        <v>22896374</v>
+        <v>23102569</v>
       </c>
       <c r="D12">
-        <v>18244002</v>
+        <v>18409973</v>
       </c>
       <c r="E12">
-        <v>250475</v>
+        <v>267099</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9062,13 +9218,13 @@
         <v>7451955</v>
       </c>
       <c r="C13">
-        <v>6325150</v>
+        <v>6457325</v>
       </c>
       <c r="D13">
-        <v>5935064</v>
+        <v>5948858</v>
       </c>
       <c r="E13">
-        <v>185796</v>
+        <v>195909</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9079,13 +9235,13 @@
         <v>13606320</v>
       </c>
       <c r="C14">
-        <v>10759349</v>
+        <v>10980984</v>
       </c>
       <c r="D14">
-        <v>10622898</v>
+        <v>10760137</v>
       </c>
       <c r="E14">
-        <v>308312</v>
+        <v>325550</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9096,13 +9252,13 @@
         <v>38593948</v>
       </c>
       <c r="C15">
-        <v>22341014</v>
+        <v>22640284</v>
       </c>
       <c r="D15">
-        <v>14931949</v>
+        <v>15278691</v>
       </c>
       <c r="E15">
-        <v>238844</v>
+        <v>251286</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9113,13 +9269,13 @@
         <v>67562686</v>
       </c>
       <c r="C16">
-        <v>52197172</v>
+        <v>52794014</v>
       </c>
       <c r="D16">
-        <v>48520112</v>
+        <v>49261230</v>
       </c>
       <c r="E16">
-        <v>1266268</v>
+        <v>1342687</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9130,13 +9286,13 @@
         <v>35699443</v>
       </c>
       <c r="C17">
-        <v>28120884</v>
+        <v>28180415</v>
       </c>
       <c r="D17">
-        <v>23873182</v>
+        <v>24040347</v>
       </c>
       <c r="E17">
-        <v>958843</v>
+        <v>1100537</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9147,13 +9303,13 @@
         <v>299000</v>
       </c>
       <c r="C18">
-        <v>227448</v>
+        <v>233611</v>
       </c>
       <c r="D18">
-        <v>188592</v>
+        <v>189377</v>
       </c>
       <c r="E18">
-        <v>31783</v>
+        <v>33347</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9164,13 +9320,13 @@
         <v>289023</v>
       </c>
       <c r="C19">
-        <v>59528</v>
+        <v>61328</v>
       </c>
       <c r="D19">
-        <v>57121</v>
+        <v>57265</v>
       </c>
       <c r="E19">
-        <v>2520</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9181,13 +9337,13 @@
         <v>85358965</v>
       </c>
       <c r="C20">
-        <v>58009463</v>
+        <v>58955579</v>
       </c>
       <c r="D20">
-        <v>55370484</v>
+        <v>55619464</v>
       </c>
       <c r="E20">
-        <v>912172</v>
+        <v>936893</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9198,13 +9354,13 @@
         <v>123144223</v>
       </c>
       <c r="C21">
-        <v>87540076</v>
+        <v>88736655</v>
       </c>
       <c r="D21">
-        <v>68471663</v>
+        <v>69820601</v>
       </c>
       <c r="E21">
-        <v>1624397</v>
+        <v>1762346</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9215,13 +9371,13 @@
         <v>3091545</v>
       </c>
       <c r="C22">
-        <v>1522398</v>
+        <v>1534693</v>
       </c>
       <c r="D22">
-        <v>1165377</v>
+        <v>1178436</v>
       </c>
       <c r="E22">
-        <v>63114</v>
+        <v>65249</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9232,13 +9388,13 @@
         <v>3366710</v>
       </c>
       <c r="C23">
-        <v>1366620</v>
+        <v>1373735</v>
       </c>
       <c r="D23">
-        <v>982742</v>
+        <v>996334</v>
       </c>
       <c r="E23">
-        <v>28729</v>
+        <v>30120</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9249,13 +9405,13 @@
         <v>1239244</v>
       </c>
       <c r="C24">
-        <v>825466</v>
+        <v>837752</v>
       </c>
       <c r="D24">
-        <v>654568</v>
+        <v>664197</v>
       </c>
       <c r="E24">
-        <v>24987</v>
+        <v>25896</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9266,13 +9422,13 @@
         <v>2249695</v>
       </c>
       <c r="C25">
-        <v>876338</v>
+        <v>879408</v>
       </c>
       <c r="D25">
-        <v>660901</v>
+        <v>668065</v>
       </c>
       <c r="E25">
-        <v>22992</v>
+        <v>23902</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9283,13 +9439,13 @@
         <v>46356334</v>
       </c>
       <c r="C26">
-        <v>32913117</v>
+        <v>33602878</v>
       </c>
       <c r="D26">
-        <v>28203808</v>
+        <v>28770030</v>
       </c>
       <c r="E26">
-        <v>839108</v>
+        <v>897990</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9300,13 +9456,13 @@
         <v>1413542</v>
       </c>
       <c r="C27">
-        <v>933266</v>
+        <v>945759</v>
       </c>
       <c r="D27">
-        <v>659472</v>
+        <v>672193</v>
       </c>
       <c r="E27">
-        <v>12932</v>
+        <v>13860</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9317,13 +9473,13 @@
         <v>30141373</v>
       </c>
       <c r="C28">
-        <v>22776840</v>
+        <v>23092716</v>
       </c>
       <c r="D28">
-        <v>16748941</v>
+        <v>17167562</v>
       </c>
       <c r="E28">
-        <v>414819</v>
+        <v>433684</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9334,13 +9490,13 @@
         <v>81032689</v>
       </c>
       <c r="C29">
-        <v>53963482</v>
+        <v>55295928</v>
       </c>
       <c r="D29">
-        <v>44643003</v>
+        <v>45366745</v>
       </c>
       <c r="E29">
-        <v>1371939</v>
+        <v>1446376</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9351,13 +9507,13 @@
         <v>690251</v>
       </c>
       <c r="C30">
-        <v>563690</v>
+        <v>569147</v>
       </c>
       <c r="D30">
-        <v>518135</v>
+        <v>520337</v>
       </c>
       <c r="E30">
-        <v>30310</v>
+        <v>31329</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9368,13 +9524,13 @@
         <v>77841267</v>
       </c>
       <c r="C31">
-        <v>56030623</v>
+        <v>57282606</v>
       </c>
       <c r="D31">
-        <v>43601670</v>
+        <v>44746575</v>
       </c>
       <c r="E31">
-        <v>617393</v>
+        <v>671350</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9385,13 +9541,13 @@
         <v>38510982</v>
       </c>
       <c r="C32">
-        <v>30938891</v>
+        <v>31643734</v>
       </c>
       <c r="D32">
-        <v>27910958</v>
+        <v>28663700</v>
       </c>
       <c r="E32">
-        <v>502417</v>
+        <v>537477</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9402,13 +9558,13 @@
         <v>4169794</v>
       </c>
       <c r="C33">
-        <v>2767111</v>
+        <v>2813343</v>
       </c>
       <c r="D33">
-        <v>2288961</v>
+        <v>2298977</v>
       </c>
       <c r="E33">
-        <v>67401</v>
+        <v>70731</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9419,13 +9575,13 @@
         <v>237882725</v>
       </c>
       <c r="C34">
-        <v>165327049</v>
+        <v>166021617</v>
       </c>
       <c r="D34">
-        <v>126658493</v>
+        <v>129872265</v>
       </c>
       <c r="E34">
-        <v>2334165</v>
+        <v>2391785</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9436,13 +9592,13 @@
         <v>11250858</v>
       </c>
       <c r="C35">
-        <v>8588431</v>
+        <v>8699242</v>
       </c>
       <c r="D35">
-        <v>7984532</v>
+        <v>8033409</v>
       </c>
       <c r="E35">
-        <v>409063</v>
+        <v>421704</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9453,13 +9609,13 @@
         <v>99609303</v>
       </c>
       <c r="C36">
-        <v>70145561</v>
+        <v>71282964</v>
       </c>
       <c r="D36">
-        <v>60411268</v>
+        <v>61185978</v>
       </c>
       <c r="E36">
-        <v>1728741</v>
+        <v>1852877</v>
       </c>
     </row>
   </sheetData>
@@ -9469,10 +9625,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8984DF-48CB-5447-B9FA-A4B1DAFD9CF3}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9499,78 +9655,88 @@
       <c r="A2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="33">
-        <v>10402622</v>
-      </c>
-      <c r="C2" s="33">
-        <v>9984407</v>
-      </c>
-      <c r="D2" s="33">
-        <v>4310000</v>
+      <c r="B2" s="35">
+        <v>10403472</v>
+      </c>
+      <c r="C2" s="35">
+        <v>9996261</v>
+      </c>
+      <c r="D2" s="35">
+        <v>4421872</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20">
       <c r="A3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="33">
-        <v>18411428</v>
-      </c>
-      <c r="C3" s="33">
-        <v>17476822</v>
-      </c>
-      <c r="D3" s="33">
-        <v>6548262</v>
+      <c r="B3" s="35">
+        <v>18412797</v>
+      </c>
+      <c r="C3" s="35">
+        <v>17501086</v>
+      </c>
+      <c r="D3" s="35">
+        <v>6793476</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="33">
-        <v>55871085</v>
-      </c>
-      <c r="C4" s="33">
-        <v>33770605</v>
-      </c>
-      <c r="D4" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="B4" s="35">
+        <v>12201065</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="20">
       <c r="A5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="33">
-        <v>553311626</v>
-      </c>
-      <c r="C5" s="33">
-        <v>455201014</v>
+        <v>116</v>
+      </c>
+      <c r="B5" s="35">
+        <v>56814422</v>
+      </c>
+      <c r="C5" s="35">
+        <v>37174113</v>
       </c>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="20">
       <c r="A6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="33">
-        <v>202529223</v>
-      </c>
-      <c r="C6" s="33">
-        <v>182729190</v>
+        <v>117</v>
+      </c>
+      <c r="B6" s="35">
+        <v>554278022</v>
+      </c>
+      <c r="C6" s="35">
+        <v>463457530</v>
       </c>
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="20">
       <c r="A7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="35">
+        <v>202690969</v>
+      </c>
+      <c r="C7" s="35">
+        <v>184748950</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="20">
+      <c r="A8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="33">
-        <v>126589403</v>
-      </c>
-      <c r="C7" s="33">
-        <v>113807410</v>
-      </c>
-      <c r="D7" s="33">
-        <v>10380450</v>
+      <c r="B8" s="35">
+        <v>126697598</v>
+      </c>
+      <c r="C8" s="35">
+        <v>115077930</v>
+      </c>
+      <c r="D8" s="35">
+        <v>11340467</v>
       </c>
     </row>
   </sheetData>
@@ -9580,10 +9746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA94CA-D9DE-B548-8735-C3641B00F463}">
-  <dimension ref="A1:S341"/>
+  <dimension ref="A1:S352"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336:S341"/>
+    <sheetView topLeftCell="A339" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29707,6 +29873,655 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="342" spans="1:19">
+      <c r="A342" s="3">
+        <v>44634</v>
+      </c>
+      <c r="B342" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C342" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D342" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E342" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F342" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G342" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H342" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I342" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J342" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K342" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L342" s="16">
+        <v>50000</v>
+      </c>
+      <c r="M342" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N342" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O342" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P342" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q342" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R342" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S342" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19">
+      <c r="A343" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B343" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C343" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D343" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E343" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F343" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G343" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H343" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I343" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J343" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K343" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L343" s="16">
+        <v>50000</v>
+      </c>
+      <c r="M343" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N343" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O343" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P343" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q343" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R343" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S343" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19">
+      <c r="A344" s="3">
+        <v>44636</v>
+      </c>
+      <c r="B344" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C344" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D344" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E344" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F344" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G344" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H344" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I344" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J344" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K344" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L344" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M344" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N344" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O344" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P344" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q344" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R344" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S344" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19">
+      <c r="A345" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B345" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C345" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D345" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E345" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F345" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G345" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H345" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I345" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J345" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K345" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L345" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M345" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N345" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O345" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P345" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q345" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R345" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S345" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
+      <c r="A346" s="3">
+        <v>44639</v>
+      </c>
+      <c r="B346" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C346" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D346" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E346" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F346" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G346" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H346" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I346" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J346" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K346" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L346" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M346" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N346" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O346" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P346" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q346" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R346" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S346" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19">
+      <c r="A347" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B347" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C347" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D347" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E347" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F347" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G347" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H347" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I347" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J347" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K347" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L347" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M347" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N347" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O347" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P347" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q347" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R347" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S347" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
+      <c r="A348" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B348" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C348" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D348" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E348" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F348" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G348" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H348" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I348" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J348" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K348" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L348" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M348" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N348" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O348" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P348" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q348" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R348" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S348" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19">
+      <c r="A349" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B349" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C349" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D349" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E349" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F349" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G349" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H349" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I349" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J349" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K349" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L349" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M349" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N349" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O349" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P349" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q349" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R349" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S349" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19">
+      <c r="A350" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B350" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C350" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D350" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E350" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F350" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G350" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H350" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I350" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J350" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K350" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L350" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M350" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N350" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O350" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P350" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q350" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R350" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S350" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19">
+      <c r="A351" s="3">
+        <v>44645</v>
+      </c>
+      <c r="B351" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C351" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D351" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E351" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F351" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G351" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H351" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I351" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J351" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K351" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L351" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M351" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N351" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O351" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P351" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q351" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R351" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S351" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19">
+      <c r="A352" s="3">
+        <v>44646</v>
+      </c>
+      <c r="B352" s="16">
+        <v>22000</v>
+      </c>
+      <c r="C352" s="16">
+        <v>22000</v>
+      </c>
+      <c r="D352" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E352" s="16">
+        <v>35000</v>
+      </c>
+      <c r="F352" s="16">
+        <v>28500</v>
+      </c>
+      <c r="G352" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H352" s="16">
+        <v>18500</v>
+      </c>
+      <c r="I352" s="16">
+        <v>20500</v>
+      </c>
+      <c r="J352" s="16">
+        <v>31500</v>
+      </c>
+      <c r="K352" s="16">
+        <v>31500</v>
+      </c>
+      <c r="L352" s="16">
+        <v>50500</v>
+      </c>
+      <c r="M352" s="16">
+        <v>82000</v>
+      </c>
+      <c r="N352" s="16">
+        <v>63000</v>
+      </c>
+      <c r="O352" s="16">
+        <v>84500</v>
+      </c>
+      <c r="P352" s="16">
+        <v>88000</v>
+      </c>
+      <c r="Q352" s="16">
+        <v>89000</v>
+      </c>
+      <c r="R352" s="16">
+        <v>64000</v>
+      </c>
+      <c r="S352" s="16">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29714,10 +30529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A5412-72F4-CA4E-9682-44F6B6C554A4}">
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1182"/>
   <sheetViews>
-    <sheetView topLeftCell="A1155" workbookViewId="0">
-      <selection activeCell="A1167" sqref="A1167"/>
+    <sheetView tabSelected="1" topLeftCell="A1167" workbookViewId="0">
+      <selection activeCell="A1182" sqref="A1182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39059,10 +39874,124 @@
       </c>
     </row>
     <row r="1168" spans="1:2">
-      <c r="A1168" s="4"/>
-    </row>
-    <row r="1169" spans="1:1">
-      <c r="A1169" s="4"/>
+      <c r="A1168" s="4">
+        <v>44632</v>
+      </c>
+      <c r="B1168">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" s="4">
+        <v>44633</v>
+      </c>
+      <c r="B1169">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" s="4">
+        <v>44634</v>
+      </c>
+      <c r="B1170">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" s="4">
+        <v>44635</v>
+      </c>
+      <c r="B1171">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2">
+      <c r="A1172" s="4">
+        <v>44636</v>
+      </c>
+      <c r="B1172">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" s="4">
+        <v>44637</v>
+      </c>
+      <c r="B1173">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" s="4">
+        <v>44638</v>
+      </c>
+      <c r="B1174">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" s="4">
+        <v>44639</v>
+      </c>
+      <c r="B1175">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" s="4">
+        <v>44640</v>
+      </c>
+      <c r="B1176">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" s="4">
+        <v>44641</v>
+      </c>
+      <c r="B1177">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="A1178" s="4">
+        <v>44642</v>
+      </c>
+      <c r="B1178">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2">
+      <c r="A1179" s="4">
+        <v>44643</v>
+      </c>
+      <c r="B1179">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2">
+      <c r="A1180" s="4">
+        <v>44644</v>
+      </c>
+      <c r="B1180">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" s="4">
+        <v>44645</v>
+      </c>
+      <c r="B1181">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" s="4">
+        <v>44646</v>
+      </c>
+      <c r="B1182">
+        <v>4270</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39071,10 +40000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E43D3-B2B8-4440-9DFA-30FE18FECCE6}">
-  <dimension ref="A1:B650"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
-    <sheetView topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="A650" sqref="A650"/>
+    <sheetView topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="A654" sqref="A654:A664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44279,6 +45208,118 @@
         <v>32377.05</v>
       </c>
     </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="4">
+        <v>44632</v>
+      </c>
+      <c r="B651" s="33">
+        <v>29318.33</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="4">
+        <v>44633</v>
+      </c>
+      <c r="B652" s="33">
+        <v>23152.81</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="4">
+        <v>44634</v>
+      </c>
+      <c r="B653" s="33">
+        <v>33957.67</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="4">
+        <v>44635</v>
+      </c>
+      <c r="B654" s="33">
+        <v>33340.639999999999</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="4">
+        <v>44636</v>
+      </c>
+      <c r="B655" s="33">
+        <v>33221.879999999997</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="4">
+        <v>44637</v>
+      </c>
+      <c r="B656" s="33">
+        <v>31166.73</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="4">
+        <v>44638</v>
+      </c>
+      <c r="B657" s="33">
+        <v>18869.04</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="4">
+        <v>44639</v>
+      </c>
+      <c r="B658" s="17">
+        <v>25247.27</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="4">
+        <v>44640</v>
+      </c>
+      <c r="B659" s="17">
+        <v>21237.31</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="4">
+        <v>44641</v>
+      </c>
+      <c r="B660" s="17">
+        <v>31841.8</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="4">
+        <v>44642</v>
+      </c>
+      <c r="B661" s="17">
+        <v>29566.9</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="4">
+        <v>44643</v>
+      </c>
+      <c r="B662" s="17">
+        <v>29859.79</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="4">
+        <v>44644</v>
+      </c>
+      <c r="B663" s="17">
+        <v>29588.27</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="4">
+        <v>44645</v>
+      </c>
+      <c r="B664" s="17">
+        <v>29741.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44286,10 +45327,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D064278-E4AD-8149-B400-6EAC50E0DC3D}">
-  <dimension ref="A1:B574"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
-    <sheetView topLeftCell="A563" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A574" sqref="A574"/>
+    <sheetView topLeftCell="A577" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A580" sqref="A580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48884,6 +49925,118 @@
       </c>
       <c r="B574">
         <v>7.37</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="3">
+        <v>44633</v>
+      </c>
+      <c r="B575">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="3">
+        <v>44634</v>
+      </c>
+      <c r="B576">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B577">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="3">
+        <v>44636</v>
+      </c>
+      <c r="B578">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B579">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B580">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="3">
+        <v>44639</v>
+      </c>
+      <c r="B581">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="3">
+        <v>44640</v>
+      </c>
+      <c r="B582">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B583">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B584">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B585">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B586">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="3">
+        <v>44645</v>
+      </c>
+      <c r="B587">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="3">
+        <v>44646</v>
+      </c>
+      <c r="B588">
+        <v>7.39</v>
       </c>
     </row>
   </sheetData>
@@ -48896,7 +50049,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48983,13 +50136,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="31">
-        <v>6.9000000000000006E-2</v>
+        <v>0.158</v>
       </c>
       <c r="C6" s="31">
-        <v>-0.28699999999999998</v>
+        <v>-0.255</v>
       </c>
       <c r="D6" s="31">
-        <v>-3.2000000000000001E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F6" s="26"/>
     </row>
@@ -49357,11 +50510,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE529FD-4597-F641-B496-01BE3204D79B}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -49384,7 +50537,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="25">
         <v>43744</v>
       </c>
       <c r="B2">
@@ -49398,7 +50551,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="25">
         <v>43751</v>
       </c>
       <c r="B3">
@@ -49412,7 +50565,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
+      <c r="A4" s="25">
         <v>43758</v>
       </c>
       <c r="B4">
@@ -49426,7 +50579,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="25">
         <v>43765</v>
       </c>
       <c r="B5">
@@ -49440,7 +50593,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="25">
         <v>43772</v>
       </c>
       <c r="B6">
@@ -49454,7 +50607,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="A7" s="25">
         <v>43779</v>
       </c>
       <c r="B7">
@@ -49468,7 +50621,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="A8" s="25">
         <v>43786</v>
       </c>
       <c r="B8">
@@ -49482,7 +50635,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4">
+      <c r="A9" s="25">
         <v>43793</v>
       </c>
       <c r="B9">
@@ -49496,7 +50649,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4">
+      <c r="A10" s="25">
         <v>43800</v>
       </c>
       <c r="B10">
@@ -49510,7 +50663,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4">
+      <c r="A11" s="25">
         <v>43807</v>
       </c>
       <c r="B11">
@@ -49524,7 +50677,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="A12" s="25">
         <v>43814</v>
       </c>
       <c r="B12">
@@ -49538,7 +50691,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="A13" s="25">
         <v>43821</v>
       </c>
       <c r="B13">
@@ -49552,7 +50705,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="A14" s="25">
         <v>43828</v>
       </c>
       <c r="B14">
@@ -49566,7 +50719,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="A15" s="25">
         <v>43835</v>
       </c>
       <c r="B15">
@@ -49580,7 +50733,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4">
+      <c r="A16" s="25">
         <v>43842</v>
       </c>
       <c r="B16">
@@ -49594,7 +50747,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="25">
         <v>43849</v>
       </c>
       <c r="B17">
@@ -49608,7 +50761,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="A18" s="25">
         <v>43856</v>
       </c>
       <c r="B18">
@@ -49622,7 +50775,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="A19" s="25">
         <v>43863</v>
       </c>
       <c r="B19">
@@ -49636,7 +50789,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="A20" s="25">
         <v>43870</v>
       </c>
       <c r="B20">
@@ -49650,7 +50803,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="A21" s="25">
         <v>43877</v>
       </c>
       <c r="B21">
@@ -49664,7 +50817,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="A22" s="25">
         <v>43884</v>
       </c>
       <c r="B22">
@@ -49678,7 +50831,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="A23" s="25">
         <v>43891</v>
       </c>
       <c r="B23">
@@ -49692,7 +50845,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="A24" s="25">
         <v>43898</v>
       </c>
       <c r="B24">
@@ -49706,7 +50859,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="A25" s="25">
         <v>43905</v>
       </c>
       <c r="B25">
@@ -49720,7 +50873,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="A26" s="25">
         <v>43912</v>
       </c>
       <c r="B26">
@@ -49734,7 +50887,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="A27" s="25">
         <v>43919</v>
       </c>
       <c r="B27">
@@ -49748,7 +50901,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="A28" s="25">
         <v>43926</v>
       </c>
       <c r="B28">
@@ -49762,7 +50915,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="A29" s="25">
         <v>43933</v>
       </c>
       <c r="B29">
@@ -49776,7 +50929,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4">
+      <c r="A30" s="25">
         <v>43940</v>
       </c>
       <c r="B30">
@@ -49790,7 +50943,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="A31" s="25">
         <v>43947</v>
       </c>
       <c r="B31">
@@ -49804,7 +50957,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4">
+      <c r="A32" s="25">
         <v>43954</v>
       </c>
       <c r="B32">
@@ -49818,7 +50971,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="A33" s="25">
         <v>43961</v>
       </c>
       <c r="B33">
@@ -49832,7 +50985,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="A34" s="25">
         <v>43968</v>
       </c>
       <c r="B34">
@@ -49846,7 +50999,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="A35" s="25">
         <v>43975</v>
       </c>
       <c r="B35">
@@ -49860,7 +51013,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="A36" s="25">
         <v>43982</v>
       </c>
       <c r="B36">
@@ -49874,7 +51027,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="A37" s="25">
         <v>43989</v>
       </c>
       <c r="B37">
@@ -49888,7 +51041,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="A38" s="25">
         <v>43996</v>
       </c>
       <c r="B38">
@@ -49902,7 +51055,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="A39" s="25">
         <v>44003</v>
       </c>
       <c r="B39">
@@ -49916,7 +51069,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="A40" s="25">
         <v>44010</v>
       </c>
       <c r="B40">
@@ -49930,7 +51083,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="A41" s="25">
         <v>44017</v>
       </c>
       <c r="B41">
@@ -49944,7 +51097,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="A42" s="25">
         <v>44024</v>
       </c>
       <c r="B42">
@@ -49958,7 +51111,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="A43" s="25">
         <v>44031</v>
       </c>
       <c r="B43">
@@ -49972,7 +51125,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="A44" s="25">
         <v>44038</v>
       </c>
       <c r="B44">
@@ -49986,7 +51139,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4">
+      <c r="A45" s="25">
         <v>44045</v>
       </c>
       <c r="B45">
@@ -50000,7 +51153,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4">
+      <c r="A46" s="25">
         <v>44052</v>
       </c>
       <c r="B46">
@@ -50014,7 +51167,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4">
+      <c r="A47" s="25">
         <v>44059</v>
       </c>
       <c r="B47">
@@ -50028,7 +51181,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4">
+      <c r="A48" s="25">
         <v>44066</v>
       </c>
       <c r="B48">
@@ -50042,7 +51195,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4">
+      <c r="A49" s="25">
         <v>44073</v>
       </c>
       <c r="B49">
@@ -50056,7 +51209,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4">
+      <c r="A50" s="25">
         <v>44080</v>
       </c>
       <c r="B50">
@@ -50070,7 +51223,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="4">
+      <c r="A51" s="25">
         <v>44087</v>
       </c>
       <c r="B51">
@@ -50084,7 +51237,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="4">
+      <c r="A52" s="25">
         <v>44094</v>
       </c>
       <c r="B52">
@@ -50098,7 +51251,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="4">
+      <c r="A53" s="25">
         <v>44101</v>
       </c>
       <c r="B53">
@@ -50112,7 +51265,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4">
+      <c r="A54" s="25">
         <v>44108</v>
       </c>
       <c r="B54">
@@ -50126,7 +51279,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4">
+      <c r="A55" s="25">
         <v>44115</v>
       </c>
       <c r="B55">
@@ -50140,7 +51293,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4">
+      <c r="A56" s="25">
         <v>44122</v>
       </c>
       <c r="B56">
@@ -50154,7 +51307,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4">
+      <c r="A57" s="25">
         <v>44129</v>
       </c>
       <c r="B57">
@@ -50168,7 +51321,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="4">
+      <c r="A58" s="25">
         <v>44136</v>
       </c>
       <c r="B58">
@@ -50182,7 +51335,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="4">
+      <c r="A59" s="25">
         <v>44143</v>
       </c>
       <c r="B59">
@@ -50196,7 +51349,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="4">
+      <c r="A60" s="25">
         <v>44150</v>
       </c>
       <c r="B60">
@@ -50210,7 +51363,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="4">
+      <c r="A61" s="25">
         <v>44157</v>
       </c>
       <c r="B61">
@@ -50224,7 +51377,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="4">
+      <c r="A62" s="25">
         <v>44164</v>
       </c>
       <c r="B62">
@@ -50241,7 +51394,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="4">
+      <c r="A63" s="25">
         <v>44171</v>
       </c>
       <c r="B63">
@@ -50258,7 +51411,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="4">
+      <c r="A64" s="25">
         <v>44178</v>
       </c>
       <c r="B64">
@@ -50275,7 +51428,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="4">
+      <c r="A65" s="25">
         <v>44185</v>
       </c>
       <c r="B65">
@@ -50292,7 +51445,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="4">
+      <c r="A66" s="25">
         <v>44192</v>
       </c>
       <c r="B66">
@@ -50309,7 +51462,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="4">
+      <c r="A67" s="25">
         <v>44199</v>
       </c>
       <c r="B67">
@@ -50326,7 +51479,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="4">
+      <c r="A68" s="25">
         <v>44206</v>
       </c>
       <c r="B68">
@@ -50343,7 +51496,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="4">
+      <c r="A69" s="25">
         <v>44213</v>
       </c>
       <c r="B69">
@@ -50360,7 +51513,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="4">
+      <c r="A70" s="25">
         <v>44220</v>
       </c>
       <c r="B70">
@@ -50373,11 +51526,11 @@
         <v>4.97</v>
       </c>
       <c r="E70">
-        <v>43.23</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="4">
+      <c r="A71" s="25">
         <v>44227</v>
       </c>
       <c r="B71">
@@ -50390,11 +51543,11 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="E71">
-        <v>41.68</v>
+        <v>40.57</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="4">
+      <c r="A72" s="25">
         <v>44234</v>
       </c>
       <c r="B72">
@@ -50407,11 +51560,11 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="E72">
-        <v>42.69</v>
+        <v>40.880000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="4">
+      <c r="A73" s="25">
         <v>44241</v>
       </c>
       <c r="B73">
@@ -50424,11 +51577,11 @@
         <v>7.02</v>
       </c>
       <c r="E73">
-        <v>42.27</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="4">
+      <c r="A74" s="25">
         <v>44248</v>
       </c>
       <c r="B74">
@@ -50441,11 +51594,11 @@
         <v>6.61</v>
       </c>
       <c r="E74">
-        <v>41.89</v>
+        <v>40.479999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="4">
+      <c r="A75" s="25">
         <v>44255</v>
       </c>
       <c r="B75">
@@ -50458,11 +51611,11 @@
         <v>6.82</v>
       </c>
       <c r="E75">
-        <v>42.44</v>
+        <v>40.61</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="4">
+      <c r="A76" s="25">
         <v>44262</v>
       </c>
       <c r="B76">
@@ -50475,11 +51628,11 @@
         <v>5.86</v>
       </c>
       <c r="E76">
-        <v>41.52</v>
+        <v>39.770000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="4">
+      <c r="A77" s="25">
         <v>44269</v>
       </c>
       <c r="B77">
@@ -50492,11 +51645,11 @@
         <v>6.17</v>
       </c>
       <c r="E77">
-        <v>40.81</v>
+        <v>39.49</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="4">
+      <c r="A78" s="25">
         <v>44276</v>
       </c>
       <c r="B78">
@@ -50509,11 +51662,11 @@
         <v>6.51</v>
       </c>
       <c r="E78">
-        <v>42.23</v>
+        <v>40.590000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="4">
+      <c r="A79" s="25">
         <v>44283</v>
       </c>
       <c r="B79">
@@ -50526,11 +51679,11 @@
         <v>6.18</v>
       </c>
       <c r="E79">
-        <v>43.46</v>
+        <v>41.21</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="4">
+      <c r="A80" s="25">
         <v>44290</v>
       </c>
       <c r="B80">
@@ -50543,11 +51696,11 @@
         <v>8.58</v>
       </c>
       <c r="E80">
-        <v>43</v>
+        <v>41.19</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="4">
+      <c r="A81" s="25">
         <v>44297</v>
       </c>
       <c r="B81">
@@ -50560,11 +51713,11 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>41.23</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="4">
+      <c r="A82" s="25">
         <v>44304</v>
       </c>
       <c r="B82">
@@ -50577,11 +51730,11 @@
         <v>7.31</v>
       </c>
       <c r="E82">
-        <v>41.35</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="4">
+      <c r="A83" s="25">
         <v>44311</v>
       </c>
       <c r="B83">
@@ -50594,11 +51747,11 @@
         <v>6.37</v>
       </c>
       <c r="E83">
-        <v>40.83</v>
+        <v>40.049999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="4">
+      <c r="A84" s="25">
         <v>44318</v>
       </c>
       <c r="B84">
@@ -50611,11 +51764,11 @@
         <v>7.35</v>
       </c>
       <c r="E84">
-        <v>40.630000000000003</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="4">
+      <c r="A85" s="25">
         <v>44325</v>
       </c>
       <c r="B85">
@@ -50628,11 +51781,11 @@
         <v>7.29</v>
       </c>
       <c r="E85">
-        <v>42.97</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="4">
+      <c r="A86" s="25">
         <v>44332</v>
       </c>
       <c r="B86">
@@ -50645,11 +51798,11 @@
         <v>14.34</v>
       </c>
       <c r="E86">
-        <v>42.33</v>
+        <v>40.53</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="4">
+      <c r="A87" s="25">
         <v>44339</v>
       </c>
       <c r="B87">
@@ -50662,11 +51815,11 @@
         <v>13.52</v>
       </c>
       <c r="E87">
-        <v>41</v>
+        <v>39.380000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="4">
+      <c r="A88" s="25">
         <v>44346</v>
       </c>
       <c r="B88">
@@ -50679,11 +51832,11 @@
         <v>9.58</v>
       </c>
       <c r="E88">
-        <v>40.61</v>
+        <v>38.950000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="4">
+      <c r="A89" s="25">
         <v>44353</v>
       </c>
       <c r="B89">
@@ -50696,11 +51849,11 @@
         <v>13.27</v>
       </c>
       <c r="E89">
-        <v>40.9</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="4">
+      <c r="A90" s="25">
         <v>44360</v>
       </c>
       <c r="B90">
@@ -50713,11 +51866,11 @@
         <v>8.23</v>
       </c>
       <c r="E90">
-        <v>40.89</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="4">
+      <c r="A91" s="25">
         <v>44367</v>
       </c>
       <c r="B91">
@@ -50730,11 +51883,11 @@
         <v>8.92</v>
       </c>
       <c r="E91">
-        <v>42.13</v>
+        <v>40.49</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="4">
+      <c r="A92" s="25">
         <v>44374</v>
       </c>
       <c r="B92">
@@ -50747,11 +51900,11 @@
         <v>8.6</v>
       </c>
       <c r="E92">
-        <v>40.92</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="4">
+      <c r="A93" s="25">
         <v>44381</v>
       </c>
       <c r="B93">
@@ -50764,11 +51917,11 @@
         <v>6.71</v>
       </c>
       <c r="E93">
-        <v>40.85</v>
+        <v>39.49</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="4">
+      <c r="A94" s="25">
         <v>44388</v>
       </c>
       <c r="B94">
@@ -50781,11 +51934,11 @@
         <v>7.06</v>
       </c>
       <c r="E94">
-        <v>41.94</v>
+        <v>40.590000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="4">
+      <c r="A95" s="25">
         <v>44395</v>
       </c>
       <c r="B95">
@@ -50798,11 +51951,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E95">
-        <v>42.06</v>
+        <v>40.409999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="4">
+      <c r="A96" s="25">
         <v>44402</v>
       </c>
       <c r="B96">
@@ -50815,11 +51968,11 @@
         <v>6.75</v>
       </c>
       <c r="E96">
-        <v>42.82</v>
+        <v>41.13</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="4">
+      <c r="A97" s="25">
         <v>44409</v>
       </c>
       <c r="B97">
@@ -50832,11 +51985,11 @@
         <v>7.18</v>
       </c>
       <c r="E97">
-        <v>41.25</v>
+        <v>39.78</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="4">
+      <c r="A98" s="25">
         <v>44416</v>
       </c>
       <c r="B98">
@@ -50849,11 +52002,11 @@
         <v>7.27</v>
       </c>
       <c r="E98">
-        <v>43.29</v>
+        <v>41.48</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="4">
+      <c r="A99" s="25">
         <v>44423</v>
       </c>
       <c r="B99">
@@ -50866,11 +52019,11 @@
         <v>7.01</v>
       </c>
       <c r="E99">
-        <v>41.77</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="4">
+      <c r="A100" s="25">
         <v>44430</v>
       </c>
       <c r="B100">
@@ -50883,11 +52036,11 @@
         <v>7.34</v>
       </c>
       <c r="E100">
-        <v>40.93</v>
+        <v>40.020000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="4">
+      <c r="A101" s="25">
         <v>44437</v>
       </c>
       <c r="B101">
@@ -50900,11 +52053,11 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="E101">
-        <v>42.23</v>
+        <v>40.78</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="4">
+      <c r="A102" s="25">
         <v>44444</v>
       </c>
       <c r="B102">
@@ -50917,11 +52070,11 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="E102">
-        <v>42.48</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="4">
+      <c r="A103" s="25">
         <v>44451</v>
       </c>
       <c r="B103">
@@ -50934,11 +52087,11 @@
         <v>6.51</v>
       </c>
       <c r="E103">
-        <v>42.45</v>
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="4">
+      <c r="A104" s="25">
         <v>44458</v>
       </c>
       <c r="B104">
@@ -50951,11 +52104,11 @@
         <v>4.92</v>
       </c>
       <c r="E104">
-        <v>40.770000000000003</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="4">
+      <c r="A105" s="25">
         <v>44465</v>
       </c>
       <c r="B105">
@@ -50968,11 +52121,11 @@
         <v>5.36</v>
       </c>
       <c r="E105">
-        <v>43.23</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="4">
+      <c r="A106" s="25">
         <v>44472</v>
       </c>
       <c r="B106">
@@ -50985,11 +52138,11 @@
         <v>6.99</v>
       </c>
       <c r="E106">
-        <v>39.799999999999997</v>
+        <v>39.229999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="4">
+      <c r="A107" s="25">
         <v>44479</v>
       </c>
       <c r="B107">
@@ -51002,11 +52155,11 @@
         <v>9.48</v>
       </c>
       <c r="E107">
-        <v>42.07</v>
+        <v>40.409999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="4">
+      <c r="A108" s="25">
         <v>44486</v>
       </c>
       <c r="B108">
@@ -51019,11 +52172,11 @@
         <v>7.23</v>
       </c>
       <c r="E108">
-        <v>43.47</v>
+        <v>41.56</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="4">
+      <c r="A109" s="25">
         <v>44493</v>
       </c>
       <c r="B109">
@@ -51036,11 +52189,11 @@
         <v>7.8</v>
       </c>
       <c r="E109">
-        <v>42.22</v>
+        <v>40.659999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="4">
+      <c r="A110" s="25">
         <v>44500</v>
       </c>
       <c r="B110">
@@ -51053,11 +52206,11 @@
         <v>7.02</v>
       </c>
       <c r="E110">
-        <v>41.41</v>
+        <v>39.93</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="4">
+      <c r="A111" s="25">
         <v>44507</v>
       </c>
       <c r="B111">
@@ -51070,11 +52223,11 @@
         <v>6.34</v>
       </c>
       <c r="E111">
-        <v>41.23</v>
+        <v>39.729999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="4">
+      <c r="A112" s="25">
         <v>44514</v>
       </c>
       <c r="B112">
@@ -51087,11 +52240,11 @@
         <v>6.31</v>
       </c>
       <c r="E112">
-        <v>41.1</v>
+        <v>39.67</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="4">
+      <c r="A113" s="25">
         <v>44521</v>
       </c>
       <c r="B113">
@@ -51104,11 +52257,11 @@
         <v>7.04</v>
       </c>
       <c r="E113">
-        <v>41.04</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="4">
+      <c r="A114" s="25">
         <v>44528</v>
       </c>
       <c r="B114">
@@ -51121,11 +52274,11 @@
         <v>6.11</v>
       </c>
       <c r="E114">
-        <v>41.72</v>
+        <v>40.51</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="4">
+      <c r="A115" s="25">
         <v>44505</v>
       </c>
       <c r="B115">
@@ -51138,11 +52291,11 @@
         <v>6.53</v>
       </c>
       <c r="E115">
-        <v>41.95</v>
+        <v>40.450000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="4">
+      <c r="A116" s="25">
         <v>44542</v>
       </c>
       <c r="B116">
@@ -51155,11 +52308,11 @@
         <v>7.82</v>
       </c>
       <c r="E116">
-        <v>42.96</v>
+        <v>41.39</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="4">
+      <c r="A117" s="25">
         <v>44549</v>
       </c>
       <c r="B117">
@@ -51172,11 +52325,11 @@
         <v>7.12</v>
       </c>
       <c r="E117">
-        <v>42.23</v>
+        <v>40.86</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="4">
+      <c r="A118" s="25">
         <v>44556</v>
       </c>
       <c r="B118">
@@ -51189,11 +52342,11 @@
         <v>7.08</v>
       </c>
       <c r="E118">
-        <v>42.24</v>
+        <v>40.729999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="4">
+      <c r="A119" s="25">
         <v>44563</v>
       </c>
       <c r="B119">
@@ -51206,11 +52359,11 @@
         <v>5.35</v>
       </c>
       <c r="E119">
-        <v>41.86</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="4">
+      <c r="A120" s="25">
         <v>44570</v>
       </c>
       <c r="B120">
@@ -51223,11 +52376,11 @@
         <v>6.68</v>
       </c>
       <c r="E120">
-        <v>41.39</v>
+        <v>40.049999999999997</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="4">
+      <c r="A121" s="25">
         <v>44577</v>
       </c>
       <c r="B121">
@@ -51240,11 +52393,11 @@
         <v>4.99</v>
       </c>
       <c r="E121">
-        <v>40.700000000000003</v>
+        <v>39.65</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="4">
+      <c r="A122" s="25">
         <v>44584</v>
       </c>
       <c r="B122">
@@ -51255,7 +52408,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="4">
+      <c r="A123" s="25">
         <v>44591</v>
       </c>
       <c r="B123">
@@ -51266,7 +52419,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="4">
+      <c r="A124" s="25">
         <v>44598</v>
       </c>
       <c r="B124">
@@ -51277,7 +52430,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="4">
+      <c r="A125" s="25">
         <v>44605</v>
       </c>
       <c r="B125">
@@ -51288,7 +52441,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="3">
+      <c r="A126" s="25">
         <v>44612</v>
       </c>
       <c r="B126">
@@ -51299,7 +52452,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="3">
+      <c r="A127" s="25">
         <v>44619</v>
       </c>
       <c r="B127">
@@ -51310,7 +52463,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="3">
+      <c r="A128" s="25">
         <v>44626</v>
       </c>
       <c r="B128">
@@ -51318,6 +52471,28 @@
       </c>
       <c r="E128">
         <v>39.49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B129">
+        <v>7.73</v>
+      </c>
+      <c r="E129">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="25">
+        <v>44640</v>
+      </c>
+      <c r="B130">
+        <v>7.86</v>
+      </c>
+      <c r="E130">
+        <v>39.29</v>
       </c>
     </row>
   </sheetData>
@@ -51327,10 +52502,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DA751-8DDE-2444-A8CE-DEF963043B5D}">
-  <dimension ref="A1:J404"/>
+  <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="B397" sqref="B397"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -64261,6 +65436,454 @@
       </c>
       <c r="J404">
         <v>67.16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405" s="3">
+        <v>44633</v>
+      </c>
+      <c r="B405">
+        <v>64.36</v>
+      </c>
+      <c r="C405">
+        <v>57.17</v>
+      </c>
+      <c r="D405">
+        <v>67.7</v>
+      </c>
+      <c r="E405">
+        <v>64.25</v>
+      </c>
+      <c r="F405">
+        <v>55.65</v>
+      </c>
+      <c r="G405">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="H405">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="I405">
+        <v>58.17</v>
+      </c>
+      <c r="J405">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="3">
+        <v>44634</v>
+      </c>
+      <c r="B406">
+        <v>64.36</v>
+      </c>
+      <c r="C406">
+        <v>57.33</v>
+      </c>
+      <c r="D406">
+        <v>67.7</v>
+      </c>
+      <c r="E406">
+        <v>64.25</v>
+      </c>
+      <c r="F406">
+        <v>55.65</v>
+      </c>
+      <c r="G406">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="H406">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="I406">
+        <v>58.45</v>
+      </c>
+      <c r="J406">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B407">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="C407">
+        <v>58</v>
+      </c>
+      <c r="D407">
+        <v>67.52</v>
+      </c>
+      <c r="E407">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F407">
+        <v>56.49</v>
+      </c>
+      <c r="G407">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="H407">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="I407">
+        <v>59</v>
+      </c>
+      <c r="J407">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" s="3">
+        <v>44636</v>
+      </c>
+      <c r="B408">
+        <v>64.72</v>
+      </c>
+      <c r="C408">
+        <v>58.17</v>
+      </c>
+      <c r="D408">
+        <v>67.52</v>
+      </c>
+      <c r="E408">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F408">
+        <v>56.49</v>
+      </c>
+      <c r="G408">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="H408">
+        <v>64.72</v>
+      </c>
+      <c r="I408">
+        <v>59.28</v>
+      </c>
+      <c r="J408">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B409">
+        <v>64.72</v>
+      </c>
+      <c r="C409">
+        <v>58.17</v>
+      </c>
+      <c r="D409">
+        <v>67.52</v>
+      </c>
+      <c r="E409">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F409">
+        <v>56.49</v>
+      </c>
+      <c r="G409">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="H409">
+        <v>64.72</v>
+      </c>
+      <c r="I409">
+        <v>59.28</v>
+      </c>
+      <c r="J409">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B410">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="C410">
+        <v>58.17</v>
+      </c>
+      <c r="D410">
+        <v>67.88</v>
+      </c>
+      <c r="E410">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F410">
+        <v>56.9</v>
+      </c>
+      <c r="G410">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H410">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="I410">
+        <v>59</v>
+      </c>
+      <c r="J410">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="3">
+        <v>44639</v>
+      </c>
+      <c r="B411">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="C411">
+        <v>58</v>
+      </c>
+      <c r="D411">
+        <v>67.88</v>
+      </c>
+      <c r="E411">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F411">
+        <v>56.49</v>
+      </c>
+      <c r="G411">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H411">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="I411">
+        <v>59</v>
+      </c>
+      <c r="J411">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="3">
+        <v>44640</v>
+      </c>
+      <c r="B412">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="C412">
+        <v>58</v>
+      </c>
+      <c r="D412">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="E412">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F412">
+        <v>56.49</v>
+      </c>
+      <c r="G412">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H412">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="I412">
+        <v>59</v>
+      </c>
+      <c r="J412">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="A413" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B413">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="C413">
+        <v>58.17</v>
+      </c>
+      <c r="D413">
+        <v>67.7</v>
+      </c>
+      <c r="E413">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F413">
+        <v>56.9</v>
+      </c>
+      <c r="G413">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H413">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="I413">
+        <v>59</v>
+      </c>
+      <c r="J413">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10">
+      <c r="A414" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B414">
+        <v>64.72</v>
+      </c>
+      <c r="C414">
+        <v>57.83</v>
+      </c>
+      <c r="D414">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="E414">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="F414">
+        <v>56.49</v>
+      </c>
+      <c r="G414">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H414">
+        <v>64.72</v>
+      </c>
+      <c r="I414">
+        <v>58.73</v>
+      </c>
+      <c r="J414">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10">
+      <c r="A415" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B415">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="C415">
+        <v>58.17</v>
+      </c>
+      <c r="D415">
+        <v>68.430000000000007</v>
+      </c>
+      <c r="E415">
+        <v>65.16</v>
+      </c>
+      <c r="F415">
+        <v>56.9</v>
+      </c>
+      <c r="G415">
+        <v>69.48</v>
+      </c>
+      <c r="H415">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="I415">
+        <v>59</v>
+      </c>
+      <c r="J415">
+        <v>67.760000000000005</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10">
+      <c r="A416" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B416">
+        <v>64.89</v>
+      </c>
+      <c r="C416">
+        <v>58</v>
+      </c>
+      <c r="D416">
+        <v>68.430000000000007</v>
+      </c>
+      <c r="E416">
+        <v>65.16</v>
+      </c>
+      <c r="F416">
+        <v>56.9</v>
+      </c>
+      <c r="G416">
+        <v>69.48</v>
+      </c>
+      <c r="H416">
+        <v>64.72</v>
+      </c>
+      <c r="I416">
+        <v>58.73</v>
+      </c>
+      <c r="J416">
+        <v>67.760000000000005</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="A417" s="3">
+        <v>44645</v>
+      </c>
+      <c r="B417">
+        <v>64.89</v>
+      </c>
+      <c r="C417">
+        <v>58</v>
+      </c>
+      <c r="D417">
+        <v>68.25</v>
+      </c>
+      <c r="E417">
+        <v>65.16</v>
+      </c>
+      <c r="F417">
+        <v>57.32</v>
+      </c>
+      <c r="G417">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H417">
+        <v>64.72</v>
+      </c>
+      <c r="I417">
+        <v>58.45</v>
+      </c>
+      <c r="J417">
+        <v>67.760000000000005</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10">
+      <c r="A418" s="3">
+        <v>44646</v>
+      </c>
+      <c r="B418">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="C418">
+        <v>58</v>
+      </c>
+      <c r="D418">
+        <v>68.430000000000007</v>
+      </c>
+      <c r="E418">
+        <v>65.16</v>
+      </c>
+      <c r="F418">
+        <v>57.32</v>
+      </c>
+      <c r="G418">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H418">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="I418">
+        <v>58.45</v>
+      </c>
+      <c r="J418">
+        <v>68.06</v>
       </c>
     </row>
   </sheetData>
